--- a/Code/Results/Cases/Case_0_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.736422533709792</v>
+        <v>2.736422533709746</v>
       </c>
       <c r="D2">
-        <v>2.690655663783206</v>
+        <v>2.690655663783004</v>
       </c>
       <c r="E2">
-        <v>6.212407386296752</v>
+        <v>6.212407386296661</v>
       </c>
       <c r="F2">
-        <v>26.25303603025359</v>
+        <v>26.25303603025347</v>
       </c>
       <c r="G2">
-        <v>20.02306802998485</v>
+        <v>20.02306802998471</v>
       </c>
       <c r="H2">
-        <v>19.75545273868102</v>
+        <v>19.7554527386809</v>
       </c>
       <c r="I2">
-        <v>4.947729852805485</v>
+        <v>4.947729852805473</v>
       </c>
       <c r="J2">
-        <v>60.94747529019746</v>
+        <v>60.9474752901973</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>38.29814834112047</v>
+        <v>38.29814834112038</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.516622544144361</v>
+        <v>2.516622544144303</v>
       </c>
       <c r="D3">
-        <v>2.473957886317528</v>
+        <v>2.473957886317529</v>
       </c>
       <c r="E3">
-        <v>6.121467580955104</v>
+        <v>6.121467580955019</v>
       </c>
       <c r="F3">
-        <v>24.05788493619637</v>
+        <v>24.05788493619638</v>
       </c>
       <c r="G3">
-        <v>18.2330469312359</v>
+        <v>18.23304693123591</v>
       </c>
       <c r="H3">
-        <v>18.01382820038719</v>
+        <v>18.0138282003872</v>
       </c>
       <c r="I3">
-        <v>5.024708780398454</v>
+        <v>5.02470878039836</v>
       </c>
       <c r="J3">
-        <v>56.65033474522518</v>
+        <v>56.65033474522521</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>35.58941279855132</v>
+        <v>35.58941279855136</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.414636954031805</v>
+        <v>2.414636954031784</v>
       </c>
       <c r="D4">
-        <v>2.341817155730901</v>
+        <v>2.341817155731035</v>
       </c>
       <c r="E4">
-        <v>6.075478598238115</v>
+        <v>6.075478598238195</v>
       </c>
       <c r="F4">
-        <v>22.98750294269782</v>
+        <v>22.98750294269783</v>
       </c>
       <c r="G4">
-        <v>17.34624576859315</v>
+        <v>17.34624576859314</v>
       </c>
       <c r="H4">
-        <v>17.14364366638276</v>
+        <v>17.14364366638275</v>
       </c>
       <c r="I4">
-        <v>5.085356841807291</v>
+        <v>5.085356841807338</v>
       </c>
       <c r="J4">
-        <v>53.88306489707254</v>
+        <v>53.88306489707252</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>33.84703876056015</v>
+        <v>33.84703876056012</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.398768206831266</v>
+        <v>2.398768206831272</v>
       </c>
       <c r="D5">
-        <v>2.288054773718986</v>
+        <v>2.288054773718919</v>
       </c>
       <c r="E5">
-        <v>6.05906828749769</v>
+        <v>6.059068287497612</v>
       </c>
       <c r="F5">
-        <v>22.57256465541904</v>
+        <v>22.57256465541887</v>
       </c>
       <c r="G5">
-        <v>17.06763021755383</v>
+        <v>17.06763021755372</v>
       </c>
       <c r="H5">
-        <v>16.8668535353736</v>
+        <v>16.8668535353735</v>
       </c>
       <c r="I5">
-        <v>5.113051851615805</v>
+        <v>5.113051851615765</v>
       </c>
       <c r="J5">
-        <v>52.7220819720612</v>
+        <v>52.72208197206131</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>33.11649807904481</v>
+        <v>33.11649807904487</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.396208240311652</v>
+        <v>2.396208240311753</v>
       </c>
       <c r="D6">
-        <v>2.279128937934108</v>
+        <v>2.279128937933974</v>
       </c>
       <c r="E6">
-        <v>6.056480021954528</v>
+        <v>6.056480021954477</v>
       </c>
       <c r="F6">
-        <v>22.50459420540965</v>
+        <v>22.50459420540962</v>
       </c>
       <c r="G6">
         <v>17.0222883615208</v>
@@ -585,16 +585,16 @@
         <v>16.82164595164126</v>
       </c>
       <c r="I6">
-        <v>5.117820332575554</v>
+        <v>5.117820332575519</v>
       </c>
       <c r="J6">
-        <v>52.52726572339588</v>
+        <v>52.52726572339581</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>32.99393751417905</v>
+        <v>32.99393751417901</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -608,31 +608,31 @@
         <v>2.414417837598189</v>
       </c>
       <c r="D7">
-        <v>2.341091924626885</v>
+        <v>2.341091924626952</v>
       </c>
       <c r="E7">
-        <v>6.075248033245296</v>
+        <v>6.075248033245299</v>
       </c>
       <c r="F7">
-        <v>22.98184466390711</v>
+        <v>22.98184466390704</v>
       </c>
       <c r="G7">
-        <v>17.34242634620536</v>
+        <v>17.34242634620532</v>
       </c>
       <c r="H7">
-        <v>17.13986022417955</v>
+        <v>17.13986022417952</v>
       </c>
       <c r="I7">
-        <v>5.085718749530686</v>
+        <v>5.085718749530681</v>
       </c>
       <c r="J7">
-        <v>53.86754343172184</v>
+        <v>53.86754343172171</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>33.83727021268365</v>
+        <v>33.83727021268357</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.661317471133095</v>
+        <v>2.66131747113314</v>
       </c>
       <c r="D8">
-        <v>2.615656016263392</v>
+        <v>2.615656016263459</v>
       </c>
       <c r="E8">
-        <v>6.178916563775482</v>
+        <v>6.178916563775438</v>
       </c>
       <c r="F8">
-        <v>25.49045643158864</v>
+        <v>25.49045643158842</v>
       </c>
       <c r="G8">
-        <v>19.40284869761587</v>
+        <v>19.40284869761567</v>
       </c>
       <c r="H8">
-        <v>19.15389125138496</v>
+        <v>19.15389125138477</v>
       </c>
       <c r="I8">
-        <v>4.971246408012886</v>
+        <v>4.971246408012931</v>
       </c>
       <c r="J8">
-        <v>59.49197740992084</v>
+        <v>59.49197740992068</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>37.38023504273579</v>
+        <v>37.3802350427357</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.195294400371326</v>
+        <v>3.195294400371348</v>
       </c>
       <c r="D9">
-        <v>3.169061538368234</v>
+        <v>3.169061538368233</v>
       </c>
       <c r="E9">
-        <v>6.49635781231408</v>
+        <v>6.496357812314138</v>
       </c>
       <c r="F9">
-        <v>31.13799056554112</v>
+        <v>31.1379905655409</v>
       </c>
       <c r="G9">
-        <v>23.9675535430706</v>
+        <v>23.96755354307041</v>
       </c>
       <c r="H9">
-        <v>23.54613668825631</v>
+        <v>23.54613668825614</v>
       </c>
       <c r="I9">
-        <v>5.76381833088744</v>
+        <v>5.763818330887519</v>
       </c>
       <c r="J9">
-        <v>69.54644321500494</v>
+        <v>69.54644321500491</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>43.73053070940287</v>
+        <v>43.73053070940284</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.583225901281994</v>
+        <v>3.583225901281908</v>
       </c>
       <c r="D10">
-        <v>3.598202569031115</v>
+        <v>3.598202569031182</v>
       </c>
       <c r="E10">
-        <v>7.197749392393658</v>
+        <v>7.197749392393668</v>
       </c>
       <c r="F10">
-        <v>35.49176251774576</v>
+        <v>35.49176251774594</v>
       </c>
       <c r="G10">
-        <v>27.45715871317236</v>
+        <v>27.45715871317253</v>
       </c>
       <c r="H10">
-        <v>26.86339419527982</v>
+        <v>26.86339419527994</v>
       </c>
       <c r="I10">
-        <v>6.460744371372271</v>
+        <v>6.460744371372275</v>
       </c>
       <c r="J10">
-        <v>76.41682950020262</v>
+        <v>76.41682950020277</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>48.08346982032779</v>
+        <v>48.08346982032787</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.761602158452449</v>
+        <v>3.761602158452427</v>
       </c>
       <c r="D11">
-        <v>3.802359157529603</v>
+        <v>3.802359157529669</v>
       </c>
       <c r="E11">
-        <v>7.513962704330098</v>
+        <v>7.513962704330067</v>
       </c>
       <c r="F11">
-        <v>37.54187715681483</v>
+        <v>37.54187715681471</v>
       </c>
       <c r="G11">
-        <v>29.09546594385885</v>
+        <v>29.09546594385875</v>
       </c>
       <c r="H11">
-        <v>28.4122844564008</v>
+        <v>28.41228445640069</v>
       </c>
       <c r="I11">
-        <v>6.779426668362023</v>
+        <v>6.779426668362021</v>
       </c>
       <c r="J11">
-        <v>79.45229927387004</v>
+        <v>79.45229927386987</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>50.01064738359366</v>
+        <v>50.01064738359358</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.829736207165976</v>
+        <v>3.829736207165954</v>
       </c>
       <c r="D12">
-        <v>3.881403073830354</v>
+        <v>3.881403073830287</v>
       </c>
       <c r="E12">
-        <v>7.633629842889289</v>
+        <v>7.633629842889259</v>
       </c>
       <c r="F12">
-        <v>38.33132058447988</v>
+        <v>38.3313205844802</v>
       </c>
       <c r="G12">
-        <v>29.7257468097455</v>
+        <v>29.72574680974576</v>
       </c>
       <c r="H12">
-        <v>29.00694208257756</v>
+        <v>29.00694208257779</v>
       </c>
       <c r="I12">
-        <v>6.900825220353838</v>
+        <v>6.900825220353807</v>
       </c>
       <c r="J12">
-        <v>80.59119574530105</v>
+        <v>80.59119574530123</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>50.73439198118569</v>
+        <v>50.73439198118579</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.815030342963968</v>
+        <v>3.815030342963915</v>
       </c>
       <c r="D13">
-        <v>3.864293943541157</v>
+        <v>3.864293943541224</v>
       </c>
       <c r="E13">
-        <v>7.607854466912219</v>
+        <v>7.607854466912182</v>
       </c>
       <c r="F13">
-        <v>38.16065611490176</v>
+        <v>38.16065611490158</v>
       </c>
       <c r="G13">
-        <v>29.58951485435996</v>
+        <v>29.58951485435983</v>
       </c>
       <c r="H13">
-        <v>28.87846438023857</v>
+        <v>28.87846438023848</v>
       </c>
       <c r="I13">
-        <v>6.874638806539577</v>
+        <v>6.874638806539575</v>
       </c>
       <c r="J13">
-        <v>80.34634037697246</v>
+        <v>80.34634037697236</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>50.5787595989549</v>
+        <v>50.57875959895485</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.767193739845038</v>
+        <v>3.767193739845007</v>
       </c>
       <c r="D14">
-        <v>3.808824382815944</v>
+        <v>3.808824382815876</v>
       </c>
       <c r="E14">
-        <v>7.523807079431236</v>
+        <v>7.523807079431269</v>
       </c>
       <c r="F14">
-        <v>37.60654092927319</v>
+        <v>37.60654092927288</v>
       </c>
       <c r="G14">
-        <v>29.1471036648993</v>
+        <v>29.14710366489906</v>
       </c>
       <c r="H14">
-        <v>28.4610280844135</v>
+        <v>28.46102808441334</v>
       </c>
       <c r="I14">
-        <v>6.789396556808888</v>
+        <v>6.789396556808926</v>
       </c>
       <c r="J14">
         <v>79.54619326821602</v>
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.737979539767818</v>
+        <v>3.737979539767803</v>
       </c>
       <c r="D15">
-        <v>3.775088912614082</v>
+        <v>3.775088912614016</v>
       </c>
       <c r="E15">
-        <v>7.472327170082764</v>
+        <v>7.47232717008279</v>
       </c>
       <c r="F15">
-        <v>37.26894626293583</v>
+        <v>37.26894626293591</v>
       </c>
       <c r="G15">
-        <v>28.87749215688161</v>
+        <v>28.87749215688166</v>
       </c>
       <c r="H15">
-        <v>28.20647811995106</v>
+        <v>28.20647811995112</v>
       </c>
       <c r="I15">
-        <v>6.737293448374575</v>
+        <v>6.737293448374588</v>
       </c>
       <c r="J15">
-        <v>79.05478313297459</v>
+        <v>79.05478313297456</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>49.75812266458189</v>
+        <v>49.75812266458187</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.571631899254214</v>
+        <v>3.571631899254279</v>
       </c>
       <c r="D16">
-        <v>3.585076063618359</v>
+        <v>3.585076063618494</v>
       </c>
       <c r="E16">
-        <v>7.177053330985596</v>
+        <v>7.177053330985583</v>
       </c>
       <c r="F16">
         <v>35.35942566023066</v>
       </c>
       <c r="G16">
-        <v>27.35131748017745</v>
+        <v>27.35131748017749</v>
       </c>
       <c r="H16">
-        <v>26.76316141789614</v>
+        <v>26.76316141789616</v>
       </c>
       <c r="I16">
-        <v>6.439989606029354</v>
+        <v>6.439989606029362</v>
       </c>
       <c r="J16">
-        <v>76.21683461337744</v>
+        <v>76.21683461337739</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>47.95658492207247</v>
+        <v>47.95658492207244</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.470269828159828</v>
+        <v>3.470269828159842</v>
       </c>
       <c r="D17">
-        <v>3.471082961303672</v>
+        <v>3.471082961303604</v>
       </c>
       <c r="E17">
-        <v>6.995393439285544</v>
+        <v>6.995393439285505</v>
       </c>
       <c r="F17">
-        <v>34.20772313701114</v>
+        <v>34.20772313701118</v>
       </c>
       <c r="G17">
         <v>26.42968183563009</v>
       </c>
       <c r="H17">
-        <v>25.88943216818092</v>
+        <v>25.88943216818094</v>
       </c>
       <c r="I17">
-        <v>6.258334378918548</v>
+        <v>6.258334378918518</v>
       </c>
       <c r="J17">
         <v>74.45433240534058</v>
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.412125658291714</v>
+        <v>3.412125658291681</v>
       </c>
       <c r="D18">
-        <v>3.406325792331623</v>
+        <v>3.406325792331624</v>
       </c>
       <c r="E18">
-        <v>6.89061450132116</v>
+        <v>6.890614501321169</v>
       </c>
       <c r="F18">
-        <v>33.55160475467876</v>
+        <v>33.55160475467884</v>
       </c>
       <c r="G18">
-        <v>25.9041749826565</v>
+        <v>25.90417498265656</v>
       </c>
       <c r="H18">
-        <v>25.39045798438571</v>
+        <v>25.39045798438578</v>
       </c>
       <c r="I18">
-        <v>6.153971405049949</v>
+        <v>6.153971405049942</v>
       </c>
       <c r="J18">
-        <v>73.43195735183906</v>
+        <v>73.43195735183913</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>46.19084415349547</v>
+        <v>46.19084415349551</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.392457634323347</v>
+        <v>3.392457634323341</v>
       </c>
       <c r="D19">
-        <v>3.384527164369447</v>
+        <v>3.384527164369448</v>
       </c>
       <c r="E19">
-        <v>6.855079004650459</v>
+        <v>6.855079004650473</v>
       </c>
       <c r="F19">
-        <v>33.330459145662</v>
+        <v>33.33045914566198</v>
       </c>
       <c r="G19">
-        <v>25.72697025602818</v>
+        <v>25.72697025602819</v>
       </c>
       <c r="H19">
         <v>25.22206545547996</v>
       </c>
       <c r="I19">
-        <v>6.118643643829882</v>
+        <v>6.118643643829883</v>
       </c>
       <c r="J19">
-        <v>73.08425315305445</v>
+        <v>73.08425315305446</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.481041765152637</v>
+        <v>3.481041765152589</v>
       </c>
       <c r="D20">
-        <v>3.483131145422489</v>
+        <v>3.483131145422556</v>
       </c>
       <c r="E20">
-        <v>7.014759616250338</v>
+        <v>7.014759616250263</v>
       </c>
       <c r="F20">
-        <v>34.32965135252298</v>
+        <v>34.32965135252326</v>
       </c>
       <c r="G20">
-        <v>26.52729992679278</v>
+        <v>26.52729992679306</v>
       </c>
       <c r="H20">
-        <v>25.98205734174265</v>
+        <v>25.98205734174293</v>
       </c>
       <c r="I20">
-        <v>6.277656299133165</v>
+        <v>6.277656299133104</v>
       </c>
       <c r="J20">
-        <v>74.64283162530917</v>
+        <v>74.64283162530916</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>46.9583453309509</v>
+        <v>46.95834533095092</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.781225678832508</v>
+        <v>3.781225678832493</v>
       </c>
       <c r="D21">
-        <v>3.825065883252191</v>
+        <v>3.825065883252125</v>
       </c>
       <c r="E21">
-        <v>7.548492785597352</v>
+        <v>7.548492785597332</v>
       </c>
       <c r="F21">
-        <v>37.76891230561395</v>
+        <v>37.76891230561408</v>
       </c>
       <c r="G21">
-        <v>29.27675756976309</v>
+        <v>29.27675756976318</v>
       </c>
       <c r="H21">
-        <v>28.58339594136151</v>
+        <v>28.58339594136158</v>
       </c>
       <c r="I21">
-        <v>6.814410258919744</v>
+        <v>6.814410258919724</v>
       </c>
       <c r="J21">
-        <v>79.78148110481403</v>
+        <v>79.78148110481408</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>50.21979669404284</v>
+        <v>50.21979669404287</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.981044520416494</v>
+        <v>3.981044520416509</v>
       </c>
       <c r="D22">
-        <v>4.058954262862319</v>
+        <v>4.058954262862454</v>
       </c>
       <c r="E22">
-        <v>7.897101079606777</v>
+        <v>7.897101079606764</v>
       </c>
       <c r="F22">
-        <v>40.09533238849844</v>
+        <v>40.09533238849857</v>
       </c>
       <c r="G22">
-        <v>31.13316798323099</v>
+        <v>31.13316798323114</v>
       </c>
       <c r="H22">
-        <v>30.33257908083282</v>
+        <v>30.33257908083296</v>
       </c>
       <c r="I22">
-        <v>7.169730407033572</v>
+        <v>7.169730407033603</v>
       </c>
       <c r="J22">
-        <v>83.0798225981425</v>
+        <v>83.07982259814256</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>52.31720823911864</v>
+        <v>52.31720823911871</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.873938712021621</v>
+        <v>3.873938712021484</v>
       </c>
       <c r="D23">
-        <v>3.932988138997658</v>
+        <v>3.932988138997996</v>
       </c>
       <c r="E23">
-        <v>7.710926778056422</v>
+        <v>7.710926778056375</v>
       </c>
       <c r="F23">
-        <v>38.84516764876078</v>
+        <v>38.84516764876102</v>
       </c>
       <c r="G23">
-        <v>30.13584664403009</v>
+        <v>30.13584664403037</v>
       </c>
       <c r="H23">
-        <v>29.39352247858434</v>
+        <v>29.39352247858459</v>
       </c>
       <c r="I23">
-        <v>6.979481999843105</v>
+        <v>6.979481999843124</v>
       </c>
       <c r="J23">
-        <v>81.3239928886473</v>
+        <v>81.32399288864744</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>51.20027089512607</v>
+        <v>51.20027089512613</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.476171389260099</v>
+        <v>3.476171389260107</v>
       </c>
       <c r="D24">
-        <v>3.477681767193799</v>
+        <v>3.477681767193867</v>
       </c>
       <c r="E24">
-        <v>7.006005251440777</v>
+        <v>7.006005251440783</v>
       </c>
       <c r="F24">
-        <v>34.27450910440369</v>
+        <v>34.2745091044038</v>
       </c>
       <c r="G24">
-        <v>26.48315340984739</v>
+        <v>26.48315340984751</v>
       </c>
       <c r="H24">
-        <v>25.9401712543774</v>
+        <v>25.9401712543775</v>
       </c>
       <c r="I24">
-        <v>6.268920666331013</v>
+        <v>6.26892066633105</v>
       </c>
       <c r="J24">
-        <v>74.55763960841924</v>
+        <v>74.55763960841927</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>46.90433478247576</v>
+        <v>46.90433478247579</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.052419950846735</v>
+        <v>3.052419950846684</v>
       </c>
       <c r="D25">
-        <v>3.016527594133573</v>
+        <v>3.016527594133371</v>
       </c>
       <c r="E25">
-        <v>6.379234881080722</v>
+        <v>6.379234881080752</v>
       </c>
       <c r="F25">
-        <v>29.58059246414854</v>
+        <v>29.58059246414849</v>
       </c>
       <c r="G25">
-        <v>22.71432269261625</v>
+        <v>22.71432269261619</v>
       </c>
       <c r="H25">
-        <v>22.34739388278998</v>
+        <v>22.34739388278996</v>
       </c>
       <c r="I25">
-        <v>5.505973498798403</v>
+        <v>5.505973498798385</v>
       </c>
       <c r="J25">
-        <v>66.9235890184639</v>
+        <v>66.92358901846394</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>42.07178290652027</v>
+        <v>42.0717829065203</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.736422533709746</v>
+        <v>2.736422533709792</v>
       </c>
       <c r="D2">
-        <v>2.690655663783004</v>
+        <v>2.690655663783206</v>
       </c>
       <c r="E2">
-        <v>6.212407386296661</v>
+        <v>6.212407386296752</v>
       </c>
       <c r="F2">
-        <v>26.25303603025347</v>
+        <v>26.25303603025359</v>
       </c>
       <c r="G2">
-        <v>20.02306802998471</v>
+        <v>20.02306802998485</v>
       </c>
       <c r="H2">
-        <v>19.7554527386809</v>
+        <v>19.75545273868102</v>
       </c>
       <c r="I2">
-        <v>4.947729852805473</v>
+        <v>4.947729852805485</v>
       </c>
       <c r="J2">
-        <v>60.9474752901973</v>
+        <v>60.94747529019746</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>38.29814834112038</v>
+        <v>38.29814834112047</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.516622544144303</v>
+        <v>2.516622544144361</v>
       </c>
       <c r="D3">
-        <v>2.473957886317529</v>
+        <v>2.473957886317528</v>
       </c>
       <c r="E3">
-        <v>6.121467580955019</v>
+        <v>6.121467580955104</v>
       </c>
       <c r="F3">
-        <v>24.05788493619638</v>
+        <v>24.05788493619637</v>
       </c>
       <c r="G3">
-        <v>18.23304693123591</v>
+        <v>18.2330469312359</v>
       </c>
       <c r="H3">
-        <v>18.0138282003872</v>
+        <v>18.01382820038719</v>
       </c>
       <c r="I3">
-        <v>5.02470878039836</v>
+        <v>5.024708780398454</v>
       </c>
       <c r="J3">
-        <v>56.65033474522521</v>
+        <v>56.65033474522518</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>35.58941279855136</v>
+        <v>35.58941279855132</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.414636954031784</v>
+        <v>2.414636954031805</v>
       </c>
       <c r="D4">
-        <v>2.341817155731035</v>
+        <v>2.341817155730901</v>
       </c>
       <c r="E4">
-        <v>6.075478598238195</v>
+        <v>6.075478598238115</v>
       </c>
       <c r="F4">
-        <v>22.98750294269783</v>
+        <v>22.98750294269782</v>
       </c>
       <c r="G4">
-        <v>17.34624576859314</v>
+        <v>17.34624576859315</v>
       </c>
       <c r="H4">
-        <v>17.14364366638275</v>
+        <v>17.14364366638276</v>
       </c>
       <c r="I4">
-        <v>5.085356841807338</v>
+        <v>5.085356841807291</v>
       </c>
       <c r="J4">
-        <v>53.88306489707252</v>
+        <v>53.88306489707254</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>33.84703876056012</v>
+        <v>33.84703876056015</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.398768206831272</v>
+        <v>2.398768206831266</v>
       </c>
       <c r="D5">
-        <v>2.288054773718919</v>
+        <v>2.288054773718986</v>
       </c>
       <c r="E5">
-        <v>6.059068287497612</v>
+        <v>6.05906828749769</v>
       </c>
       <c r="F5">
-        <v>22.57256465541887</v>
+        <v>22.57256465541904</v>
       </c>
       <c r="G5">
-        <v>17.06763021755372</v>
+        <v>17.06763021755383</v>
       </c>
       <c r="H5">
-        <v>16.8668535353735</v>
+        <v>16.8668535353736</v>
       </c>
       <c r="I5">
-        <v>5.113051851615765</v>
+        <v>5.113051851615805</v>
       </c>
       <c r="J5">
-        <v>52.72208197206131</v>
+        <v>52.7220819720612</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>33.11649807904487</v>
+        <v>33.11649807904481</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.396208240311753</v>
+        <v>2.396208240311652</v>
       </c>
       <c r="D6">
-        <v>2.279128937933974</v>
+        <v>2.279128937934108</v>
       </c>
       <c r="E6">
-        <v>6.056480021954477</v>
+        <v>6.056480021954528</v>
       </c>
       <c r="F6">
-        <v>22.50459420540962</v>
+        <v>22.50459420540965</v>
       </c>
       <c r="G6">
         <v>17.0222883615208</v>
@@ -585,16 +585,16 @@
         <v>16.82164595164126</v>
       </c>
       <c r="I6">
-        <v>5.117820332575519</v>
+        <v>5.117820332575554</v>
       </c>
       <c r="J6">
-        <v>52.52726572339581</v>
+        <v>52.52726572339588</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>32.99393751417901</v>
+        <v>32.99393751417905</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -608,31 +608,31 @@
         <v>2.414417837598189</v>
       </c>
       <c r="D7">
-        <v>2.341091924626952</v>
+        <v>2.341091924626885</v>
       </c>
       <c r="E7">
-        <v>6.075248033245299</v>
+        <v>6.075248033245296</v>
       </c>
       <c r="F7">
-        <v>22.98184466390704</v>
+        <v>22.98184466390711</v>
       </c>
       <c r="G7">
-        <v>17.34242634620532</v>
+        <v>17.34242634620536</v>
       </c>
       <c r="H7">
-        <v>17.13986022417952</v>
+        <v>17.13986022417955</v>
       </c>
       <c r="I7">
-        <v>5.085718749530681</v>
+        <v>5.085718749530686</v>
       </c>
       <c r="J7">
-        <v>53.86754343172171</v>
+        <v>53.86754343172184</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>33.83727021268357</v>
+        <v>33.83727021268365</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.66131747113314</v>
+        <v>2.661317471133095</v>
       </c>
       <c r="D8">
-        <v>2.615656016263459</v>
+        <v>2.615656016263392</v>
       </c>
       <c r="E8">
-        <v>6.178916563775438</v>
+        <v>6.178916563775482</v>
       </c>
       <c r="F8">
-        <v>25.49045643158842</v>
+        <v>25.49045643158864</v>
       </c>
       <c r="G8">
-        <v>19.40284869761567</v>
+        <v>19.40284869761587</v>
       </c>
       <c r="H8">
-        <v>19.15389125138477</v>
+        <v>19.15389125138496</v>
       </c>
       <c r="I8">
-        <v>4.971246408012931</v>
+        <v>4.971246408012886</v>
       </c>
       <c r="J8">
-        <v>59.49197740992068</v>
+        <v>59.49197740992084</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>37.3802350427357</v>
+        <v>37.38023504273579</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.195294400371348</v>
+        <v>3.195294400371326</v>
       </c>
       <c r="D9">
-        <v>3.169061538368233</v>
+        <v>3.169061538368234</v>
       </c>
       <c r="E9">
-        <v>6.496357812314138</v>
+        <v>6.49635781231408</v>
       </c>
       <c r="F9">
-        <v>31.1379905655409</v>
+        <v>31.13799056554112</v>
       </c>
       <c r="G9">
-        <v>23.96755354307041</v>
+        <v>23.9675535430706</v>
       </c>
       <c r="H9">
-        <v>23.54613668825614</v>
+        <v>23.54613668825631</v>
       </c>
       <c r="I9">
-        <v>5.763818330887519</v>
+        <v>5.76381833088744</v>
       </c>
       <c r="J9">
-        <v>69.54644321500491</v>
+        <v>69.54644321500494</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>43.73053070940284</v>
+        <v>43.73053070940287</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.583225901281908</v>
+        <v>3.583225901281994</v>
       </c>
       <c r="D10">
-        <v>3.598202569031182</v>
+        <v>3.598202569031115</v>
       </c>
       <c r="E10">
-        <v>7.197749392393668</v>
+        <v>7.197749392393658</v>
       </c>
       <c r="F10">
-        <v>35.49176251774594</v>
+        <v>35.49176251774576</v>
       </c>
       <c r="G10">
-        <v>27.45715871317253</v>
+        <v>27.45715871317236</v>
       </c>
       <c r="H10">
-        <v>26.86339419527994</v>
+        <v>26.86339419527982</v>
       </c>
       <c r="I10">
-        <v>6.460744371372275</v>
+        <v>6.460744371372271</v>
       </c>
       <c r="J10">
-        <v>76.41682950020277</v>
+        <v>76.41682950020262</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>48.08346982032787</v>
+        <v>48.08346982032779</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.761602158452427</v>
+        <v>3.761602158452449</v>
       </c>
       <c r="D11">
-        <v>3.802359157529669</v>
+        <v>3.802359157529603</v>
       </c>
       <c r="E11">
-        <v>7.513962704330067</v>
+        <v>7.513962704330098</v>
       </c>
       <c r="F11">
-        <v>37.54187715681471</v>
+        <v>37.54187715681483</v>
       </c>
       <c r="G11">
-        <v>29.09546594385875</v>
+        <v>29.09546594385885</v>
       </c>
       <c r="H11">
-        <v>28.41228445640069</v>
+        <v>28.4122844564008</v>
       </c>
       <c r="I11">
-        <v>6.779426668362021</v>
+        <v>6.779426668362023</v>
       </c>
       <c r="J11">
-        <v>79.45229927386987</v>
+        <v>79.45229927387004</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>50.01064738359358</v>
+        <v>50.01064738359366</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.829736207165954</v>
+        <v>3.829736207165976</v>
       </c>
       <c r="D12">
-        <v>3.881403073830287</v>
+        <v>3.881403073830354</v>
       </c>
       <c r="E12">
-        <v>7.633629842889259</v>
+        <v>7.633629842889289</v>
       </c>
       <c r="F12">
-        <v>38.3313205844802</v>
+        <v>38.33132058447988</v>
       </c>
       <c r="G12">
-        <v>29.72574680974576</v>
+        <v>29.7257468097455</v>
       </c>
       <c r="H12">
-        <v>29.00694208257779</v>
+        <v>29.00694208257756</v>
       </c>
       <c r="I12">
-        <v>6.900825220353807</v>
+        <v>6.900825220353838</v>
       </c>
       <c r="J12">
-        <v>80.59119574530123</v>
+        <v>80.59119574530105</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>50.73439198118579</v>
+        <v>50.73439198118569</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.815030342963915</v>
+        <v>3.815030342963968</v>
       </c>
       <c r="D13">
-        <v>3.864293943541224</v>
+        <v>3.864293943541157</v>
       </c>
       <c r="E13">
-        <v>7.607854466912182</v>
+        <v>7.607854466912219</v>
       </c>
       <c r="F13">
-        <v>38.16065611490158</v>
+        <v>38.16065611490176</v>
       </c>
       <c r="G13">
-        <v>29.58951485435983</v>
+        <v>29.58951485435996</v>
       </c>
       <c r="H13">
-        <v>28.87846438023848</v>
+        <v>28.87846438023857</v>
       </c>
       <c r="I13">
-        <v>6.874638806539575</v>
+        <v>6.874638806539577</v>
       </c>
       <c r="J13">
-        <v>80.34634037697236</v>
+        <v>80.34634037697246</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>50.57875959895485</v>
+        <v>50.5787595989549</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.767193739845007</v>
+        <v>3.767193739845038</v>
       </c>
       <c r="D14">
-        <v>3.808824382815876</v>
+        <v>3.808824382815944</v>
       </c>
       <c r="E14">
-        <v>7.523807079431269</v>
+        <v>7.523807079431236</v>
       </c>
       <c r="F14">
-        <v>37.60654092927288</v>
+        <v>37.60654092927319</v>
       </c>
       <c r="G14">
-        <v>29.14710366489906</v>
+        <v>29.1471036648993</v>
       </c>
       <c r="H14">
-        <v>28.46102808441334</v>
+        <v>28.4610280844135</v>
       </c>
       <c r="I14">
-        <v>6.789396556808926</v>
+        <v>6.789396556808888</v>
       </c>
       <c r="J14">
         <v>79.54619326821602</v>
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.737979539767803</v>
+        <v>3.737979539767818</v>
       </c>
       <c r="D15">
-        <v>3.775088912614016</v>
+        <v>3.775088912614082</v>
       </c>
       <c r="E15">
-        <v>7.47232717008279</v>
+        <v>7.472327170082764</v>
       </c>
       <c r="F15">
-        <v>37.26894626293591</v>
+        <v>37.26894626293583</v>
       </c>
       <c r="G15">
-        <v>28.87749215688166</v>
+        <v>28.87749215688161</v>
       </c>
       <c r="H15">
-        <v>28.20647811995112</v>
+        <v>28.20647811995106</v>
       </c>
       <c r="I15">
-        <v>6.737293448374588</v>
+        <v>6.737293448374575</v>
       </c>
       <c r="J15">
-        <v>79.05478313297456</v>
+        <v>79.05478313297459</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>49.75812266458187</v>
+        <v>49.75812266458189</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.571631899254279</v>
+        <v>3.571631899254214</v>
       </c>
       <c r="D16">
-        <v>3.585076063618494</v>
+        <v>3.585076063618359</v>
       </c>
       <c r="E16">
-        <v>7.177053330985583</v>
+        <v>7.177053330985596</v>
       </c>
       <c r="F16">
         <v>35.35942566023066</v>
       </c>
       <c r="G16">
-        <v>27.35131748017749</v>
+        <v>27.35131748017745</v>
       </c>
       <c r="H16">
-        <v>26.76316141789616</v>
+        <v>26.76316141789614</v>
       </c>
       <c r="I16">
-        <v>6.439989606029362</v>
+        <v>6.439989606029354</v>
       </c>
       <c r="J16">
-        <v>76.21683461337739</v>
+        <v>76.21683461337744</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>47.95658492207244</v>
+        <v>47.95658492207247</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.470269828159842</v>
+        <v>3.470269828159828</v>
       </c>
       <c r="D17">
-        <v>3.471082961303604</v>
+        <v>3.471082961303672</v>
       </c>
       <c r="E17">
-        <v>6.995393439285505</v>
+        <v>6.995393439285544</v>
       </c>
       <c r="F17">
-        <v>34.20772313701118</v>
+        <v>34.20772313701114</v>
       </c>
       <c r="G17">
         <v>26.42968183563009</v>
       </c>
       <c r="H17">
-        <v>25.88943216818094</v>
+        <v>25.88943216818092</v>
       </c>
       <c r="I17">
-        <v>6.258334378918518</v>
+        <v>6.258334378918548</v>
       </c>
       <c r="J17">
         <v>74.45433240534058</v>
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.412125658291681</v>
+        <v>3.412125658291714</v>
       </c>
       <c r="D18">
-        <v>3.406325792331624</v>
+        <v>3.406325792331623</v>
       </c>
       <c r="E18">
-        <v>6.890614501321169</v>
+        <v>6.89061450132116</v>
       </c>
       <c r="F18">
-        <v>33.55160475467884</v>
+        <v>33.55160475467876</v>
       </c>
       <c r="G18">
-        <v>25.90417498265656</v>
+        <v>25.9041749826565</v>
       </c>
       <c r="H18">
-        <v>25.39045798438578</v>
+        <v>25.39045798438571</v>
       </c>
       <c r="I18">
-        <v>6.153971405049942</v>
+        <v>6.153971405049949</v>
       </c>
       <c r="J18">
-        <v>73.43195735183913</v>
+        <v>73.43195735183906</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>46.19084415349551</v>
+        <v>46.19084415349547</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.392457634323341</v>
+        <v>3.392457634323347</v>
       </c>
       <c r="D19">
-        <v>3.384527164369448</v>
+        <v>3.384527164369447</v>
       </c>
       <c r="E19">
-        <v>6.855079004650473</v>
+        <v>6.855079004650459</v>
       </c>
       <c r="F19">
-        <v>33.33045914566198</v>
+        <v>33.330459145662</v>
       </c>
       <c r="G19">
-        <v>25.72697025602819</v>
+        <v>25.72697025602818</v>
       </c>
       <c r="H19">
         <v>25.22206545547996</v>
       </c>
       <c r="I19">
-        <v>6.118643643829883</v>
+        <v>6.118643643829882</v>
       </c>
       <c r="J19">
-        <v>73.08425315305446</v>
+        <v>73.08425315305445</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.481041765152589</v>
+        <v>3.481041765152637</v>
       </c>
       <c r="D20">
-        <v>3.483131145422556</v>
+        <v>3.483131145422489</v>
       </c>
       <c r="E20">
-        <v>7.014759616250263</v>
+        <v>7.014759616250338</v>
       </c>
       <c r="F20">
-        <v>34.32965135252326</v>
+        <v>34.32965135252298</v>
       </c>
       <c r="G20">
-        <v>26.52729992679306</v>
+        <v>26.52729992679278</v>
       </c>
       <c r="H20">
-        <v>25.98205734174293</v>
+        <v>25.98205734174265</v>
       </c>
       <c r="I20">
-        <v>6.277656299133104</v>
+        <v>6.277656299133165</v>
       </c>
       <c r="J20">
-        <v>74.64283162530916</v>
+        <v>74.64283162530917</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>46.95834533095092</v>
+        <v>46.9583453309509</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.781225678832493</v>
+        <v>3.781225678832508</v>
       </c>
       <c r="D21">
-        <v>3.825065883252125</v>
+        <v>3.825065883252191</v>
       </c>
       <c r="E21">
-        <v>7.548492785597332</v>
+        <v>7.548492785597352</v>
       </c>
       <c r="F21">
-        <v>37.76891230561408</v>
+        <v>37.76891230561395</v>
       </c>
       <c r="G21">
-        <v>29.27675756976318</v>
+        <v>29.27675756976309</v>
       </c>
       <c r="H21">
-        <v>28.58339594136158</v>
+        <v>28.58339594136151</v>
       </c>
       <c r="I21">
-        <v>6.814410258919724</v>
+        <v>6.814410258919744</v>
       </c>
       <c r="J21">
-        <v>79.78148110481408</v>
+        <v>79.78148110481403</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>50.21979669404287</v>
+        <v>50.21979669404284</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.981044520416509</v>
+        <v>3.981044520416494</v>
       </c>
       <c r="D22">
-        <v>4.058954262862454</v>
+        <v>4.058954262862319</v>
       </c>
       <c r="E22">
-        <v>7.897101079606764</v>
+        <v>7.897101079606777</v>
       </c>
       <c r="F22">
-        <v>40.09533238849857</v>
+        <v>40.09533238849844</v>
       </c>
       <c r="G22">
-        <v>31.13316798323114</v>
+        <v>31.13316798323099</v>
       </c>
       <c r="H22">
-        <v>30.33257908083296</v>
+        <v>30.33257908083282</v>
       </c>
       <c r="I22">
-        <v>7.169730407033603</v>
+        <v>7.169730407033572</v>
       </c>
       <c r="J22">
-        <v>83.07982259814256</v>
+        <v>83.0798225981425</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>52.31720823911871</v>
+        <v>52.31720823911864</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.873938712021484</v>
+        <v>3.873938712021621</v>
       </c>
       <c r="D23">
-        <v>3.932988138997996</v>
+        <v>3.932988138997658</v>
       </c>
       <c r="E23">
-        <v>7.710926778056375</v>
+        <v>7.710926778056422</v>
       </c>
       <c r="F23">
-        <v>38.84516764876102</v>
+        <v>38.84516764876078</v>
       </c>
       <c r="G23">
-        <v>30.13584664403037</v>
+        <v>30.13584664403009</v>
       </c>
       <c r="H23">
-        <v>29.39352247858459</v>
+        <v>29.39352247858434</v>
       </c>
       <c r="I23">
-        <v>6.979481999843124</v>
+        <v>6.979481999843105</v>
       </c>
       <c r="J23">
-        <v>81.32399288864744</v>
+        <v>81.3239928886473</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>51.20027089512613</v>
+        <v>51.20027089512607</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.476171389260107</v>
+        <v>3.476171389260099</v>
       </c>
       <c r="D24">
-        <v>3.477681767193867</v>
+        <v>3.477681767193799</v>
       </c>
       <c r="E24">
-        <v>7.006005251440783</v>
+        <v>7.006005251440777</v>
       </c>
       <c r="F24">
-        <v>34.2745091044038</v>
+        <v>34.27450910440369</v>
       </c>
       <c r="G24">
-        <v>26.48315340984751</v>
+        <v>26.48315340984739</v>
       </c>
       <c r="H24">
-        <v>25.9401712543775</v>
+        <v>25.9401712543774</v>
       </c>
       <c r="I24">
-        <v>6.26892066633105</v>
+        <v>6.268920666331013</v>
       </c>
       <c r="J24">
-        <v>74.55763960841927</v>
+        <v>74.55763960841924</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>46.90433478247579</v>
+        <v>46.90433478247576</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.052419950846684</v>
+        <v>3.052419950846735</v>
       </c>
       <c r="D25">
-        <v>3.016527594133371</v>
+        <v>3.016527594133573</v>
       </c>
       <c r="E25">
-        <v>6.379234881080752</v>
+        <v>6.379234881080722</v>
       </c>
       <c r="F25">
-        <v>29.58059246414849</v>
+        <v>29.58059246414854</v>
       </c>
       <c r="G25">
-        <v>22.71432269261619</v>
+        <v>22.71432269261625</v>
       </c>
       <c r="H25">
-        <v>22.34739388278996</v>
+        <v>22.34739388278998</v>
       </c>
       <c r="I25">
-        <v>5.505973498798385</v>
+        <v>5.505973498798403</v>
       </c>
       <c r="J25">
-        <v>66.92358901846394</v>
+        <v>66.9235890184639</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>42.0717829065203</v>
+        <v>42.07178290652027</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.736422533709792</v>
+        <v>2.738967536779955</v>
       </c>
       <c r="D2">
-        <v>2.690655663783206</v>
+        <v>2.689122661081803</v>
       </c>
       <c r="E2">
-        <v>6.212407386296752</v>
+        <v>6.210711294900269</v>
       </c>
       <c r="F2">
-        <v>26.25303603025359</v>
+        <v>26.23411784183557</v>
       </c>
       <c r="G2">
-        <v>20.02306802998485</v>
+        <v>20.05540454327151</v>
       </c>
       <c r="H2">
-        <v>19.75545273868102</v>
+        <v>19.6816327913933</v>
       </c>
       <c r="I2">
-        <v>4.947729852805485</v>
+        <v>19.74118433347336</v>
       </c>
       <c r="J2">
-        <v>60.94747529019746</v>
+        <v>4.948213353610972</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>60.94545194521391</v>
       </c>
       <c r="L2">
-        <v>38.29814834112047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>38.29719416802059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.516622544144361</v>
+        <v>2.519173073502925</v>
       </c>
       <c r="D3">
-        <v>2.473957886317528</v>
+        <v>2.472832548062202</v>
       </c>
       <c r="E3">
-        <v>6.121467580955104</v>
+        <v>6.119976319327156</v>
       </c>
       <c r="F3">
-        <v>24.05788493619637</v>
+        <v>24.04059183533411</v>
       </c>
       <c r="G3">
-        <v>18.2330469312359</v>
+        <v>18.2626733745478</v>
       </c>
       <c r="H3">
-        <v>18.01382820038719</v>
+        <v>18.09643299527741</v>
       </c>
       <c r="I3">
-        <v>5.024708780398454</v>
+        <v>18.00078060243412</v>
       </c>
       <c r="J3">
-        <v>56.65033474522518</v>
+        <v>5.025105331007482</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>56.64878200082871</v>
       </c>
       <c r="L3">
-        <v>35.58941279855132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>35.58875573296314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.414636954031805</v>
+        <v>2.417402379503811</v>
       </c>
       <c r="D4">
-        <v>2.341817155730901</v>
+        <v>2.340940948689272</v>
       </c>
       <c r="E4">
-        <v>6.075478598238115</v>
+        <v>6.074139029835185</v>
       </c>
       <c r="F4">
-        <v>22.98750294269782</v>
+        <v>22.97198320939087</v>
       </c>
       <c r="G4">
-        <v>17.34624576859315</v>
+        <v>17.17573489977052</v>
       </c>
       <c r="H4">
-        <v>17.14364366638276</v>
+        <v>17.37388744717774</v>
       </c>
       <c r="I4">
-        <v>5.085356841807291</v>
+        <v>17.13235279927287</v>
       </c>
       <c r="J4">
-        <v>53.88306489707254</v>
+        <v>5.085707274752189</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>53.88177870924667</v>
       </c>
       <c r="L4">
-        <v>33.84703876056015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>33.84654803087778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.398768206831266</v>
+        <v>2.401428802183134</v>
       </c>
       <c r="D5">
-        <v>2.288054773718986</v>
+        <v>2.287280145447315</v>
       </c>
       <c r="E5">
-        <v>6.05906828749769</v>
+        <v>6.05779648739876</v>
       </c>
       <c r="F5">
-        <v>22.57256465541904</v>
+        <v>22.55744155470326</v>
       </c>
       <c r="G5">
-        <v>17.06763021755383</v>
+        <v>16.73614569089221</v>
       </c>
       <c r="H5">
-        <v>16.8668535353736</v>
+        <v>17.09481407116334</v>
       </c>
       <c r="I5">
-        <v>5.113051851615805</v>
+        <v>16.85585895282831</v>
       </c>
       <c r="J5">
-        <v>52.7220819720612</v>
+        <v>5.113385222165951</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>52.72089995887679</v>
       </c>
       <c r="L5">
-        <v>33.11649807904481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>33.11607188815975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.396208240311652</v>
+        <v>2.398850941908562</v>
       </c>
       <c r="D6">
-        <v>2.279128937934108</v>
+        <v>2.278371189222592</v>
       </c>
       <c r="E6">
-        <v>6.056480021954528</v>
+        <v>6.055219817491038</v>
       </c>
       <c r="F6">
-        <v>22.50459420540965</v>
+        <v>22.48953661764942</v>
       </c>
       <c r="G6">
-        <v>17.0222883615208</v>
+        <v>16.66335597620101</v>
       </c>
       <c r="H6">
-        <v>16.82164595164126</v>
+        <v>17.04939788935441</v>
       </c>
       <c r="I6">
-        <v>5.117820332575554</v>
+        <v>16.81070024722864</v>
       </c>
       <c r="J6">
-        <v>52.52726572339588</v>
+        <v>5.11815097074746</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>52.5261007705329</v>
       </c>
       <c r="L6">
-        <v>32.99393751417905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>32.99352186491555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.414417837598189</v>
+        <v>2.417181882579685</v>
       </c>
       <c r="D7">
-        <v>2.341091924626885</v>
+        <v>2.340217086866466</v>
       </c>
       <c r="E7">
-        <v>6.075248033245296</v>
+        <v>6.07390935544526</v>
       </c>
       <c r="F7">
-        <v>22.98184466390711</v>
+        <v>22.96633030363587</v>
       </c>
       <c r="G7">
-        <v>17.34242634620536</v>
+        <v>17.16979286005447</v>
       </c>
       <c r="H7">
-        <v>17.13986022417955</v>
+        <v>17.37006173740036</v>
       </c>
       <c r="I7">
-        <v>5.085718749530686</v>
+        <v>17.12857337464596</v>
       </c>
       <c r="J7">
-        <v>53.86754343172184</v>
+        <v>5.08606894552095</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>53.86625866542549</v>
       </c>
       <c r="L7">
-        <v>33.83727021268365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>33.83678036556748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.661317471133095</v>
+        <v>2.663867752725514</v>
       </c>
       <c r="D8">
-        <v>2.615656016263392</v>
+        <v>2.614264053201966</v>
       </c>
       <c r="E8">
-        <v>6.178916563775482</v>
+        <v>6.177285378745949</v>
       </c>
       <c r="F8">
-        <v>25.49045643158864</v>
+        <v>25.47210642870049</v>
       </c>
       <c r="G8">
-        <v>19.40284869761587</v>
+        <v>19.43424330983196</v>
       </c>
       <c r="H8">
-        <v>19.15389125138496</v>
+        <v>19.10699321177817</v>
       </c>
       <c r="I8">
-        <v>4.971246408012886</v>
+        <v>19.14004999742308</v>
       </c>
       <c r="J8">
-        <v>59.49197740992084</v>
+        <v>4.971698378725444</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>59.49012175434842</v>
       </c>
       <c r="L8">
-        <v>37.38023504273579</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>37.37938717967516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.195294400371326</v>
+        <v>3.197731276604576</v>
       </c>
       <c r="D9">
-        <v>3.169061538368234</v>
+        <v>3.166626014867784</v>
       </c>
       <c r="E9">
-        <v>6.49635781231408</v>
+        <v>6.495968455654745</v>
       </c>
       <c r="F9">
-        <v>31.13799056554112</v>
+        <v>31.11530184079264</v>
       </c>
       <c r="G9">
-        <v>23.9675535430706</v>
+        <v>24.00588164250901</v>
       </c>
       <c r="H9">
-        <v>23.54613668825631</v>
+        <v>23.40006041918429</v>
       </c>
       <c r="I9">
-        <v>5.76381833088744</v>
+        <v>23.5290300914477</v>
       </c>
       <c r="J9">
-        <v>69.54644321500494</v>
+        <v>5.765303388549949</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>69.54322311233324</v>
       </c>
       <c r="L9">
-        <v>43.73053070940287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>43.72880747465712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.583225901281994</v>
+        <v>3.585469613882822</v>
       </c>
       <c r="D10">
-        <v>3.598202569031115</v>
+        <v>3.594944805306301</v>
       </c>
       <c r="E10">
-        <v>7.197749392393658</v>
+        <v>7.197602546562706</v>
       </c>
       <c r="F10">
-        <v>35.49176251774576</v>
+        <v>35.46545334756717</v>
       </c>
       <c r="G10">
-        <v>27.45715871317236</v>
+        <v>27.50068394525166</v>
       </c>
       <c r="H10">
-        <v>26.86339419527982</v>
+        <v>26.75250672064609</v>
       </c>
       <c r="I10">
-        <v>6.460744371372271</v>
+        <v>26.84356269799007</v>
       </c>
       <c r="J10">
-        <v>76.41682950020262</v>
+        <v>6.462354526187124</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>76.41233143028032</v>
       </c>
       <c r="L10">
-        <v>48.08346982032779</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>48.08091206573354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.761602158452449</v>
+        <v>3.763725338014687</v>
       </c>
       <c r="D11">
-        <v>3.802359157529603</v>
+        <v>3.798702821466129</v>
       </c>
       <c r="E11">
-        <v>7.513962704330098</v>
+        <v>7.513940673695253</v>
       </c>
       <c r="F11">
-        <v>37.54187715681483</v>
+        <v>37.51375297786196</v>
       </c>
       <c r="G11">
-        <v>29.09546594385885</v>
+        <v>29.14136564271321</v>
       </c>
       <c r="H11">
-        <v>28.4122844564008</v>
+        <v>28.33996918869672</v>
       </c>
       <c r="I11">
-        <v>6.779426668362023</v>
+        <v>28.39108827087433</v>
       </c>
       <c r="J11">
-        <v>79.45229927387004</v>
+        <v>6.781081859366283</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>79.44711742036171</v>
       </c>
       <c r="L11">
-        <v>50.01064738359366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>50.00763946238388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.829736207165976</v>
+        <v>3.831807979042492</v>
       </c>
       <c r="D12">
-        <v>3.881403073830354</v>
+        <v>3.877590766301717</v>
       </c>
       <c r="E12">
-        <v>7.633629842889289</v>
+        <v>7.633657219941559</v>
       </c>
       <c r="F12">
-        <v>38.33132058447988</v>
+        <v>38.30247566546808</v>
       </c>
       <c r="G12">
-        <v>29.7257468097455</v>
+        <v>29.77254561605763</v>
       </c>
       <c r="H12">
-        <v>29.00694208257756</v>
+        <v>28.95251839787071</v>
       </c>
       <c r="I12">
-        <v>6.900825220353838</v>
+        <v>28.98520429804124</v>
       </c>
       <c r="J12">
-        <v>80.59119574530105</v>
+        <v>6.902495140241033</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>80.58573495405977</v>
       </c>
       <c r="L12">
-        <v>50.73439198118569</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>50.73119985641124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.815030342963968</v>
+        <v>3.817113463874508</v>
       </c>
       <c r="D13">
-        <v>3.864293943541157</v>
+        <v>3.860515481433429</v>
       </c>
       <c r="E13">
-        <v>7.607854466912219</v>
+        <v>7.607871107239247</v>
       </c>
       <c r="F13">
-        <v>38.16065611490176</v>
+        <v>38.13196809334413</v>
       </c>
       <c r="G13">
-        <v>29.58951485435996</v>
+        <v>29.63612005768763</v>
       </c>
       <c r="H13">
-        <v>28.87846438023857</v>
+        <v>28.8200395766723</v>
       </c>
       <c r="I13">
-        <v>6.874638806539577</v>
+        <v>28.85684447991758</v>
       </c>
       <c r="J13">
-        <v>80.34634037697246</v>
+        <v>6.87630567062724</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>80.34094065521474</v>
       </c>
       <c r="L13">
-        <v>50.5787595989549</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>50.57560782853186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.767193739845038</v>
+        <v>3.76931281305091</v>
       </c>
       <c r="D14">
-        <v>3.808824382815944</v>
+        <v>3.805155326507846</v>
       </c>
       <c r="E14">
-        <v>7.523807079431236</v>
+        <v>7.523789070422232</v>
       </c>
       <c r="F14">
-        <v>37.60654092927319</v>
+        <v>37.57835819041448</v>
       </c>
       <c r="G14">
-        <v>29.1471036648993</v>
+        <v>29.19307734664449</v>
       </c>
       <c r="H14">
-        <v>28.4610280844135</v>
+        <v>28.39011833492315</v>
       </c>
       <c r="I14">
-        <v>6.789396556808888</v>
+        <v>28.43978788711784</v>
       </c>
       <c r="J14">
-        <v>79.54619326821602</v>
+        <v>6.79105301071318</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>79.54098890451853</v>
       </c>
       <c r="L14">
-        <v>50.07030078048344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>50.06727800541131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.737979539767818</v>
+        <v>3.74011984609146</v>
       </c>
       <c r="D15">
-        <v>3.775088912614082</v>
+        <v>3.771486160070526</v>
       </c>
       <c r="E15">
-        <v>7.472327170082764</v>
+        <v>7.472288217674093</v>
       </c>
       <c r="F15">
-        <v>37.26894626293583</v>
+        <v>37.24106833555258</v>
       </c>
       <c r="G15">
-        <v>28.87749215688161</v>
+        <v>28.92307894749353</v>
       </c>
       <c r="H15">
-        <v>28.20647811995106</v>
+        <v>28.12835172568917</v>
       </c>
       <c r="I15">
-        <v>6.737293448374575</v>
+        <v>28.185467022665</v>
       </c>
       <c r="J15">
-        <v>79.05478313297459</v>
+        <v>6.738943199863947</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>79.04969563687024</v>
       </c>
       <c r="L15">
-        <v>49.75812266458189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>49.75517698485352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.571631899254214</v>
+        <v>3.573882748432037</v>
       </c>
       <c r="D16">
-        <v>3.585076063618359</v>
+        <v>3.581843736001292</v>
       </c>
       <c r="E16">
-        <v>7.177053330985596</v>
+        <v>7.176898625399776</v>
       </c>
       <c r="F16">
-        <v>35.35942566023066</v>
+        <v>35.33323100587153</v>
       </c>
       <c r="G16">
-        <v>27.35131748017745</v>
+        <v>27.39468762793818</v>
       </c>
       <c r="H16">
-        <v>26.76316141789614</v>
+        <v>26.65020841888952</v>
       </c>
       <c r="I16">
-        <v>6.439989606029354</v>
+        <v>26.74341606006816</v>
       </c>
       <c r="J16">
-        <v>76.21683461337744</v>
+        <v>6.441596531776142</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>76.21237876014901</v>
       </c>
       <c r="L16">
-        <v>47.95658492207247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>47.95405488903459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.470269828159828</v>
+        <v>3.472579472225861</v>
       </c>
       <c r="D17">
-        <v>3.471082961303672</v>
+        <v>3.468070669309885</v>
       </c>
       <c r="E17">
-        <v>6.995393439285544</v>
+        <v>6.995171483233438</v>
       </c>
       <c r="F17">
-        <v>34.20772313701114</v>
+        <v>34.18251246781835</v>
       </c>
       <c r="G17">
-        <v>26.42968183563009</v>
+        <v>26.47169389910565</v>
       </c>
       <c r="H17">
-        <v>25.88943216818092</v>
+        <v>25.76089166938744</v>
       </c>
       <c r="I17">
-        <v>6.258334378918548</v>
+        <v>25.87042712833729</v>
       </c>
       <c r="J17">
-        <v>74.45433240534058</v>
+        <v>6.259911629484166</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>74.4502346102271</v>
       </c>
       <c r="L17">
-        <v>46.83884199260341</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>46.83654670063716</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.412125658291714</v>
+        <v>3.414466126025315</v>
       </c>
       <c r="D18">
-        <v>3.406325792331623</v>
+        <v>3.403437864601209</v>
       </c>
       <c r="E18">
-        <v>6.89061450132116</v>
+        <v>6.890355225715517</v>
       </c>
       <c r="F18">
-        <v>33.55160475467876</v>
+        <v>33.52694494102948</v>
       </c>
       <c r="G18">
-        <v>25.9041749826565</v>
+        <v>25.9454069956184</v>
       </c>
       <c r="H18">
-        <v>25.39045798438571</v>
+        <v>25.25506789661332</v>
       </c>
       <c r="I18">
-        <v>6.153971405049949</v>
+        <v>25.37186750380492</v>
       </c>
       <c r="J18">
-        <v>73.43195735183906</v>
+        <v>6.155530518759694</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>73.42805626367432</v>
       </c>
       <c r="L18">
-        <v>46.19084415349547</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>46.18867751315084</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.392457634323347</v>
+        <v>3.394808051289064</v>
       </c>
       <c r="D19">
-        <v>3.384527164369447</v>
+        <v>3.381681005543719</v>
       </c>
       <c r="E19">
-        <v>6.855079004650459</v>
+        <v>6.854807324956051</v>
       </c>
       <c r="F19">
-        <v>33.330459145662</v>
+        <v>33.30598347847166</v>
       </c>
       <c r="G19">
-        <v>25.72697025602818</v>
+        <v>25.76793837879095</v>
       </c>
       <c r="H19">
-        <v>25.22206545547996</v>
+        <v>25.08471998370693</v>
       </c>
       <c r="I19">
-        <v>6.118643643829882</v>
+        <v>25.20361357484369</v>
       </c>
       <c r="J19">
-        <v>73.08425315305445</v>
+        <v>6.120196447994658</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>73.08041721156859</v>
       </c>
       <c r="L19">
-        <v>45.97052454997711</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>45.96840046534653</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.481041765152637</v>
+        <v>3.483345466847809</v>
       </c>
       <c r="D20">
-        <v>3.483131145422489</v>
+        <v>3.480095666734013</v>
       </c>
       <c r="E20">
-        <v>7.014759616250338</v>
+        <v>7.014544677756033</v>
       </c>
       <c r="F20">
-        <v>34.32965135252298</v>
+        <v>34.30433755661261</v>
       </c>
       <c r="G20">
-        <v>26.52729992679278</v>
+        <v>26.5694564572343</v>
       </c>
       <c r="H20">
-        <v>25.98205734174265</v>
+        <v>25.85495718978444</v>
       </c>
       <c r="I20">
-        <v>6.277656299133165</v>
+        <v>25.96297470006259</v>
       </c>
       <c r="J20">
-        <v>74.64283162530917</v>
+        <v>6.27923682291211</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>74.63869670281335</v>
       </c>
       <c r="L20">
-        <v>46.9583453309509</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>46.95602573119654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.781225678832508</v>
+        <v>3.783334358803616</v>
       </c>
       <c r="D21">
-        <v>3.825065883252191</v>
+        <v>3.82136484336462</v>
       </c>
       <c r="E21">
-        <v>7.548492785597352</v>
+        <v>7.548484895464311</v>
       </c>
       <c r="F21">
-        <v>37.76891230561395</v>
+        <v>37.74058215187747</v>
       </c>
       <c r="G21">
-        <v>29.27675756976309</v>
+        <v>29.322916762395</v>
       </c>
       <c r="H21">
-        <v>28.58339594136151</v>
+        <v>28.51606333781615</v>
       </c>
       <c r="I21">
-        <v>6.814410258919744</v>
+        <v>28.56204495716616</v>
       </c>
       <c r="J21">
-        <v>79.78148110481403</v>
+        <v>6.816069839980477</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>79.77621995450905</v>
       </c>
       <c r="L21">
-        <v>50.21979669404284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>50.21673643803761</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.981044520416494</v>
+        <v>3.982991341516342</v>
       </c>
       <c r="D22">
-        <v>4.058954262862319</v>
+        <v>4.054787715669522</v>
       </c>
       <c r="E22">
-        <v>7.897101079606777</v>
+        <v>7.897240993710482</v>
       </c>
       <c r="F22">
-        <v>40.09533238849844</v>
+        <v>40.06482879148566</v>
       </c>
       <c r="G22">
-        <v>31.13316798323099</v>
+        <v>31.1819413848941</v>
       </c>
       <c r="H22">
-        <v>30.33257908083282</v>
+        <v>30.32355220187969</v>
       </c>
       <c r="I22">
-        <v>7.169730407033572</v>
+        <v>30.30959562113404</v>
       </c>
       <c r="J22">
-        <v>83.0798225981425</v>
+        <v>7.171427583170666</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>83.07370472572745</v>
       </c>
       <c r="L22">
-        <v>52.31720823911864</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>52.31358108692143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.873938712021621</v>
+        <v>3.87597552756317</v>
       </c>
       <c r="D23">
-        <v>3.932988138997658</v>
+        <v>3.929073488733494</v>
       </c>
       <c r="E23">
-        <v>7.710926778056422</v>
+        <v>7.710986654669649</v>
       </c>
       <c r="F23">
-        <v>38.84516764876078</v>
+        <v>38.81584662049579</v>
       </c>
       <c r="G23">
-        <v>30.13584664403009</v>
+        <v>30.18322571462293</v>
       </c>
       <c r="H23">
-        <v>29.39352247858434</v>
+        <v>29.35157495824929</v>
       </c>
       <c r="I23">
-        <v>6.979481999843105</v>
+        <v>29.37142702731866</v>
       </c>
       <c r="J23">
-        <v>81.3239928886473</v>
+        <v>6.981160683609443</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>81.31834561445184</v>
       </c>
       <c r="L23">
-        <v>51.20027089512607</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>51.19695545861755</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.476171389260099</v>
+        <v>3.478477786702715</v>
       </c>
       <c r="D24">
-        <v>3.477681767193799</v>
+        <v>3.4746567777604</v>
       </c>
       <c r="E24">
-        <v>7.006005251440777</v>
+        <v>7.005787136128593</v>
       </c>
       <c r="F24">
-        <v>34.27450910440369</v>
+        <v>34.24924197769071</v>
       </c>
       <c r="G24">
-        <v>26.48315340984739</v>
+        <v>26.5252446243976</v>
       </c>
       <c r="H24">
-        <v>25.9401712543774</v>
+        <v>25.81241334525385</v>
       </c>
       <c r="I24">
-        <v>6.268920666331013</v>
+        <v>25.92112373045789</v>
       </c>
       <c r="J24">
-        <v>74.55763960841924</v>
+        <v>6.270499713599984</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>74.55352149932992</v>
       </c>
       <c r="L24">
-        <v>46.90433478247576</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>46.9020261916572</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.052419950846735</v>
+        <v>3.054904444785837</v>
       </c>
       <c r="D25">
-        <v>3.016527594133573</v>
+        <v>3.014380809238836</v>
       </c>
       <c r="E25">
-        <v>6.379234881080722</v>
+        <v>6.37732517555909</v>
       </c>
       <c r="F25">
-        <v>29.58059246414854</v>
+        <v>29.5591342046374</v>
       </c>
       <c r="G25">
-        <v>22.71432269261625</v>
+        <v>22.75075327571466</v>
       </c>
       <c r="H25">
-        <v>22.34739388278998</v>
+        <v>22.20861451989066</v>
       </c>
       <c r="I25">
-        <v>5.505973498798403</v>
+        <v>22.33121378770505</v>
       </c>
       <c r="J25">
-        <v>66.9235890184639</v>
+        <v>5.507404884459346</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>66.92077518076501</v>
       </c>
       <c r="L25">
-        <v>42.07178290652027</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>42.07032245395474</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.738967536779955</v>
+        <v>6.647751699153491</v>
       </c>
       <c r="D2">
-        <v>2.689122661081803</v>
+        <v>3.301904287945726</v>
       </c>
       <c r="E2">
-        <v>6.210711294900269</v>
+        <v>5.824399323863046</v>
       </c>
       <c r="F2">
-        <v>26.23411784183557</v>
+        <v>39.91567914008174</v>
       </c>
       <c r="G2">
-        <v>20.05540454327151</v>
+        <v>2.092734994906405</v>
       </c>
       <c r="H2">
-        <v>19.6816327913933</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>19.74118433347336</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.948213353610972</v>
+        <v>5.325251919263352</v>
       </c>
       <c r="K2">
-        <v>60.94545194521391</v>
+        <v>57.53927538415103</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.115313202063756</v>
       </c>
       <c r="M2">
-        <v>38.29719416802059</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>38.77869901107039</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>30.69838028159251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.519173073502925</v>
+        <v>6.58828978753927</v>
       </c>
       <c r="D3">
-        <v>2.472832548062202</v>
+        <v>3.022066346395606</v>
       </c>
       <c r="E3">
-        <v>6.119976319327156</v>
+        <v>5.910294468816807</v>
       </c>
       <c r="F3">
-        <v>24.04059183533411</v>
+        <v>39.03721013073483</v>
       </c>
       <c r="G3">
-        <v>18.2626733745478</v>
+        <v>2.114343616891856</v>
       </c>
       <c r="H3">
-        <v>18.09643299527741</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>18.00078060243412</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5.025105331007482</v>
+        <v>5.533483445319468</v>
       </c>
       <c r="K3">
-        <v>56.64878200082871</v>
+        <v>53.67223053530523</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.05784282034232</v>
       </c>
       <c r="M3">
-        <v>35.58875573296314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>36.39385529200554</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>30.09262972060252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.417402379503811</v>
+        <v>6.559952243820801</v>
       </c>
       <c r="D4">
-        <v>2.340940948689272</v>
+        <v>2.850305840884804</v>
       </c>
       <c r="E4">
-        <v>6.074139029835185</v>
+        <v>5.963828864492745</v>
       </c>
       <c r="F4">
-        <v>22.97198320939087</v>
+        <v>38.62365597933522</v>
       </c>
       <c r="G4">
-        <v>17.17573489977052</v>
+        <v>2.127642495330562</v>
       </c>
       <c r="H4">
-        <v>17.37388744717774</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>17.13235279927287</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>5.085707274752189</v>
+        <v>5.661316572232511</v>
       </c>
       <c r="K4">
-        <v>53.88177870924667</v>
+        <v>51.20829477258238</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.023452317594963</v>
       </c>
       <c r="M4">
-        <v>33.84654803087778</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>34.88454098286418</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>29.82216506664829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.401428802183134</v>
+        <v>6.550307591976439</v>
       </c>
       <c r="D5">
-        <v>2.287280145447315</v>
+        <v>2.7801291551395</v>
       </c>
       <c r="E5">
-        <v>6.05779648739876</v>
+        <v>5.985879252713576</v>
       </c>
       <c r="F5">
-        <v>22.55744155470326</v>
+        <v>38.48410426426337</v>
       </c>
       <c r="G5">
-        <v>16.73614569089221</v>
+        <v>2.1330840328354</v>
       </c>
       <c r="H5">
-        <v>17.09481407116334</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>16.85585895282831</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>5.113385222165951</v>
+        <v>5.713536689563178</v>
       </c>
       <c r="K5">
-        <v>52.72089995887679</v>
+        <v>50.1810973941044</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.009629007133761</v>
       </c>
       <c r="M5">
-        <v>33.11607188815975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>34.25798738279492</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>29.73520592452807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.398850941908562</v>
+        <v>6.548816883027689</v>
       </c>
       <c r="D6">
-        <v>2.278371189222592</v>
+        <v>2.76846011523166</v>
       </c>
       <c r="E6">
-        <v>6.055219817491038</v>
+        <v>5.989555815512737</v>
       </c>
       <c r="F6">
-        <v>22.48953661764942</v>
+        <v>38.4626054875315</v>
       </c>
       <c r="G6">
-        <v>16.66335597620101</v>
+        <v>2.133989311935162</v>
       </c>
       <c r="H6">
-        <v>17.04939788935441</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>16.81070024722864</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5.11815097074746</v>
+        <v>5.722218996132857</v>
       </c>
       <c r="K6">
-        <v>52.5261007705329</v>
+        <v>50.00912241292803</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.007344297907388</v>
       </c>
       <c r="M6">
-        <v>32.99352186491555</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>34.15325266917828</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>29.72210659166455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.417181882579685</v>
+        <v>6.559814657042459</v>
       </c>
       <c r="D7">
-        <v>2.340217086866466</v>
+        <v>2.849360393419627</v>
       </c>
       <c r="E7">
-        <v>6.07390935544526</v>
+        <v>5.964125250530866</v>
       </c>
       <c r="F7">
-        <v>22.96633030363587</v>
+        <v>38.62166007765266</v>
       </c>
       <c r="G7">
-        <v>17.16979286005447</v>
+        <v>2.127715774785881</v>
       </c>
       <c r="H7">
-        <v>17.37006173740036</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>17.12857337464596</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>5.08606894552095</v>
+        <v>5.66202015494839</v>
       </c>
       <c r="K7">
-        <v>53.86625866542549</v>
+        <v>51.19453587946289</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.023265159243669</v>
       </c>
       <c r="M7">
-        <v>33.83678036556748</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>34.87613770861727</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>29.82090106294096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.663867752725514</v>
+        <v>6.625456696639056</v>
       </c>
       <c r="D8">
-        <v>2.614264053201966</v>
+        <v>3.205273567813124</v>
       </c>
       <c r="E8">
-        <v>6.177285378745949</v>
+        <v>5.853873594267543</v>
       </c>
       <c r="F8">
-        <v>25.47210642870049</v>
+        <v>39.58503271517599</v>
       </c>
       <c r="G8">
-        <v>19.43424330983196</v>
+        <v>2.100188527929848</v>
       </c>
       <c r="H8">
-        <v>19.10699321177817</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>19.14004999742308</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4.971698378725444</v>
+        <v>5.397140900139198</v>
       </c>
       <c r="K8">
-        <v>59.49012175434842</v>
+        <v>56.2240638690953</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.095288783723142</v>
       </c>
       <c r="M8">
-        <v>37.37938717967516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>37.96558099855375</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>30.46707260444014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.197731276604576</v>
+        <v>6.826865948428258</v>
       </c>
       <c r="D9">
-        <v>3.166626014867784</v>
+        <v>3.914761919675421</v>
       </c>
       <c r="E9">
-        <v>6.495968455654745</v>
+        <v>5.642106253282412</v>
       </c>
       <c r="F9">
-        <v>31.11530184079264</v>
+        <v>42.59917183484909</v>
       </c>
       <c r="G9">
-        <v>24.00588164250901</v>
+        <v>2.045664900974476</v>
       </c>
       <c r="H9">
-        <v>23.40006041918429</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>23.5290300914477</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>5.765303388549949</v>
+        <v>4.870284728931669</v>
       </c>
       <c r="K9">
-        <v>69.54322311233324</v>
+        <v>65.41803950901243</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.245571819944571</v>
       </c>
       <c r="M9">
-        <v>43.72880747465712</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>43.68570554216596</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>32.64630607836602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.585469613882822</v>
+        <v>7.032303524800499</v>
       </c>
       <c r="D10">
-        <v>3.594944805306301</v>
+        <v>4.46305927760517</v>
       </c>
       <c r="E10">
-        <v>7.197602546562706</v>
+        <v>5.486014946266643</v>
       </c>
       <c r="F10">
-        <v>35.46545334756717</v>
+        <v>45.69562068055764</v>
       </c>
       <c r="G10">
-        <v>27.50068394525166</v>
+        <v>2.003862270584122</v>
       </c>
       <c r="H10">
-        <v>26.75250672064609</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>26.84356269799007</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>6.462354526187124</v>
+        <v>4.46584130924607</v>
       </c>
       <c r="K10">
-        <v>76.41233143028032</v>
+        <v>71.98413414301949</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.36502965210883</v>
       </c>
       <c r="M10">
-        <v>48.08091206573354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>47.72727555538896</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>34.96754745128544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.763725338014687</v>
+        <v>7.142137861247345</v>
       </c>
       <c r="D11">
-        <v>3.798702821466129</v>
+        <v>4.72476584451485</v>
       </c>
       <c r="E11">
-        <v>7.513940673695253</v>
+        <v>5.413935087448123</v>
       </c>
       <c r="F11">
-        <v>37.51375297786196</v>
+        <v>47.35035854844245</v>
       </c>
       <c r="G11">
-        <v>29.14136564271321</v>
+        <v>1.98401894699225</v>
       </c>
       <c r="H11">
-        <v>28.33996918869672</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>28.39108827087433</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6.781081859366283</v>
+        <v>4.274091021284796</v>
       </c>
       <c r="K11">
-        <v>79.44711742036171</v>
+        <v>74.96228679587833</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.42248215361607</v>
       </c>
       <c r="M11">
-        <v>50.00763946238388</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>49.59536657779311</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>36.24463083820395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.831807979042492</v>
+        <v>7.186526603341023</v>
       </c>
       <c r="D12">
-        <v>3.877590766301717</v>
+        <v>4.826393610951938</v>
       </c>
       <c r="E12">
-        <v>7.633657219941559</v>
+        <v>5.386378556262404</v>
       </c>
       <c r="F12">
-        <v>38.30247566546808</v>
+        <v>48.01846867713969</v>
       </c>
       <c r="G12">
-        <v>29.77254561605763</v>
+        <v>1.976333135780828</v>
       </c>
       <c r="H12">
-        <v>28.95251839787071</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>28.98520429804124</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6.902495140241033</v>
+        <v>4.199902207951236</v>
       </c>
       <c r="K12">
-        <v>80.58573495405977</v>
+        <v>76.08651433572467</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.444822157659093</v>
       </c>
       <c r="M12">
-        <v>50.73119985641124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>50.34341329040455</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>36.88666527504353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.817113463874508</v>
+        <v>7.176833803623659</v>
       </c>
       <c r="D13">
-        <v>3.860515481433429</v>
+        <v>4.804379058979733</v>
       </c>
       <c r="E13">
-        <v>7.607871107239247</v>
+        <v>5.392327012775425</v>
       </c>
       <c r="F13">
-        <v>38.13196809334413</v>
+        <v>47.87261553837368</v>
       </c>
       <c r="G13">
-        <v>29.63612005768763</v>
+        <v>1.977997072424195</v>
       </c>
       <c r="H13">
-        <v>28.8200395766723</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>28.85684447991758</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6.87630567062724</v>
+        <v>4.215959131014463</v>
       </c>
       <c r="K13">
-        <v>80.34094065521474</v>
+        <v>75.84447804730635</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.439982171447189</v>
       </c>
       <c r="M13">
-        <v>50.57560782853186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>50.182361813774</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>36.74702159061673</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.76931281305091</v>
+        <v>7.145730686708514</v>
       </c>
       <c r="D14">
-        <v>3.805155326507846</v>
+        <v>4.733070949128826</v>
       </c>
       <c r="E14">
-        <v>7.523789070422232</v>
+        <v>5.411673957024954</v>
       </c>
       <c r="F14">
-        <v>37.57835819041448</v>
+        <v>47.40445092474739</v>
       </c>
       <c r="G14">
-        <v>29.19307734664449</v>
+        <v>1.983390433265368</v>
       </c>
       <c r="H14">
-        <v>28.39011833492315</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>28.43978788711784</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6.79105301071318</v>
+        <v>4.268022219843781</v>
       </c>
       <c r="K14">
-        <v>79.54098890451853</v>
+        <v>75.05482339205172</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.424307422913935</v>
       </c>
       <c r="M14">
-        <v>50.06727800541131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>49.65693767726616</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>36.29684277171463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.74011984609146</v>
+        <v>7.127058728595363</v>
       </c>
       <c r="D15">
-        <v>3.771486160070526</v>
+        <v>4.689748365421691</v>
       </c>
       <c r="E15">
-        <v>7.472288217674093</v>
+        <v>5.423486779378352</v>
       </c>
       <c r="F15">
-        <v>37.24106833555258</v>
+        <v>47.12330386950764</v>
       </c>
       <c r="G15">
-        <v>28.92307894749353</v>
+        <v>1.986669822230422</v>
       </c>
       <c r="H15">
-        <v>28.12835172568917</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>28.185467022665</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>6.738943199863947</v>
+        <v>4.299690901453269</v>
       </c>
       <c r="K15">
-        <v>79.04969563687024</v>
+        <v>74.57080495829547</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.414787092742566</v>
       </c>
       <c r="M15">
-        <v>49.75517698485352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>49.33488918651963</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>36.05172408504608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.573882748432037</v>
+        <v>7.025490082616122</v>
       </c>
       <c r="D16">
-        <v>3.581843736001292</v>
+        <v>4.446262731290771</v>
       </c>
       <c r="E16">
-        <v>7.176898625399776</v>
+        <v>5.490695430016983</v>
       </c>
       <c r="F16">
-        <v>35.33323100587153</v>
+        <v>45.59291415697496</v>
       </c>
       <c r="G16">
-        <v>27.39468762793818</v>
+        <v>2.00513830604823</v>
       </c>
       <c r="H16">
-        <v>26.65020841888952</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>26.74341606006816</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>6.441596531776142</v>
+        <v>4.47818006010916</v>
       </c>
       <c r="K16">
-        <v>76.21237876014901</v>
+        <v>71.78878665560947</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.361348269371375</v>
       </c>
       <c r="M16">
-        <v>47.95405488903459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>47.60809784993187</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>34.88982730007123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.472579472225861</v>
+        <v>6.967652654869013</v>
       </c>
       <c r="D17">
-        <v>3.468070669309885</v>
+        <v>4.300506060215254</v>
       </c>
       <c r="E17">
-        <v>6.995171483233438</v>
+        <v>5.531583294685405</v>
       </c>
       <c r="F17">
-        <v>34.18251246781835</v>
+        <v>44.72092689052429</v>
       </c>
       <c r="G17">
-        <v>26.47169389910565</v>
+        <v>2.016223738674245</v>
       </c>
       <c r="H17">
-        <v>25.76089166938744</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>25.87042712833729</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>6.259911629484166</v>
+        <v>4.585401139920044</v>
       </c>
       <c r="K17">
-        <v>74.4502346102271</v>
+        <v>70.07158142425897</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.329445940903276</v>
       </c>
       <c r="M17">
-        <v>46.83654670063716</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>46.56184376923531</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>34.23168957264558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.414466126025315</v>
+        <v>6.935895469209114</v>
       </c>
       <c r="D18">
-        <v>3.403437864601209</v>
+        <v>4.217770011985519</v>
       </c>
       <c r="E18">
-        <v>6.890355225715517</v>
+        <v>5.555007713033876</v>
       </c>
       <c r="F18">
-        <v>33.52694494102948</v>
+        <v>44.242106006869</v>
       </c>
       <c r="G18">
-        <v>25.9454069956184</v>
+        <v>2.022525865239622</v>
       </c>
       <c r="H18">
-        <v>25.25506789661332</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>25.37186750380492</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>6.155530518759694</v>
+        <v>4.646374866164966</v>
       </c>
       <c r="K18">
-        <v>73.42805626367432</v>
+        <v>69.07892005263476</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.311379061311517</v>
       </c>
       <c r="M18">
-        <v>46.18867751315084</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>45.95821764107663</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>33.87173096284832</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.394808051289064</v>
+        <v>6.925390785116176</v>
       </c>
       <c r="D19">
-        <v>3.381681005543719</v>
+        <v>4.18992646043974</v>
       </c>
       <c r="E19">
-        <v>6.854807324956051</v>
+        <v>5.562925626192542</v>
       </c>
       <c r="F19">
-        <v>33.30598347847166</v>
+        <v>44.08372991512555</v>
       </c>
       <c r="G19">
-        <v>25.76793837879095</v>
+        <v>2.024648308725753</v>
       </c>
       <c r="H19">
-        <v>25.08471998370693</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>25.20361357484369</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>6.120196447994658</v>
+        <v>4.666911719819857</v>
       </c>
       <c r="K19">
-        <v>73.08041721156859</v>
+        <v>68.74187468404267</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.305306973474018</v>
       </c>
       <c r="M19">
-        <v>45.96840046534653</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>45.75346981808802</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>33.75291815607305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.483345466847809</v>
+        <v>6.973650534127265</v>
       </c>
       <c r="D20">
-        <v>3.480095666734013</v>
+        <v>4.315903594350858</v>
       </c>
       <c r="E20">
-        <v>7.014544677756033</v>
+        <v>5.527241042958639</v>
       </c>
       <c r="F20">
-        <v>34.30433755661261</v>
+        <v>44.81136109313994</v>
       </c>
       <c r="G20">
-        <v>26.5694564572343</v>
+        <v>2.01505165548435</v>
       </c>
       <c r="H20">
-        <v>25.85495718978444</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>25.96297470006259</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>6.27923682291211</v>
+        <v>4.574062317007694</v>
       </c>
       <c r="K20">
-        <v>74.63869670281335</v>
+        <v>70.25487238483881</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.332811911098226</v>
       </c>
       <c r="M20">
-        <v>46.95602573119654</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>46.6733976219929</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>34.29979460870992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.783334358803616</v>
+        <v>7.154786330957574</v>
       </c>
       <c r="D21">
-        <v>3.82136484336462</v>
+        <v>4.753940009284978</v>
       </c>
       <c r="E21">
-        <v>7.548484895464311</v>
+        <v>5.405999391272983</v>
       </c>
       <c r="F21">
-        <v>37.74058215187747</v>
+        <v>47.54077784644274</v>
       </c>
       <c r="G21">
-        <v>29.322916762395</v>
+        <v>1.981811435542019</v>
       </c>
       <c r="H21">
-        <v>28.51606333781615</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>28.56204495716616</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>6.816069839980477</v>
+        <v>4.252777214188798</v>
       </c>
       <c r="K21">
-        <v>79.77621995450905</v>
+        <v>75.28682507211417</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.428894301773042</v>
       </c>
       <c r="M21">
-        <v>50.21673643803761</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>49.81130590866897</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>36.4282458196443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.982991341516342</v>
+        <v>7.289786391039955</v>
       </c>
       <c r="D22">
-        <v>4.054787715669522</v>
+        <v>5.055503019788174</v>
       </c>
       <c r="E22">
-        <v>7.897240993710482</v>
+        <v>5.325162832947879</v>
       </c>
       <c r="F22">
-        <v>40.06482879148566</v>
+        <v>49.74772515578051</v>
       </c>
       <c r="G22">
-        <v>31.1819413848941</v>
+        <v>1.959048256211314</v>
       </c>
       <c r="H22">
-        <v>30.32355220187969</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>30.30959562113404</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>7.171427583170666</v>
+        <v>4.033276275067178</v>
       </c>
       <c r="K22">
-        <v>83.07370472572745</v>
+        <v>78.55755369395403</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.495195833040481</v>
       </c>
       <c r="M22">
-        <v>52.31358108692143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>51.98777358661955</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>38.35689391341634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.87597552756317</v>
+        <v>7.216029507486808</v>
       </c>
       <c r="D23">
-        <v>3.929073488733494</v>
+        <v>4.892830888391602</v>
       </c>
       <c r="E23">
-        <v>7.710986654669649</v>
+        <v>5.368497027483087</v>
       </c>
       <c r="F23">
-        <v>38.81584662049579</v>
+        <v>48.49093230632116</v>
       </c>
       <c r="G23">
-        <v>30.18322571462293</v>
+        <v>1.971314818279757</v>
       </c>
       <c r="H23">
-        <v>29.35157495824929</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>29.37142702731866</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>6.981160683609443</v>
+        <v>4.151492102544706</v>
       </c>
       <c r="K23">
-        <v>81.31834561445184</v>
+        <v>76.81200443940855</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.45942995103814</v>
       </c>
       <c r="M23">
-        <v>51.19695545861755</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>50.82616850218901</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>37.30990377117953</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.478477786702715</v>
+        <v>6.970934269800232</v>
       </c>
       <c r="D24">
-        <v>3.4746567777604</v>
+        <v>4.308939116665282</v>
       </c>
       <c r="E24">
-        <v>7.005787136128593</v>
+        <v>5.529204424463924</v>
       </c>
       <c r="F24">
-        <v>34.24924197769071</v>
+        <v>44.77040615140952</v>
       </c>
       <c r="G24">
-        <v>26.5252446243976</v>
+        <v>2.015581771837475</v>
       </c>
       <c r="H24">
-        <v>25.81241334525385</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>25.92112373045789</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>6.270499713599984</v>
+        <v>4.57919065026736</v>
       </c>
       <c r="K24">
-        <v>74.55352149932992</v>
+        <v>70.17202367290129</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.331289311545904</v>
       </c>
       <c r="M24">
-        <v>46.9020261916572</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>46.62297087881143</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>34.26894731835253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.054904444785837</v>
+        <v>6.763387733807249</v>
       </c>
       <c r="D25">
-        <v>3.014380809238836</v>
+        <v>3.719819211761085</v>
       </c>
       <c r="E25">
-        <v>6.37732517555909</v>
+        <v>5.699212741357814</v>
       </c>
       <c r="F25">
-        <v>29.5591342046374</v>
+        <v>41.64461082245469</v>
       </c>
       <c r="G25">
-        <v>22.75075327571466</v>
+        <v>2.060598933534765</v>
       </c>
       <c r="H25">
-        <v>22.20861451989066</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>22.33121378770505</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>5.507404884459346</v>
+        <v>5.014759610994535</v>
       </c>
       <c r="K25">
-        <v>66.92077518076501</v>
+        <v>62.99529367620549</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.203636848046536</v>
       </c>
       <c r="M25">
-        <v>42.07032245395474</v>
+        <v>42.17088735066439</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>31.94335230801287</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.647751699153491</v>
+        <v>5.619819872339566</v>
       </c>
       <c r="D2">
-        <v>3.301904287945726</v>
+        <v>2.829037804443067</v>
       </c>
       <c r="E2">
-        <v>5.824399323863046</v>
+        <v>6.062338803143546</v>
       </c>
       <c r="F2">
-        <v>39.91567914008174</v>
+        <v>22.46767345793112</v>
       </c>
       <c r="G2">
-        <v>2.092734994906405</v>
+        <v>31.66550631731662</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.361753414399743</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>17.11857743159823</v>
       </c>
       <c r="J2">
-        <v>5.325251919263352</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>57.53927538415103</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5.115313202063756</v>
+        <v>4.741127295510325</v>
       </c>
       <c r="M2">
-        <v>38.77869901107039</v>
+        <v>27.56479969797604</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>19.86868299673813</v>
       </c>
       <c r="O2">
-        <v>30.69838028159251</v>
+        <v>17.22189061238263</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.58828978753927</v>
+        <v>5.64743006682242</v>
       </c>
       <c r="D3">
-        <v>3.022066346395606</v>
+        <v>2.773842982926942</v>
       </c>
       <c r="E3">
-        <v>5.910294468816807</v>
+        <v>6.262531696901391</v>
       </c>
       <c r="F3">
-        <v>39.03721013073483</v>
+        <v>21.26342174305919</v>
       </c>
       <c r="G3">
-        <v>2.114343616891856</v>
+        <v>29.72553376583363</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.09792084919323</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>16.42590944465329</v>
       </c>
       <c r="J3">
-        <v>5.533483445319468</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>53.67223053530523</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>5.05784282034232</v>
+        <v>4.87002000915823</v>
       </c>
       <c r="M3">
-        <v>36.39385529200554</v>
+        <v>25.77341080160201</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>19.0007994360305</v>
       </c>
       <c r="O3">
-        <v>30.09262972060252</v>
+        <v>16.44614691970472</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.559952243820801</v>
+        <v>5.670435748456832</v>
       </c>
       <c r="D4">
-        <v>2.850305840884804</v>
+        <v>2.739038319294073</v>
       </c>
       <c r="E4">
-        <v>5.963828864492745</v>
+        <v>6.390293754334503</v>
       </c>
       <c r="F4">
-        <v>38.62365597933522</v>
+        <v>20.50794062234786</v>
       </c>
       <c r="G4">
-        <v>2.127642495330562</v>
+        <v>28.49689456158274</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8.939629292911023</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.00193954846539</v>
       </c>
       <c r="J4">
-        <v>5.661316572232511</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>51.20829477258238</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>5.023452317594963</v>
+        <v>4.951164021647621</v>
       </c>
       <c r="M4">
-        <v>34.88454098286418</v>
+        <v>24.60556583732986</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>18.44983823928782</v>
       </c>
       <c r="O4">
-        <v>29.82216506664829</v>
+        <v>15.96649883765769</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.550307591976439</v>
+        <v>5.681257999588397</v>
       </c>
       <c r="D5">
-        <v>2.7801291551395</v>
+        <v>2.724636548538604</v>
       </c>
       <c r="E5">
-        <v>5.985879252713576</v>
+        <v>6.443545520990567</v>
       </c>
       <c r="F5">
-        <v>38.48410426426337</v>
+        <v>20.19642605482757</v>
       </c>
       <c r="G5">
-        <v>2.1330840328354</v>
+        <v>27.98724229360189</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8.876120165749674</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15.82974641248825</v>
       </c>
       <c r="J5">
-        <v>5.713536689563178</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>50.1810973941044</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>5.009629007133761</v>
+        <v>4.984746715591085</v>
       </c>
       <c r="M5">
-        <v>34.25798738279492</v>
+        <v>24.11253200582834</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>18.22105764794182</v>
       </c>
       <c r="O5">
-        <v>29.73520592452807</v>
+        <v>15.7704762440435</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.548816883027689</v>
+        <v>5.683140274724232</v>
       </c>
       <c r="D6">
-        <v>2.76846011523166</v>
+        <v>2.722232288553394</v>
       </c>
       <c r="E6">
-        <v>5.989555815512737</v>
+        <v>6.452458900981145</v>
       </c>
       <c r="F6">
-        <v>38.4626054875315</v>
+        <v>20.14449166826087</v>
       </c>
       <c r="G6">
-        <v>2.133989311935162</v>
+        <v>27.90208865674129</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8.865636573211892</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15.80119630337261</v>
       </c>
       <c r="J6">
-        <v>5.722218996132857</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>50.00912241292803</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>5.007344297907388</v>
+        <v>4.990354596996466</v>
       </c>
       <c r="M6">
-        <v>34.15325266917828</v>
+        <v>24.02962842635239</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>18.18282072793868</v>
       </c>
       <c r="O6">
-        <v>29.72210659166455</v>
+        <v>15.73790166420038</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.559814657042459</v>
+        <v>5.670575939145636</v>
       </c>
       <c r="D7">
-        <v>2.849360393419627</v>
+        <v>2.738844961509263</v>
       </c>
       <c r="E7">
-        <v>5.964125250530866</v>
+        <v>6.391007152814482</v>
       </c>
       <c r="F7">
-        <v>38.62166007765266</v>
+        <v>20.50375363779928</v>
       </c>
       <c r="G7">
-        <v>2.127715774785881</v>
+        <v>28.49005685217374</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8.938768668147882</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>15.99961461407416</v>
       </c>
       <c r="J7">
-        <v>5.66202015494839</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>51.19453587946289</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>5.023265159243669</v>
+        <v>4.951614825281164</v>
       </c>
       <c r="M7">
-        <v>34.87613770861727</v>
+        <v>24.59898601670055</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>18.44676966180243</v>
       </c>
       <c r="O7">
-        <v>29.82090106294096</v>
+        <v>15.96385709263717</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.625456696639056</v>
+        <v>5.628038232931405</v>
       </c>
       <c r="D8">
-        <v>3.205273567813124</v>
+        <v>2.810203199802566</v>
       </c>
       <c r="E8">
-        <v>5.853873594267543</v>
+        <v>6.130340171800031</v>
       </c>
       <c r="F8">
-        <v>39.58503271517599</v>
+        <v>22.05599376832735</v>
       </c>
       <c r="G8">
-        <v>2.100188527929848</v>
+        <v>31.00462208553837</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.270054150783611</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>16.87960828709169</v>
       </c>
       <c r="J8">
-        <v>5.397140900139198</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>56.2240638690953</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>5.095288783723142</v>
+        <v>4.785161145007685</v>
       </c>
       <c r="M8">
-        <v>37.96558099855375</v>
+        <v>26.96119573749515</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>19.57334778208076</v>
       </c>
       <c r="O8">
-        <v>30.46707260444014</v>
+        <v>16.95526256574973</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.826865948428258</v>
+        <v>5.596039334818466</v>
       </c>
       <c r="D9">
-        <v>3.914761919675421</v>
+        <v>2.942403597730544</v>
       </c>
       <c r="E9">
-        <v>5.642106253282412</v>
+        <v>5.65931641603727</v>
       </c>
       <c r="F9">
-        <v>42.59917183484909</v>
+        <v>24.95892069471287</v>
       </c>
       <c r="G9">
-        <v>2.045664900974476</v>
+        <v>35.62384909400805</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>9.94632772700195</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>18.60640266298298</v>
       </c>
       <c r="J9">
-        <v>4.870284728931669</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>65.41803950901243</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>5.245571819944571</v>
+        <v>4.47406649955639</v>
       </c>
       <c r="M9">
-        <v>43.68570554216596</v>
+        <v>31.05704817424447</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>21.62856782388444</v>
       </c>
       <c r="O9">
-        <v>32.64630607836602</v>
+        <v>18.86259754228046</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.032303524800499</v>
+        <v>5.608535997043367</v>
       </c>
       <c r="D10">
-        <v>4.46305927760517</v>
+        <v>3.034223627824987</v>
       </c>
       <c r="E10">
-        <v>5.486014946266643</v>
+        <v>5.340826741421247</v>
       </c>
       <c r="F10">
-        <v>45.69562068055764</v>
+        <v>26.9922526559997</v>
       </c>
       <c r="G10">
-        <v>2.003862270584122</v>
+        <v>38.85521754180754</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>10.45602362748017</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>19.86515741991112</v>
       </c>
       <c r="J10">
-        <v>4.46584130924607</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>71.98413414301949</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>5.36502965210883</v>
+        <v>4.254003541640809</v>
       </c>
       <c r="M10">
-        <v>47.72727555538896</v>
+        <v>33.74318739752913</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>23.03304738155476</v>
       </c>
       <c r="O10">
-        <v>34.96754745128544</v>
+        <v>20.2303553760693</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.142137861247345</v>
+        <v>5.623031788523818</v>
       </c>
       <c r="D11">
-        <v>4.72476584451485</v>
+        <v>3.074728662651034</v>
       </c>
       <c r="E11">
-        <v>5.413935087448123</v>
+        <v>5.202878275351024</v>
       </c>
       <c r="F11">
-        <v>47.35035854844245</v>
+        <v>27.89400374302679</v>
       </c>
       <c r="G11">
-        <v>1.98401894699225</v>
+        <v>40.3020008856173</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.69008468403746</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>20.43400212871443</v>
       </c>
       <c r="J11">
-        <v>4.274091021284796</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>74.96228679587833</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>5.42248215361607</v>
+        <v>4.155543011288749</v>
       </c>
       <c r="M11">
-        <v>49.59536657779311</v>
+        <v>34.89597838030434</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>23.64725630813298</v>
       </c>
       <c r="O11">
-        <v>36.24463083820395</v>
+        <v>20.84369386299115</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.186526603341023</v>
+        <v>5.629867881017322</v>
       </c>
       <c r="D12">
-        <v>4.826393610951938</v>
+        <v>3.089876316988501</v>
       </c>
       <c r="E12">
-        <v>5.386378556262404</v>
+        <v>5.151743319878546</v>
       </c>
       <c r="F12">
-        <v>48.01846867713969</v>
+        <v>28.25142450570921</v>
       </c>
       <c r="G12">
-        <v>1.976333135780828</v>
+        <v>40.84260411518265</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.77899324467874</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>20.64876988023629</v>
       </c>
       <c r="J12">
-        <v>4.199902207951236</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>76.08651433572467</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>5.444822157659093</v>
+        <v>4.118479053858387</v>
       </c>
       <c r="M12">
-        <v>50.34341329040455</v>
+        <v>35.32264856875678</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>23.87617350788718</v>
       </c>
       <c r="O12">
-        <v>36.88666527504353</v>
+        <v>21.07458746245135</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.176833803623659</v>
+        <v>5.628334454199262</v>
       </c>
       <c r="D13">
-        <v>4.804379058979733</v>
+        <v>3.086622616645308</v>
       </c>
       <c r="E13">
-        <v>5.392327012775425</v>
+        <v>5.162705136926666</v>
       </c>
       <c r="F13">
-        <v>47.87261553837368</v>
+        <v>28.17141796590443</v>
       </c>
       <c r="G13">
-        <v>1.977997072424195</v>
+        <v>40.72649711033761</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.75983353918297</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>20.60254558710107</v>
       </c>
       <c r="J13">
-        <v>4.215959131014463</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>75.84447804730635</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>5.439982171447189</v>
+        <v>4.126451875782585</v>
       </c>
       <c r="M13">
-        <v>50.182361813774</v>
+        <v>35.23119506916397</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>23.82703698801329</v>
       </c>
       <c r="O13">
-        <v>36.74702159061673</v>
+        <v>21.02492215313133</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.145730686708514</v>
+        <v>5.623566754630425</v>
       </c>
       <c r="D14">
-        <v>4.733070949128826</v>
+        <v>3.075978740598962</v>
       </c>
       <c r="E14">
-        <v>5.411673957024954</v>
+        <v>5.19864856995307</v>
       </c>
       <c r="F14">
-        <v>47.40445092474739</v>
+        <v>27.92188464153716</v>
       </c>
       <c r="G14">
-        <v>1.983390433265368</v>
+        <v>40.34662168863237</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.6973939438344</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>20.45168451646523</v>
       </c>
       <c r="J14">
-        <v>4.268022219843781</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>75.05482339205172</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>5.424307422913935</v>
+        <v>4.152489403411455</v>
       </c>
       <c r="M14">
-        <v>49.65693767726616</v>
+        <v>34.9312780834687</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>23.66616362466941</v>
       </c>
       <c r="O14">
-        <v>36.29684277171463</v>
+        <v>20.86271735913838</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.127058728595363</v>
+        <v>5.62082413769149</v>
       </c>
       <c r="D15">
-        <v>4.689748365421691</v>
+        <v>3.069433967082351</v>
       </c>
       <c r="E15">
-        <v>5.423486779378352</v>
+        <v>5.220812177196802</v>
       </c>
       <c r="F15">
-        <v>47.12330386950764</v>
+        <v>27.77594903732141</v>
       </c>
       <c r="G15">
-        <v>1.986669822230422</v>
+        <v>40.11299377015474</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10.65918259137761</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>20.35919179598272</v>
       </c>
       <c r="J15">
-        <v>4.299690901453269</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>74.57080495829547</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>5.414787092742566</v>
+        <v>4.168466425862974</v>
       </c>
       <c r="M15">
-        <v>49.33488918651963</v>
+        <v>34.74628767636079</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>23.56714290988165</v>
       </c>
       <c r="O15">
-        <v>36.05172408504608</v>
+        <v>20.76318245746355</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.025490082616122</v>
+        <v>5.607772829341465</v>
       </c>
       <c r="D16">
-        <v>4.446262731290771</v>
+        <v>3.031550311192568</v>
       </c>
       <c r="E16">
-        <v>5.490695430016983</v>
+        <v>5.349990061234296</v>
       </c>
       <c r="F16">
-        <v>45.59291415697496</v>
+        <v>26.93284614956442</v>
       </c>
       <c r="G16">
-        <v>2.00513830604823</v>
+        <v>38.75964644096177</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>10.44076767920703</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>19.82789704398982</v>
       </c>
       <c r="J16">
-        <v>4.47818006010916</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>71.78878665560947</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>5.361348269371375</v>
+        <v>4.260469964639709</v>
       </c>
       <c r="M16">
-        <v>47.60809784993187</v>
+        <v>33.66646481955254</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>22.99239971775434</v>
       </c>
       <c r="O16">
-        <v>34.88982730007123</v>
+        <v>20.19008547445323</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.967652654869013</v>
+        <v>5.602080343934138</v>
       </c>
       <c r="D17">
-        <v>4.300506060215254</v>
+        <v>3.007979554406909</v>
       </c>
       <c r="E17">
-        <v>5.531583294685405</v>
+        <v>5.431080728055977</v>
       </c>
       <c r="F17">
-        <v>44.72092689052429</v>
+        <v>26.40961235868816</v>
       </c>
       <c r="G17">
-        <v>2.016223738674245</v>
+        <v>37.91640165672286</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>10.30730796263342</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>19.50091917589399</v>
       </c>
       <c r="J17">
-        <v>4.585401139920044</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>70.07158142425897</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>5.329445940903276</v>
+        <v>4.317321884929942</v>
       </c>
       <c r="M17">
-        <v>46.56184376923531</v>
+        <v>32.98637127543949</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>22.63339585049548</v>
       </c>
       <c r="O17">
-        <v>34.23168957264558</v>
+        <v>19.8361645373706</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.935895469209114</v>
+        <v>5.599630826067154</v>
       </c>
       <c r="D18">
-        <v>4.217770011985519</v>
+        <v>2.994303765826922</v>
       </c>
       <c r="E18">
-        <v>5.555007713033876</v>
+        <v>5.478366982702934</v>
       </c>
       <c r="F18">
-        <v>44.242106006869</v>
+        <v>26.10647794616987</v>
       </c>
       <c r="G18">
-        <v>2.022525865239622</v>
+        <v>37.42843577539293</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10.23075428850412</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>19.31249939773627</v>
       </c>
       <c r="J18">
-        <v>4.646374866164966</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>69.07892005263476</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>5.311379061311517</v>
+        <v>4.350177642868862</v>
       </c>
       <c r="M18">
-        <v>45.95821764107663</v>
+        <v>32.58868613351753</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>22.42458735389126</v>
       </c>
       <c r="O18">
-        <v>33.87173096284832</v>
+        <v>19.63176769582404</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.925390785116176</v>
+        <v>5.598940633754568</v>
       </c>
       <c r="D19">
-        <v>4.18992646043974</v>
+        <v>2.989653305377085</v>
       </c>
       <c r="E19">
-        <v>5.562925626192542</v>
+        <v>5.494485228040294</v>
       </c>
       <c r="F19">
-        <v>44.08372991512555</v>
+        <v>26.00346982358855</v>
       </c>
       <c r="G19">
-        <v>2.024648308725753</v>
+        <v>37.26684596105368</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10.20487179811462</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>19.24864698256156</v>
       </c>
       <c r="J19">
-        <v>4.666911719819857</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>68.74187468404267</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>5.305306973474018</v>
+        <v>4.361329313767918</v>
       </c>
       <c r="M19">
-        <v>45.75346981808802</v>
+        <v>32.45291584819443</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>22.35349411767298</v>
       </c>
       <c r="O19">
-        <v>33.75291815607305</v>
+        <v>19.56242303308836</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.973650534127265</v>
+        <v>5.602600386460766</v>
       </c>
       <c r="D20">
-        <v>4.315903594350858</v>
+        <v>3.010501033746822</v>
       </c>
       <c r="E20">
-        <v>5.527241042958639</v>
+        <v>5.422381034603182</v>
       </c>
       <c r="F20">
-        <v>44.81136109313994</v>
+        <v>26.4655382490075</v>
       </c>
       <c r="G20">
-        <v>2.01505165548435</v>
+        <v>38.0066626420411</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>10.321493692218</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>19.5357636468375</v>
       </c>
       <c r="J20">
-        <v>4.574062317007694</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>70.25487238483881</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>5.332811911098226</v>
+        <v>4.311253865394488</v>
       </c>
       <c r="M20">
-        <v>46.6733976219929</v>
+        <v>33.0594419577488</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>22.67185336656349</v>
       </c>
       <c r="O20">
-        <v>34.29979460870992</v>
+        <v>19.87392677807749</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.154786330957574</v>
+        <v>5.624929963728821</v>
       </c>
       <c r="D21">
-        <v>4.753940009284978</v>
+        <v>3.079110349250834</v>
       </c>
       <c r="E21">
-        <v>5.405999391272983</v>
+        <v>5.188060208634512</v>
       </c>
       <c r="F21">
-        <v>47.54077784644274</v>
+        <v>27.99174375117234</v>
       </c>
       <c r="G21">
-        <v>1.981811435542019</v>
+        <v>40.45839671244757</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.71572679557159</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>20.49601411825963</v>
       </c>
       <c r="J21">
-        <v>4.252777214188798</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>75.28682507211417</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>5.428894301773042</v>
+        <v>4.144835685154729</v>
       </c>
       <c r="M21">
-        <v>49.81130590866897</v>
+        <v>35.01963812067027</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>23.713516479872</v>
       </c>
       <c r="O21">
-        <v>36.4282458196443</v>
+        <v>20.91039841926193</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.289786391039955</v>
+        <v>5.647409652023632</v>
       </c>
       <c r="D22">
-        <v>5.055503019788174</v>
+        <v>3.122835103859686</v>
       </c>
       <c r="E22">
-        <v>5.325162832947879</v>
+        <v>5.041415429994877</v>
       </c>
       <c r="F22">
-        <v>49.74772515578051</v>
+        <v>29.06130288480071</v>
       </c>
       <c r="G22">
-        <v>1.959048256211314</v>
+        <v>42.01847782250115</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>10.97496958227728</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>21.11983017617639</v>
       </c>
       <c r="J22">
-        <v>4.033276275067178</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>78.55755369395403</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>5.495195833040481</v>
+        <v>4.037351587762338</v>
       </c>
       <c r="M22">
-        <v>51.98777358661955</v>
+        <v>36.24326738960544</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>24.37287012439778</v>
       </c>
       <c r="O22">
-        <v>38.35689391341634</v>
+        <v>21.5798216545579</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.216029507486808</v>
+        <v>5.634664399634525</v>
       </c>
       <c r="D23">
-        <v>4.892830888391602</v>
+        <v>3.099603229723987</v>
       </c>
       <c r="E23">
-        <v>5.368497027483087</v>
+        <v>5.119046429079431</v>
       </c>
       <c r="F23">
-        <v>48.49093230632116</v>
+        <v>28.49053760012837</v>
       </c>
       <c r="G23">
-        <v>1.971314818279757</v>
+        <v>41.18966958000071</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.83647274762474</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>20.78725709816531</v>
       </c>
       <c r="J23">
-        <v>4.151492102544706</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>76.81200443940855</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>5.45942995103814</v>
+        <v>4.094606196959214</v>
       </c>
       <c r="M23">
-        <v>50.82616850218901</v>
+        <v>35.59542569504393</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>24.02295536714963</v>
       </c>
       <c r="O23">
-        <v>37.30990377117953</v>
+        <v>21.22328834085015</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.970934269800232</v>
+        <v>5.602362717326439</v>
       </c>
       <c r="D24">
-        <v>4.308939116665282</v>
+        <v>3.00936146050131</v>
       </c>
       <c r="E24">
-        <v>5.529204424463924</v>
+        <v>5.426312098793598</v>
       </c>
       <c r="F24">
-        <v>44.77040615140952</v>
+        <v>26.44026137492841</v>
       </c>
       <c r="G24">
-        <v>2.015581771837475</v>
+        <v>37.96587127609509</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10.3150797783546</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>19.52001181118048</v>
       </c>
       <c r="J24">
-        <v>4.57919065026736</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>70.17202367290129</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>5.331289311545904</v>
+        <v>4.313996683723227</v>
       </c>
       <c r="M24">
-        <v>46.62297087881143</v>
+        <v>33.02642754682243</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>22.654474228324</v>
       </c>
       <c r="O24">
-        <v>34.26894731835253</v>
+        <v>19.85685733669958</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.763387733807249</v>
+        <v>5.598710495415676</v>
       </c>
       <c r="D25">
-        <v>3.719819211761085</v>
+        <v>2.907531318161746</v>
       </c>
       <c r="E25">
-        <v>5.699212741357814</v>
+        <v>5.782167833315568</v>
       </c>
       <c r="F25">
-        <v>41.64461082245469</v>
+        <v>24.19032081525003</v>
       </c>
       <c r="G25">
-        <v>2.060598933534765</v>
+        <v>34.40921780006182</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>9.760896107038924</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>18.14034293789978</v>
       </c>
       <c r="J25">
-        <v>5.014759610994535</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>62.99529367620549</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>5.203636848046536</v>
+        <v>4.556670360870095</v>
       </c>
       <c r="M25">
-        <v>42.17088735066439</v>
+        <v>30.00605379609548</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>21.09038913560485</v>
       </c>
       <c r="O25">
-        <v>31.94335230801287</v>
+        <v>18.3518424469374</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.619819872339566</v>
+        <v>10.06794800843628</v>
       </c>
       <c r="D2">
-        <v>2.829037804443067</v>
+        <v>3.983777410211226</v>
       </c>
       <c r="E2">
-        <v>6.062338803143546</v>
+        <v>12.16657276785682</v>
       </c>
       <c r="F2">
-        <v>22.46767345793112</v>
+        <v>23.38826680322079</v>
       </c>
       <c r="G2">
-        <v>31.66550631731662</v>
+        <v>28.01292897430985</v>
       </c>
       <c r="H2">
-        <v>9.361753414399743</v>
+        <v>13.49685549273043</v>
       </c>
       <c r="I2">
-        <v>17.11857743159823</v>
+        <v>21.67762619005112</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.741127295510325</v>
+        <v>9.176037176907197</v>
       </c>
       <c r="M2">
-        <v>27.56479969797604</v>
+        <v>21.43271464196771</v>
       </c>
       <c r="N2">
-        <v>19.86868299673813</v>
+        <v>17.44077157824414</v>
       </c>
       <c r="O2">
-        <v>17.22189061238263</v>
+        <v>20.55991972793914</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.64743006682242</v>
+        <v>10.11295619119016</v>
       </c>
       <c r="D3">
-        <v>2.773842982926942</v>
+        <v>3.968187591908877</v>
       </c>
       <c r="E3">
-        <v>6.262531696901391</v>
+        <v>12.2450925967679</v>
       </c>
       <c r="F3">
-        <v>21.26342174305919</v>
+        <v>23.19104253171543</v>
       </c>
       <c r="G3">
-        <v>29.72553376583363</v>
+        <v>27.5794044171809</v>
       </c>
       <c r="H3">
-        <v>9.09792084919323</v>
+        <v>13.49644824827044</v>
       </c>
       <c r="I3">
-        <v>16.42590944465329</v>
+        <v>21.63054172415454</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>4.87002000915823</v>
+        <v>9.221551313212375</v>
       </c>
       <c r="M3">
-        <v>25.77341080160201</v>
+        <v>20.74802168247708</v>
       </c>
       <c r="N3">
-        <v>19.0007994360305</v>
+        <v>17.14173113664868</v>
       </c>
       <c r="O3">
-        <v>16.44614691970472</v>
+        <v>20.47873960256266</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.670435748456832</v>
+        <v>10.14270205021584</v>
       </c>
       <c r="D4">
-        <v>2.739038319294073</v>
+        <v>3.958404878136829</v>
       </c>
       <c r="E4">
-        <v>6.390293754334503</v>
+        <v>12.29575262194584</v>
       </c>
       <c r="F4">
-        <v>20.50794062234786</v>
+        <v>23.07648756809865</v>
       </c>
       <c r="G4">
-        <v>28.49689456158274</v>
+        <v>27.32017458332991</v>
       </c>
       <c r="H4">
-        <v>8.939629292911023</v>
+        <v>13.49914079998883</v>
       </c>
       <c r="I4">
-        <v>16.00193954846539</v>
+        <v>21.60763397498322</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>4.951164021647621</v>
+        <v>9.250837214704529</v>
       </c>
       <c r="M4">
-        <v>24.60556583732986</v>
+        <v>20.31555881327071</v>
       </c>
       <c r="N4">
-        <v>18.44983823928782</v>
+        <v>16.957348357152</v>
       </c>
       <c r="O4">
-        <v>15.96649883765769</v>
+        <v>20.43453689771981</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.681257999588397</v>
+        <v>10.15535349392925</v>
       </c>
       <c r="D5">
-        <v>2.724636548538604</v>
+        <v>3.954366250305936</v>
       </c>
       <c r="E5">
-        <v>6.443545520990567</v>
+        <v>12.31701374010306</v>
       </c>
       <c r="F5">
-        <v>20.19642605482757</v>
+        <v>23.03149930035202</v>
       </c>
       <c r="G5">
-        <v>27.98724229360189</v>
+        <v>27.21643793671273</v>
       </c>
       <c r="H5">
-        <v>8.876120165749674</v>
+        <v>13.50097818266113</v>
       </c>
       <c r="I5">
-        <v>15.82974641248825</v>
+        <v>21.59981382905633</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>4.984746715591085</v>
+        <v>9.263109372502807</v>
       </c>
       <c r="M5">
-        <v>24.11253200582834</v>
+        <v>20.13652424627947</v>
       </c>
       <c r="N5">
-        <v>18.22105764794182</v>
+        <v>16.8821102927801</v>
       </c>
       <c r="O5">
-        <v>15.7704762440435</v>
+        <v>20.41795601852297</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.683140274724232</v>
+        <v>10.15748622472889</v>
       </c>
       <c r="D6">
-        <v>2.722232288553394</v>
+        <v>3.953692517515762</v>
       </c>
       <c r="E6">
-        <v>6.452458900981145</v>
+        <v>12.32058141356637</v>
       </c>
       <c r="F6">
-        <v>20.14449166826087</v>
+        <v>23.02413269203826</v>
       </c>
       <c r="G6">
-        <v>27.90208865674129</v>
+        <v>27.19933177333813</v>
       </c>
       <c r="H6">
-        <v>8.865636573211892</v>
+        <v>13.5013279798488</v>
       </c>
       <c r="I6">
-        <v>15.80119630337261</v>
+        <v>21.59860693080307</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4.990354596996466</v>
+        <v>9.265167592175326</v>
       </c>
       <c r="M6">
-        <v>24.02962842635239</v>
+        <v>20.1066335503984</v>
       </c>
       <c r="N6">
-        <v>18.18282072793868</v>
+        <v>16.86961375502937</v>
       </c>
       <c r="O6">
-        <v>15.73790166420038</v>
+        <v>20.41528961927258</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.670575939145636</v>
+        <v>10.14287052829476</v>
       </c>
       <c r="D7">
-        <v>2.738844961509263</v>
+        <v>3.958350621610342</v>
       </c>
       <c r="E7">
-        <v>6.391007152814482</v>
+        <v>12.29603685825273</v>
       </c>
       <c r="F7">
-        <v>20.50375363779928</v>
+        <v>23.07587392056019</v>
       </c>
       <c r="G7">
-        <v>28.49005685217374</v>
+        <v>27.31876765667494</v>
       </c>
       <c r="H7">
-        <v>8.938768668147882</v>
+        <v>13.49916258280363</v>
       </c>
       <c r="I7">
-        <v>15.99961461407416</v>
+        <v>21.6075223696337</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>4.951614825281164</v>
+        <v>9.251001351858157</v>
       </c>
       <c r="M7">
-        <v>24.59898601670055</v>
+        <v>20.31315531879466</v>
       </c>
       <c r="N7">
-        <v>18.44676966180243</v>
+        <v>16.95633395303034</v>
       </c>
       <c r="O7">
-        <v>15.96385709263717</v>
+        <v>20.4343074677166</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.628038232931405</v>
+        <v>10.08302817535596</v>
       </c>
       <c r="D8">
-        <v>2.810203199802566</v>
+        <v>3.978446232162941</v>
       </c>
       <c r="E8">
-        <v>6.130340171800031</v>
+        <v>12.19313884053143</v>
       </c>
       <c r="F8">
-        <v>22.05599376832735</v>
+        <v>23.31893659797687</v>
       </c>
       <c r="G8">
-        <v>31.00462208553837</v>
+        <v>27.86209861418657</v>
       </c>
       <c r="H8">
-        <v>9.270054150783611</v>
+        <v>13.49610457475403</v>
       </c>
       <c r="I8">
-        <v>16.87960828709169</v>
+        <v>21.66014955120233</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.785161145007685</v>
+        <v>9.191452902203398</v>
       </c>
       <c r="M8">
-        <v>26.96119573749515</v>
+        <v>21.19926682027574</v>
       </c>
       <c r="N8">
-        <v>19.57334778208076</v>
+        <v>17.33787771052577</v>
       </c>
       <c r="O8">
-        <v>16.95526256574973</v>
+        <v>20.53076636527592</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.596039334818466</v>
+        <v>9.982468345645799</v>
       </c>
       <c r="D9">
-        <v>2.942403597730544</v>
+        <v>4.016147469150274</v>
       </c>
       <c r="E9">
-        <v>5.65931641603727</v>
+        <v>12.01073560617426</v>
       </c>
       <c r="F9">
-        <v>24.95892069471287</v>
+        <v>23.84516963075634</v>
       </c>
       <c r="G9">
-        <v>35.62384909400805</v>
+        <v>28.97590370799868</v>
       </c>
       <c r="H9">
-        <v>9.94632772700195</v>
+        <v>13.51343170223039</v>
       </c>
       <c r="I9">
-        <v>18.60640266298298</v>
+        <v>21.81065615412383</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>4.47406649955639</v>
+        <v>9.085266942081539</v>
       </c>
       <c r="M9">
-        <v>31.05704817424447</v>
+        <v>22.83218543524456</v>
       </c>
       <c r="N9">
-        <v>21.62856782388444</v>
+        <v>18.07598472000492</v>
       </c>
       <c r="O9">
-        <v>18.86259754228046</v>
+        <v>20.76401302003138</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.608535997043367</v>
+        <v>9.9188833007121</v>
       </c>
       <c r="D10">
-        <v>3.034223627824987</v>
+        <v>4.042759620274968</v>
       </c>
       <c r="E10">
-        <v>5.340826741421247</v>
+        <v>11.88846902032672</v>
       </c>
       <c r="F10">
-        <v>26.9922526559997</v>
+        <v>24.25871120860701</v>
       </c>
       <c r="G10">
-        <v>38.85521754180754</v>
+        <v>29.814401820609</v>
       </c>
       <c r="H10">
-        <v>10.45602362748017</v>
+        <v>13.54032536750759</v>
       </c>
       <c r="I10">
-        <v>19.86515741991112</v>
+        <v>21.94953594273148</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.254003541640809</v>
+        <v>9.013644026840749</v>
       </c>
       <c r="M10">
-        <v>33.74318739752913</v>
+        <v>23.9572964471125</v>
       </c>
       <c r="N10">
-        <v>23.03304738155476</v>
+        <v>18.60697677394123</v>
       </c>
       <c r="O10">
-        <v>20.2303553760693</v>
+        <v>20.96122143858041</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.623031788523818</v>
+        <v>9.892205776273968</v>
       </c>
       <c r="D11">
-        <v>3.074728662651034</v>
+        <v>4.054620291681417</v>
       </c>
       <c r="E11">
-        <v>5.202878275351024</v>
+        <v>11.835382770823</v>
       </c>
       <c r="F11">
-        <v>27.89400374302679</v>
+        <v>24.45193321472672</v>
       </c>
       <c r="G11">
-        <v>40.3020008856173</v>
+        <v>30.19828522921716</v>
       </c>
       <c r="H11">
-        <v>10.69008468403746</v>
+        <v>13.55561499718405</v>
       </c>
       <c r="I11">
-        <v>20.43400212871443</v>
+        <v>22.01871372130926</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.155543011288749</v>
+        <v>8.982435368420564</v>
       </c>
       <c r="M11">
-        <v>34.89597838030434</v>
+        <v>24.45104793376569</v>
       </c>
       <c r="N11">
-        <v>23.64725630813298</v>
+        <v>18.84506519655215</v>
       </c>
       <c r="O11">
-        <v>20.84369386299115</v>
+        <v>21.05628912067429</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.629867881017322</v>
+        <v>9.882428060583596</v>
       </c>
       <c r="D12">
-        <v>3.089876316988501</v>
+        <v>4.059075478921057</v>
       </c>
       <c r="E12">
-        <v>5.151743319878546</v>
+        <v>11.81564372998795</v>
       </c>
       <c r="F12">
-        <v>28.25142450570921</v>
+        <v>24.52576911941575</v>
       </c>
       <c r="G12">
-        <v>40.84260411518265</v>
+        <v>30.3438446198561</v>
       </c>
       <c r="H12">
-        <v>10.77899324467874</v>
+        <v>13.56184168015923</v>
       </c>
       <c r="I12">
-        <v>20.64876988023629</v>
+        <v>22.04575747226358</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.118479053858387</v>
+        <v>8.97081389515424</v>
       </c>
       <c r="M12">
-        <v>35.32264856875678</v>
+        <v>24.63528608183375</v>
       </c>
       <c r="N12">
-        <v>23.87617350788718</v>
+        <v>18.93464526715811</v>
       </c>
       <c r="O12">
-        <v>21.07458746245135</v>
+        <v>21.09303469009348</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.628334454199262</v>
+        <v>9.884519414617396</v>
       </c>
       <c r="D13">
-        <v>3.086622616645308</v>
+        <v>4.058117598763675</v>
       </c>
       <c r="E13">
-        <v>5.162705136926666</v>
+        <v>11.81987872707544</v>
       </c>
       <c r="F13">
-        <v>28.17141796590443</v>
+        <v>24.5098386426314</v>
       </c>
       <c r="G13">
-        <v>40.72649711033761</v>
+        <v>30.31248981226089</v>
       </c>
       <c r="H13">
-        <v>10.75983353918297</v>
+        <v>13.56048126964786</v>
       </c>
       <c r="I13">
-        <v>20.60254558710107</v>
+        <v>22.03989567695558</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.126451875782585</v>
+        <v>8.973308058584758</v>
       </c>
       <c r="M13">
-        <v>35.23119506916397</v>
+        <v>24.59573074140418</v>
       </c>
       <c r="N13">
-        <v>23.82703698801329</v>
+        <v>18.91537958357364</v>
       </c>
       <c r="O13">
-        <v>21.02492215313133</v>
+        <v>21.08508812804985</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.623566754630425</v>
+        <v>9.891394847215592</v>
       </c>
       <c r="D14">
-        <v>3.075978740598962</v>
+        <v>4.054987553168463</v>
       </c>
       <c r="E14">
-        <v>5.19864856995307</v>
+        <v>11.83375154566122</v>
       </c>
       <c r="F14">
-        <v>27.92188464153716</v>
+        <v>24.45799475689119</v>
       </c>
       <c r="G14">
-        <v>40.34662168863237</v>
+        <v>30.21025756267059</v>
       </c>
       <c r="H14">
-        <v>10.6973939438344</v>
+        <v>13.55611853155634</v>
       </c>
       <c r="I14">
-        <v>20.45168451646523</v>
+        <v>22.02092173196439</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.152489403411455</v>
+        <v>8.98147532821444</v>
       </c>
       <c r="M14">
-        <v>34.9312780834687</v>
+        <v>24.46626085395831</v>
       </c>
       <c r="N14">
-        <v>23.66616362466941</v>
+        <v>18.85244705218472</v>
       </c>
       <c r="O14">
-        <v>20.86271735913838</v>
+        <v>21.05929740699691</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.62082413769149</v>
+        <v>9.895648543718359</v>
       </c>
       <c r="D15">
-        <v>3.069433967082351</v>
+        <v>4.053065569606083</v>
       </c>
       <c r="E15">
-        <v>5.220812177196802</v>
+        <v>11.84229637390702</v>
       </c>
       <c r="F15">
-        <v>27.77594903732141</v>
+        <v>24.42632374443394</v>
       </c>
       <c r="G15">
-        <v>40.11299377015474</v>
+        <v>30.14765754945519</v>
       </c>
       <c r="H15">
-        <v>10.65918259137761</v>
+        <v>13.55350303367762</v>
       </c>
       <c r="I15">
-        <v>20.35919179598272</v>
+        <v>22.00940955052582</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.168466425862974</v>
+        <v>8.986503590210198</v>
       </c>
       <c r="M15">
-        <v>34.74628767636079</v>
+        <v>24.38659686758263</v>
       </c>
       <c r="N15">
-        <v>23.56714290988165</v>
+        <v>18.81382134753561</v>
       </c>
       <c r="O15">
-        <v>20.76318245746355</v>
+        <v>21.04359617130393</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.607772829341465</v>
+        <v>9.920672076627453</v>
       </c>
       <c r="D16">
-        <v>3.031550311192568</v>
+        <v>4.041979482662519</v>
       </c>
       <c r="E16">
-        <v>5.349990061234296</v>
+        <v>11.89198924712221</v>
       </c>
       <c r="F16">
-        <v>26.93284614956442</v>
+        <v>24.24618066431346</v>
       </c>
       <c r="G16">
-        <v>38.75964644096177</v>
+        <v>29.78934952597182</v>
       </c>
       <c r="H16">
-        <v>10.44076767920703</v>
+        <v>13.53938743163063</v>
       </c>
       <c r="I16">
-        <v>19.82789704398982</v>
+        <v>21.94513449073567</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.260469964639709</v>
+        <v>9.015711139761914</v>
       </c>
       <c r="M16">
-        <v>33.66646481955254</v>
+        <v>23.92465300765524</v>
       </c>
       <c r="N16">
-        <v>22.99239971775434</v>
+        <v>18.59134044427574</v>
       </c>
       <c r="O16">
-        <v>20.19008547445323</v>
+        <v>20.95511424748181</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.602080343934138</v>
+        <v>9.936599780215378</v>
       </c>
       <c r="D17">
-        <v>3.007979554406909</v>
+        <v>4.035115041386867</v>
       </c>
       <c r="E17">
-        <v>5.431080728055977</v>
+        <v>11.92312255454585</v>
       </c>
       <c r="F17">
-        <v>26.40961235868816</v>
+        <v>24.13692801119759</v>
       </c>
       <c r="G17">
-        <v>37.91640165672286</v>
+        <v>29.57005003410401</v>
       </c>
       <c r="H17">
-        <v>10.30730796263342</v>
+        <v>13.53150889176508</v>
       </c>
       <c r="I17">
-        <v>19.50091917589399</v>
+        <v>21.90723035993659</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.317321884929942</v>
+        <v>9.033980058976358</v>
       </c>
       <c r="M17">
-        <v>32.98637127543949</v>
+        <v>23.63653549479731</v>
       </c>
       <c r="N17">
-        <v>22.63339585049548</v>
+        <v>18.45390984390552</v>
       </c>
       <c r="O17">
-        <v>19.8361645373706</v>
+        <v>20.90218826695442</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.599630826067154</v>
+        <v>9.945972454487048</v>
       </c>
       <c r="D18">
-        <v>2.994303765826922</v>
+        <v>4.031143759116227</v>
       </c>
       <c r="E18">
-        <v>5.478366982702934</v>
+        <v>11.94126811003573</v>
       </c>
       <c r="F18">
-        <v>26.10647794616987</v>
+        <v>24.07457285859073</v>
       </c>
       <c r="G18">
-        <v>37.42843577539293</v>
+        <v>29.44415440853185</v>
       </c>
       <c r="H18">
-        <v>10.23075428850412</v>
+        <v>13.52726514894527</v>
       </c>
       <c r="I18">
-        <v>19.31249939773627</v>
+        <v>21.88599472864551</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.350177642868862</v>
+        <v>9.044617139164741</v>
       </c>
       <c r="M18">
-        <v>32.58868613351753</v>
+        <v>23.46912446418831</v>
       </c>
       <c r="N18">
-        <v>22.42458735389126</v>
+        <v>18.37454206503231</v>
       </c>
       <c r="O18">
-        <v>19.63176769582404</v>
+        <v>20.87225241321695</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.598940633754568</v>
+        <v>9.949182164236563</v>
       </c>
       <c r="D19">
-        <v>2.989653305377085</v>
+        <v>4.029795222421265</v>
       </c>
       <c r="E19">
-        <v>5.494485228040294</v>
+        <v>11.94745286901321</v>
       </c>
       <c r="F19">
-        <v>26.00346982358855</v>
+        <v>24.0535456232913</v>
       </c>
       <c r="G19">
-        <v>37.26684596105368</v>
+        <v>29.40157443987786</v>
       </c>
       <c r="H19">
-        <v>10.20487179811462</v>
+        <v>13.52587778861027</v>
       </c>
       <c r="I19">
-        <v>19.24864698256156</v>
+        <v>21.87890232960881</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.361329313767918</v>
+        <v>9.048240902290308</v>
       </c>
       <c r="M19">
-        <v>32.45291584819443</v>
+        <v>23.41215554599557</v>
       </c>
       <c r="N19">
-        <v>22.35349411767298</v>
+        <v>18.34761684564466</v>
       </c>
       <c r="O19">
-        <v>19.56242303308836</v>
+        <v>20.86220424379139</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.602600386460766</v>
+        <v>9.934882352336331</v>
       </c>
       <c r="D20">
-        <v>3.010501033746822</v>
+        <v>4.035848163766505</v>
       </c>
       <c r="E20">
-        <v>5.422381034603182</v>
+        <v>11.91978368233376</v>
       </c>
       <c r="F20">
-        <v>26.4655382490075</v>
+        <v>24.14850851959498</v>
       </c>
       <c r="G20">
-        <v>38.0066626420411</v>
+        <v>29.59337121566242</v>
       </c>
       <c r="H20">
-        <v>10.321493692218</v>
+        <v>13.53231780821941</v>
       </c>
       <c r="I20">
-        <v>19.5357636468375</v>
+        <v>21.91120686463983</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.311253865394488</v>
+        <v>9.032021927491</v>
       </c>
       <c r="M20">
-        <v>33.0594419577488</v>
+        <v>23.66738240416817</v>
       </c>
       <c r="N20">
-        <v>22.67185336656349</v>
+        <v>18.4685734224971</v>
       </c>
       <c r="O20">
-        <v>19.87392677807749</v>
+        <v>20.90777015717303</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.624929963728821</v>
+        <v>9.889366549354966</v>
       </c>
       <c r="D21">
-        <v>3.079110349250834</v>
+        <v>4.055907912921009</v>
       </c>
       <c r="E21">
-        <v>5.188060208634512</v>
+        <v>11.82966690106572</v>
       </c>
       <c r="F21">
-        <v>27.99174375117234</v>
+        <v>24.47320499700623</v>
       </c>
       <c r="G21">
-        <v>40.45839671244757</v>
+        <v>30.24028172481463</v>
       </c>
       <c r="H21">
-        <v>10.71572679557159</v>
+        <v>13.55738814050736</v>
       </c>
       <c r="I21">
-        <v>20.49601411825963</v>
+        <v>22.02647196417683</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.144835685154729</v>
+        <v>8.979071075176574</v>
       </c>
       <c r="M21">
-        <v>35.01963812067027</v>
+        <v>24.50436453183184</v>
       </c>
       <c r="N21">
-        <v>23.713516479872</v>
+        <v>18.8709481956658</v>
       </c>
       <c r="O21">
-        <v>20.91039841926193</v>
+        <v>21.06685273903086</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.647409652023632</v>
+        <v>9.861511283113357</v>
       </c>
       <c r="D22">
-        <v>3.122835103859686</v>
+        <v>4.068806745653554</v>
       </c>
       <c r="E22">
-        <v>5.041415429994877</v>
+        <v>11.77288922166789</v>
       </c>
       <c r="F22">
-        <v>29.06130288480071</v>
+        <v>24.68926885168948</v>
       </c>
       <c r="G22">
-        <v>42.01847782250115</v>
+        <v>30.66411777749119</v>
       </c>
       <c r="H22">
-        <v>10.97496958227728</v>
+        <v>13.57631775205451</v>
       </c>
       <c r="I22">
-        <v>21.11983017617639</v>
+        <v>22.10673687856407</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.037351587762338</v>
+        <v>8.945609987625659</v>
       </c>
       <c r="M22">
-        <v>36.24326738960544</v>
+        <v>25.03538761783586</v>
       </c>
       <c r="N22">
-        <v>24.37287012439778</v>
+        <v>19.1305149222423</v>
       </c>
       <c r="O22">
-        <v>21.5798216545579</v>
+        <v>21.17515524579794</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.634664399634525</v>
+        <v>9.876204624654253</v>
       </c>
       <c r="D23">
-        <v>3.099603229723987</v>
+        <v>4.061942037163786</v>
       </c>
       <c r="E23">
-        <v>5.119046429079431</v>
+        <v>11.80299889683798</v>
       </c>
       <c r="F23">
-        <v>28.49053760012837</v>
+        <v>24.57362086631534</v>
       </c>
       <c r="G23">
-        <v>41.18966958000071</v>
+        <v>30.43786495906984</v>
       </c>
       <c r="H23">
-        <v>10.83647274762474</v>
+        <v>13.56598277813892</v>
       </c>
       <c r="I23">
-        <v>20.78725709816531</v>
+        <v>22.06345208105256</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.094606196959214</v>
+        <v>8.963364282893901</v>
       </c>
       <c r="M23">
-        <v>35.59542569504393</v>
+        <v>24.75347510656846</v>
       </c>
       <c r="N23">
-        <v>24.02295536714963</v>
+        <v>18.99231677091065</v>
       </c>
       <c r="O23">
-        <v>21.22328834085015</v>
+        <v>21.11696426502416</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.602362717326439</v>
+        <v>9.935658129919885</v>
       </c>
       <c r="D24">
-        <v>3.00936146050131</v>
+        <v>4.03551679637627</v>
       </c>
       <c r="E24">
-        <v>5.426312098793598</v>
+        <v>11.92129241822947</v>
       </c>
       <c r="F24">
-        <v>26.44026137492841</v>
+        <v>24.1432715473239</v>
       </c>
       <c r="G24">
-        <v>37.96587127609509</v>
+        <v>29.58282712840773</v>
       </c>
       <c r="H24">
-        <v>10.3150797783546</v>
+        <v>13.53195120681662</v>
       </c>
       <c r="I24">
-        <v>19.52001181118048</v>
+        <v>21.9094073539054</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.313996683723227</v>
+        <v>9.032906781139008</v>
       </c>
       <c r="M24">
-        <v>33.02642754682243</v>
+        <v>23.65344201413283</v>
       </c>
       <c r="N24">
-        <v>22.654474228324</v>
+        <v>18.46194512468447</v>
       </c>
       <c r="O24">
-        <v>19.85685733669958</v>
+        <v>20.90524505014969</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.598710495415676</v>
+        <v>10.0078687201673</v>
       </c>
       <c r="D25">
-        <v>2.907531318161746</v>
+        <v>4.006135780756886</v>
       </c>
       <c r="E25">
-        <v>5.782167833315568</v>
+        <v>12.05801307495498</v>
       </c>
       <c r="F25">
-        <v>24.19032081525003</v>
+        <v>23.69783274301685</v>
       </c>
       <c r="G25">
-        <v>34.40921780006182</v>
+        <v>28.67037421640079</v>
       </c>
       <c r="H25">
-        <v>9.760896107038924</v>
+        <v>13.5062513132575</v>
       </c>
       <c r="I25">
-        <v>18.14034293789978</v>
+        <v>21.76492463119945</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>4.556670360870095</v>
+        <v>9.112866040912149</v>
       </c>
       <c r="M25">
-        <v>30.00605379609548</v>
+        <v>22.402834813771</v>
       </c>
       <c r="N25">
-        <v>21.09038913560485</v>
+        <v>17.87793154493992</v>
       </c>
       <c r="O25">
-        <v>18.3518424469374</v>
+        <v>20.69629302094984</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_line/loading_percent.xlsx
@@ -420,1128 +420,840 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>10.06794800843628</v>
+        <v>7.607196754993366</v>
       </c>
       <c r="D2">
-        <v>3.983777410211226</v>
+        <v>3.362735541186263</v>
       </c>
       <c r="E2">
-        <v>12.16657276785682</v>
+        <v>31.6224335368407</v>
       </c>
       <c r="F2">
-        <v>23.38826680322079</v>
+        <v>39.85743707408913</v>
       </c>
       <c r="G2">
-        <v>28.01292897430985</v>
+        <v>1.958292765701826</v>
       </c>
       <c r="H2">
-        <v>13.49685549273043</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>21.67762619005112</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
-        <v>9.176037176907197</v>
-      </c>
-      <c r="M2">
-        <v>21.43271464196771</v>
-      </c>
-      <c r="N2">
-        <v>17.44077157824414</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>20.55991972793914</v>
+        <v>32.29238138019193</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>10.11295619119016</v>
+        <v>7.049516854928346</v>
       </c>
       <c r="D3">
-        <v>3.968187591908877</v>
+        <v>3.139945308698433</v>
       </c>
       <c r="E3">
-        <v>12.2450925967679</v>
+        <v>29.16555642876389</v>
       </c>
       <c r="F3">
-        <v>23.19104253171543</v>
+        <v>36.89688011011592</v>
       </c>
       <c r="G3">
-        <v>27.5794044171809</v>
+        <v>1.971733351631292</v>
       </c>
       <c r="H3">
-        <v>13.49644824827044</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>21.63054172415454</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
-        <v>9.221551313212375</v>
-      </c>
-      <c r="M3">
-        <v>20.74802168247708</v>
-      </c>
-      <c r="N3">
-        <v>17.14173113664868</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>20.47873960256266</v>
+        <v>29.87098972563082</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
-        <v>10.14270205021584</v>
+        <v>6.69172445519231</v>
       </c>
       <c r="D4">
-        <v>3.958404878136829</v>
+        <v>3.000031024010152</v>
       </c>
       <c r="E4">
-        <v>12.29575262194584</v>
+        <v>27.60604818074527</v>
       </c>
       <c r="F4">
-        <v>23.07648756809865</v>
+        <v>35.00734135344993</v>
       </c>
       <c r="G4">
-        <v>27.32017458332991</v>
+        <v>1.98008863487331</v>
       </c>
       <c r="H4">
-        <v>13.49914079998883</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>21.60763397498322</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
-        <v>9.250837214704529</v>
-      </c>
-      <c r="M4">
-        <v>20.31555881327071</v>
-      </c>
-      <c r="N4">
-        <v>16.957348357152</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>20.43453689771981</v>
+        <v>28.32425087503875</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
-        <v>10.15535349392925</v>
+        <v>6.541937058256457</v>
       </c>
       <c r="D5">
-        <v>3.954366250305936</v>
+        <v>2.942153528115889</v>
       </c>
       <c r="E5">
-        <v>12.31701374010306</v>
+        <v>26.95678357589031</v>
       </c>
       <c r="F5">
-        <v>23.03149930035202</v>
+        <v>34.21874364326652</v>
       </c>
       <c r="G5">
-        <v>27.21643793671273</v>
+        <v>1.983525356286841</v>
       </c>
       <c r="H5">
-        <v>13.50097818266113</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>21.59981382905633</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
-        <v>9.263109372502807</v>
-      </c>
-      <c r="M5">
-        <v>20.13652424627947</v>
-      </c>
-      <c r="N5">
-        <v>16.8821102927801</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>20.41795601852297</v>
+        <v>27.67833068099531</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
-        <v>10.15748622472889</v>
+        <v>6.516821111478633</v>
       </c>
       <c r="D6">
-        <v>3.953692517515762</v>
+        <v>2.932489062503884</v>
       </c>
       <c r="E6">
-        <v>12.32058141356637</v>
+        <v>26.84811800433369</v>
       </c>
       <c r="F6">
-        <v>23.02413269203826</v>
+        <v>34.08666054128894</v>
       </c>
       <c r="G6">
-        <v>27.19933177333813</v>
+        <v>1.984098109621508</v>
       </c>
       <c r="H6">
-        <v>13.5013279798488</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>21.59860693080307</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
-        <v>9.265167592175326</v>
-      </c>
-      <c r="M6">
-        <v>20.1066335503984</v>
-      </c>
-      <c r="N6">
-        <v>16.86961375502937</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>20.41528961927258</v>
+        <v>27.57011948531187</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
-        <v>10.14287052829476</v>
+        <v>6.689720649203807</v>
       </c>
       <c r="D7">
-        <v>3.958350621610342</v>
+        <v>2.999254044709577</v>
       </c>
       <c r="E7">
-        <v>12.29603685825273</v>
+        <v>27.59734880258203</v>
       </c>
       <c r="F7">
-        <v>23.07587392056019</v>
+        <v>34.99678198800388</v>
       </c>
       <c r="G7">
-        <v>27.31876765667494</v>
+        <v>1.980134847168667</v>
       </c>
       <c r="H7">
-        <v>13.49916258280363</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>21.6075223696337</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="L7">
-        <v>9.251001351858157</v>
-      </c>
-      <c r="M7">
-        <v>20.31315531879466</v>
-      </c>
-      <c r="N7">
-        <v>16.95633395303034</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>20.4343074677166</v>
+        <v>28.31560361313817</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8">
-        <v>10.08302817535596</v>
+        <v>7.418024854835653</v>
       </c>
       <c r="D8">
-        <v>3.978446232162941</v>
+        <v>3.286513536128171</v>
       </c>
       <c r="E8">
-        <v>12.19313884053143</v>
+        <v>30.78527984737994</v>
       </c>
       <c r="F8">
-        <v>23.31893659797687</v>
+        <v>38.85115571867446</v>
       </c>
       <c r="G8">
-        <v>27.86209861418657</v>
+        <v>1.962909647645761</v>
       </c>
       <c r="H8">
-        <v>13.49610457475403</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>21.66014955120233</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
       <c r="L8">
-        <v>9.191452902203398</v>
-      </c>
-      <c r="M8">
-        <v>21.19926682027574</v>
-      </c>
-      <c r="N8">
-        <v>17.33787771052577</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>20.53076636527592</v>
+        <v>31.46959332509005</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
-        <v>9.982468345645799</v>
+        <v>8.730298861514507</v>
       </c>
       <c r="D9">
-        <v>4.016147469150274</v>
+        <v>3.829546319298258</v>
       </c>
       <c r="E9">
-        <v>12.01073560617426</v>
+        <v>36.68239083111667</v>
       </c>
       <c r="F9">
-        <v>23.84516963075634</v>
+        <v>45.87230315275779</v>
       </c>
       <c r="G9">
-        <v>28.97590370799868</v>
+        <v>1.929625759917007</v>
       </c>
       <c r="H9">
-        <v>13.51343170223039</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>21.81065615412383</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
-        <v>9.085266942081539</v>
-      </c>
-      <c r="M9">
-        <v>22.83218543524456</v>
-      </c>
-      <c r="N9">
-        <v>18.07598472000492</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>20.76401302003138</v>
+        <v>37.2074129180036</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
-        <v>9.9188833007121</v>
+        <v>9.633680417016075</v>
       </c>
       <c r="D10">
-        <v>4.042759620274968</v>
+        <v>4.224311827774769</v>
       </c>
       <c r="E10">
-        <v>11.88846902032672</v>
+        <v>40.88533405904297</v>
       </c>
       <c r="F10">
-        <v>24.25871120860701</v>
+        <v>50.76013361964855</v>
       </c>
       <c r="G10">
-        <v>29.814401820609</v>
+        <v>1.904931393232279</v>
       </c>
       <c r="H10">
-        <v>13.54032536750759</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>21.94953594273148</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
       <c r="L10">
-        <v>9.013644026840749</v>
-      </c>
-      <c r="M10">
-        <v>23.9572964471125</v>
-      </c>
-      <c r="N10">
-        <v>18.60697677394123</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>20.96122143858041</v>
+        <v>41.20028594588415</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
-        <v>9.892205776273968</v>
+        <v>10.03423870648036</v>
       </c>
       <c r="D11">
-        <v>4.054620291681417</v>
+        <v>4.405537456283435</v>
       </c>
       <c r="E11">
-        <v>11.835382770823</v>
+        <v>42.79519200919811</v>
       </c>
       <c r="F11">
-        <v>24.45193321472672</v>
+        <v>52.94208879302392</v>
       </c>
       <c r="G11">
-        <v>30.19828522921716</v>
+        <v>1.893486820889241</v>
       </c>
       <c r="H11">
-        <v>13.55561499718405</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>22.01871372130926</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
       <c r="L11">
-        <v>8.982435368420564</v>
-      </c>
-      <c r="M11">
-        <v>24.45104793376569</v>
-      </c>
-      <c r="N11">
-        <v>18.84506519655215</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>21.05628912067429</v>
+        <v>42.98308054501092</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
       <c r="C12">
-        <v>9.882428060583596</v>
+        <v>10.1847173358589</v>
       </c>
       <c r="D12">
-        <v>4.059075478921057</v>
+        <v>4.474688375272017</v>
       </c>
       <c r="E12">
-        <v>11.81564372998795</v>
+        <v>43.52102163603266</v>
       </c>
       <c r="F12">
-        <v>24.52576911941575</v>
+        <v>53.76424026308448</v>
       </c>
       <c r="G12">
-        <v>30.3438446198561</v>
+        <v>1.889105492216314</v>
       </c>
       <c r="H12">
-        <v>13.56184168015923</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>22.04575747226358</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
       <c r="L12">
-        <v>8.97081389515424</v>
-      </c>
-      <c r="M12">
-        <v>24.63528608183375</v>
-      </c>
-      <c r="N12">
-        <v>18.93464526715811</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>21.09303469009348</v>
+        <v>43.65494712297662</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
-        <v>9.884519414617396</v>
+        <v>10.15235728566892</v>
       </c>
       <c r="D13">
-        <v>4.058117598763675</v>
+        <v>4.459766678201969</v>
       </c>
       <c r="E13">
-        <v>11.81987872707544</v>
+        <v>43.36453006724026</v>
       </c>
       <c r="F13">
-        <v>24.5098386426314</v>
+        <v>53.58732306180877</v>
       </c>
       <c r="G13">
-        <v>30.31248981226089</v>
+        <v>1.890051523628956</v>
       </c>
       <c r="H13">
-        <v>13.56048126964786</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>22.03989567695558</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
       <c r="L13">
-        <v>8.973308058584758</v>
-      </c>
-      <c r="M13">
-        <v>24.59573074140418</v>
-      </c>
-      <c r="N13">
-        <v>18.91537958357364</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>21.08508812804985</v>
+        <v>43.51036305489854</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
       <c r="C14">
-        <v>9.891394847215592</v>
+        <v>10.04664090760767</v>
       </c>
       <c r="D14">
-        <v>4.054987553168463</v>
+        <v>4.411214086743068</v>
       </c>
       <c r="E14">
-        <v>11.83375154566122</v>
+        <v>42.85483461058386</v>
       </c>
       <c r="F14">
-        <v>24.45799475689119</v>
+        <v>53.00979762996294</v>
       </c>
       <c r="G14">
-        <v>30.21025756267059</v>
+        <v>1.893127432517308</v>
       </c>
       <c r="H14">
-        <v>13.55611853155634</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>22.02092173196439</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
       <c r="L14">
-        <v>8.98147532821444</v>
-      </c>
-      <c r="M14">
-        <v>24.46626085395831</v>
-      </c>
-      <c r="N14">
-        <v>18.85244705218472</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>21.05929740699691</v>
+        <v>43.03840979985009</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15">
-        <v>9.895648543718359</v>
+        <v>9.981739493657434</v>
       </c>
       <c r="D15">
-        <v>4.053065569606083</v>
+        <v>4.38155248073646</v>
       </c>
       <c r="E15">
-        <v>11.84229637390702</v>
+        <v>42.54307111291945</v>
       </c>
       <c r="F15">
-        <v>24.42632374443394</v>
+        <v>52.65557508417979</v>
       </c>
       <c r="G15">
-        <v>30.14765754945519</v>
+        <v>1.895004744479585</v>
       </c>
       <c r="H15">
-        <v>13.55350303367762</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>22.00940955052582</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
       <c r="L15">
-        <v>8.986503590210198</v>
-      </c>
-      <c r="M15">
-        <v>24.38659686758263</v>
-      </c>
-      <c r="N15">
-        <v>18.81382134753561</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>21.04359617130393</v>
+        <v>42.74895688946035</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
-        <v>9.920672076627453</v>
+        <v>9.607317257250788</v>
       </c>
       <c r="D16">
-        <v>4.041979482662519</v>
+        <v>4.212524288427283</v>
       </c>
       <c r="E16">
-        <v>11.89198924712221</v>
+        <v>40.76070945417882</v>
       </c>
       <c r="F16">
-        <v>24.24618066431346</v>
+        <v>50.61685106615555</v>
       </c>
       <c r="G16">
-        <v>29.78934952597182</v>
+        <v>1.905673702182806</v>
       </c>
       <c r="H16">
-        <v>13.53938743163063</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>21.94513449073567</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
       <c r="L16">
-        <v>9.015711139761914</v>
-      </c>
-      <c r="M16">
-        <v>23.92465300765524</v>
-      </c>
-      <c r="N16">
-        <v>18.59134044427574</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>20.95511424748181</v>
+        <v>41.08322770608313</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17">
-        <v>9.936599780215378</v>
+        <v>9.375146936129468</v>
       </c>
       <c r="D17">
-        <v>4.035115041386867</v>
+        <v>4.109433897317861</v>
       </c>
       <c r="E17">
-        <v>11.92312255454585</v>
+        <v>39.66859013412792</v>
       </c>
       <c r="F17">
-        <v>24.13692801119759</v>
+        <v>49.35671059608268</v>
       </c>
       <c r="G17">
-        <v>29.57005003410401</v>
+        <v>1.912153747652211</v>
       </c>
       <c r="H17">
-        <v>13.53150889176508</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>21.90723035993659</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
       <c r="L17">
-        <v>9.033980058976358</v>
-      </c>
-      <c r="M17">
-        <v>23.63653549479731</v>
-      </c>
-      <c r="N17">
-        <v>18.45390984390552</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>20.90218826695442</v>
+        <v>40.05377207216916</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
       <c r="C18">
-        <v>9.945972454487048</v>
+        <v>9.24060977806958</v>
       </c>
       <c r="D18">
-        <v>4.031143759116227</v>
+        <v>4.050272724799616</v>
       </c>
       <c r="E18">
-        <v>11.94126811003573</v>
+        <v>39.04002385820213</v>
       </c>
       <c r="F18">
-        <v>24.07457285859073</v>
+        <v>48.62786622554457</v>
       </c>
       <c r="G18">
-        <v>29.44415440853185</v>
+        <v>1.915862274713785</v>
       </c>
       <c r="H18">
-        <v>13.52726514894527</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>21.88599472864551</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
       <c r="L18">
-        <v>9.044617139164741</v>
-      </c>
-      <c r="M18">
-        <v>23.46912446418831</v>
-      </c>
-      <c r="N18">
-        <v>18.37454206503231</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>20.87225241321695</v>
+        <v>39.45838109790938</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
       <c r="C19">
-        <v>9.949182164236563</v>
+        <v>9.194878371208604</v>
       </c>
       <c r="D19">
-        <v>4.029795222421265</v>
+        <v>4.030257169072166</v>
       </c>
       <c r="E19">
-        <v>11.94745286901321</v>
+        <v>38.82705561681249</v>
       </c>
       <c r="F19">
-        <v>24.0535456232913</v>
+        <v>48.38034760006196</v>
       </c>
       <c r="G19">
-        <v>29.40157443987786</v>
+        <v>1.917115178097123</v>
       </c>
       <c r="H19">
-        <v>13.52587778861027</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>21.87890232960881</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
       <c r="L19">
-        <v>9.048240902290308</v>
-      </c>
-      <c r="M19">
-        <v>23.41215554599557</v>
-      </c>
-      <c r="N19">
-        <v>18.34761684564466</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>20.86220424379139</v>
+        <v>39.25618692918739</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
       <c r="C20">
-        <v>9.934882352336331</v>
+        <v>9.399963341082</v>
       </c>
       <c r="D20">
-        <v>4.035848163766505</v>
+        <v>4.120392366086931</v>
       </c>
       <c r="E20">
-        <v>11.91978368233376</v>
+        <v>39.78487173226436</v>
       </c>
       <c r="F20">
-        <v>24.14850851959498</v>
+        <v>49.49126124394916</v>
       </c>
       <c r="G20">
-        <v>29.59337121566242</v>
+        <v>1.911465974627505</v>
       </c>
       <c r="H20">
-        <v>13.53231780821941</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>21.91120686463983</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
       <c r="L20">
-        <v>9.032021927491</v>
-      </c>
-      <c r="M20">
-        <v>23.66738240416817</v>
-      </c>
-      <c r="N20">
-        <v>18.4685734224971</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>20.90777015717303</v>
+        <v>40.16368804537993</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
       <c r="C21">
-        <v>9.889366549354966</v>
+        <v>10.07772240750557</v>
       </c>
       <c r="D21">
-        <v>4.055907912921009</v>
+        <v>4.425458217347122</v>
       </c>
       <c r="E21">
-        <v>11.82966690106572</v>
+        <v>43.00444650173412</v>
       </c>
       <c r="F21">
-        <v>24.47320499700623</v>
+        <v>53.17952509502938</v>
       </c>
       <c r="G21">
-        <v>30.24028172481463</v>
+        <v>1.892225411586933</v>
       </c>
       <c r="H21">
-        <v>13.55738814050736</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>22.02647196417683</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
-        <v>8.979071075176574</v>
-      </c>
-      <c r="M21">
-        <v>24.50436453183184</v>
-      </c>
-      <c r="N21">
-        <v>18.8709481956658</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>21.06685273903086</v>
+        <v>43.17710716497027</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
       <c r="C22">
-        <v>9.861511283113357</v>
+        <v>10.51384526539554</v>
       </c>
       <c r="D22">
-        <v>4.068806745653554</v>
+        <v>4.628093215750807</v>
       </c>
       <c r="E22">
-        <v>11.77288922166789</v>
+        <v>45.12582925276121</v>
       </c>
       <c r="F22">
-        <v>24.68926885168948</v>
+        <v>55.56731686474293</v>
       </c>
       <c r="G22">
-        <v>30.66411777749119</v>
+        <v>1.8793622175977</v>
       </c>
       <c r="H22">
-        <v>13.57631775205451</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>22.10673687856407</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
       <c r="L22">
-        <v>8.945609987625659</v>
-      </c>
-      <c r="M22">
-        <v>25.03538761783586</v>
-      </c>
-      <c r="N22">
-        <v>19.1305149222423</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>21.17515524579794</v>
+        <v>45.12872379132627</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
       <c r="C23">
-        <v>9.876204624654253</v>
+        <v>10.28158916261458</v>
       </c>
       <c r="D23">
-        <v>4.061942037163786</v>
+        <v>4.519527117774479</v>
       </c>
       <c r="E23">
-        <v>11.80299889683798</v>
+        <v>43.9908426937458</v>
       </c>
       <c r="F23">
-        <v>24.57362086631534</v>
+        <v>54.29423608391685</v>
       </c>
       <c r="G23">
-        <v>30.43786495906984</v>
+        <v>1.886260817272308</v>
       </c>
       <c r="H23">
-        <v>13.56598277813892</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>22.06345208105256</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
       <c r="L23">
-        <v>8.963364282893901</v>
-      </c>
-      <c r="M23">
-        <v>24.75347510656846</v>
-      </c>
-      <c r="N23">
-        <v>18.99231677091065</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>21.11696426502416</v>
+        <v>44.08810414346221</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
       <c r="C24">
-        <v>9.935658129919885</v>
+        <v>9.388747165075605</v>
       </c>
       <c r="D24">
-        <v>4.03551679637627</v>
+        <v>4.115437730104973</v>
       </c>
       <c r="E24">
-        <v>11.92129241822947</v>
+        <v>39.73230318609077</v>
       </c>
       <c r="F24">
-        <v>24.1432715473239</v>
+        <v>49.43044465078054</v>
       </c>
       <c r="G24">
-        <v>29.58282712840773</v>
+        <v>1.911776968331437</v>
       </c>
       <c r="H24">
-        <v>13.53195120681662</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>21.9094073539054</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
       <c r="L24">
-        <v>9.032906781139008</v>
-      </c>
-      <c r="M24">
-        <v>23.65344201413283</v>
-      </c>
-      <c r="N24">
-        <v>18.46194512468447</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>20.90524505014969</v>
+        <v>40.11400618476468</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
       <c r="C25">
-        <v>10.0078687201673</v>
+        <v>8.386775026256268</v>
       </c>
       <c r="D25">
-        <v>4.006135780756886</v>
+        <v>3.684087671026524</v>
       </c>
       <c r="E25">
-        <v>12.05801307495498</v>
+        <v>35.1171538281754</v>
       </c>
       <c r="F25">
-        <v>23.69783274301685</v>
+        <v>44.0252771598487</v>
       </c>
       <c r="G25">
-        <v>28.67037421640079</v>
+        <v>1.93862685930325</v>
       </c>
       <c r="H25">
-        <v>13.5062513132575</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>21.76492463119945</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
       <c r="L25">
-        <v>9.112866040912149</v>
-      </c>
-      <c r="M25">
-        <v>22.402834813771</v>
-      </c>
-      <c r="N25">
-        <v>17.87793154493992</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>20.69629302094984</v>
+        <v>35.69849286049845</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,845 +415,995 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.607196754993366</v>
+        <v>9.029647283737622</v>
       </c>
       <c r="D2">
-        <v>3.362735541186263</v>
+        <v>3.898798292656095</v>
       </c>
       <c r="E2">
-        <v>31.6224335368407</v>
+        <v>30.92485815425406</v>
       </c>
       <c r="F2">
-        <v>39.85743707408913</v>
+        <v>38.9423558685209</v>
       </c>
       <c r="G2">
-        <v>1.958292765701826</v>
+        <v>2.030703605461498</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4.121955501335489</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>5.666355342013106</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>32.29238138019193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>31.70746127953079</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7.049516854928346</v>
+        <v>8.553591023797409</v>
       </c>
       <c r="D3">
-        <v>3.139945308698433</v>
+        <v>3.769276748298901</v>
       </c>
       <c r="E3">
-        <v>29.16555642876389</v>
+        <v>28.92748209773278</v>
       </c>
       <c r="F3">
-        <v>36.89688011011592</v>
+        <v>36.5381356186442</v>
       </c>
       <c r="G3">
-        <v>1.971733351631292</v>
+        <v>2.038265113186497</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.796971853692866</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>5.325482493839116</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="O3">
-        <v>29.87098972563082</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>29.82972981738495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6.69172445519231</v>
+        <v>8.243359066364116</v>
       </c>
       <c r="D4">
-        <v>3.000031024010152</v>
+        <v>3.685640502739095</v>
       </c>
       <c r="E4">
-        <v>27.60604818074527</v>
+        <v>27.63766409202675</v>
       </c>
       <c r="F4">
-        <v>35.00734135344993</v>
+        <v>34.9893285443197</v>
       </c>
       <c r="G4">
-        <v>1.98008863487331</v>
+        <v>2.043032112245916</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.591470319227692</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>5.110281783988809</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>28.32425087503875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>28.62196334768605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.541937058256457</v>
+        <v>8.097563448855372</v>
       </c>
       <c r="D5">
-        <v>2.942153528115889</v>
+        <v>3.647856698129114</v>
       </c>
       <c r="E5">
-        <v>26.95678357589031</v>
+        <v>27.09505849528821</v>
       </c>
       <c r="F5">
-        <v>34.21874364326652</v>
+        <v>34.32367396703472</v>
       </c>
       <c r="G5">
-        <v>1.983525356286841</v>
+        <v>2.045028000724851</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.505691178334679</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>5.020023621185192</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="O5">
-        <v>27.67833068099531</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>28.10185810059142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.516821111478633</v>
+        <v>8.054894854030756</v>
       </c>
       <c r="D6">
-        <v>2.932489062503884</v>
+        <v>3.638241031887861</v>
       </c>
       <c r="E6">
-        <v>26.84811800433369</v>
+        <v>27.00280577371236</v>
       </c>
       <c r="F6">
-        <v>34.08666054128894</v>
+        <v>34.19194117315168</v>
       </c>
       <c r="G6">
-        <v>1.984098109621508</v>
+        <v>2.045386772685795</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.490759089665126</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>5.003807701770328</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>27.57011948531187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>27.99712235024058</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>6.689720649203807</v>
+        <v>8.192512698642787</v>
       </c>
       <c r="D7">
-        <v>2.999254044709577</v>
+        <v>3.676258583023045</v>
       </c>
       <c r="E7">
-        <v>27.59734880258203</v>
+        <v>27.62720451218395</v>
       </c>
       <c r="F7">
-        <v>34.99678198800388</v>
+        <v>34.92659722817092</v>
       </c>
       <c r="G7">
-        <v>1.980134847168667</v>
+        <v>2.043127776334412</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.588705532358702</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5.105811914159265</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="O7">
-        <v>28.31560361313817</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>28.56797308220851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>7.418024854835653</v>
+        <v>8.808058976712541</v>
       </c>
       <c r="D8">
-        <v>3.286513536128171</v>
+        <v>3.843651295724678</v>
       </c>
       <c r="E8">
-        <v>30.78527984737994</v>
+        <v>30.24512517459959</v>
       </c>
       <c r="F8">
-        <v>38.85115571867446</v>
+        <v>38.06205732032774</v>
       </c>
       <c r="G8">
-        <v>1.962909647645761</v>
+        <v>2.033375488003624</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4.008996549170247</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>5.545568787504627</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="O8">
-        <v>31.46959332509005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>31.01323846709278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>8.730298861514507</v>
+        <v>9.953295597102613</v>
       </c>
       <c r="D9">
-        <v>3.829546319298258</v>
+        <v>4.153856042207163</v>
       </c>
       <c r="E9">
-        <v>36.68239083111667</v>
+        <v>34.8860077328054</v>
       </c>
       <c r="F9">
-        <v>45.87230315275779</v>
+        <v>43.71712881552599</v>
       </c>
       <c r="G9">
-        <v>1.929625759917007</v>
+        <v>2.015052941297847</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4.791193917728951</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>6.370099573519605</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>37.2074129180036</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>35.44413074453819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>9.633680417016075</v>
+        <v>10.67549542967558</v>
       </c>
       <c r="D10">
-        <v>4.224311827774769</v>
+        <v>4.320748006532021</v>
       </c>
       <c r="E10">
-        <v>40.88533405904297</v>
+        <v>37.12005084240776</v>
       </c>
       <c r="F10">
-        <v>50.76013361964855</v>
+        <v>47.28454370959189</v>
       </c>
       <c r="G10">
-        <v>1.904931393232279</v>
+        <v>2.002532611605643</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5.296458054193623</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>6.933339187879533</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="O10">
-        <v>41.20028594588415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>38.22382072462941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>10.03423870648036</v>
+        <v>10.82407088340224</v>
       </c>
       <c r="D11">
-        <v>4.405537456283435</v>
+        <v>4.076541066148933</v>
       </c>
       <c r="E11">
-        <v>42.79519200919811</v>
+        <v>30.65767715844024</v>
       </c>
       <c r="F11">
-        <v>52.94208879302392</v>
+        <v>46.96448989699505</v>
       </c>
       <c r="G11">
-        <v>1.893486820889241</v>
+        <v>2.00065032817585</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5.549214622276216</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>7.029317691865083</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="O11">
-        <v>42.98308054501092</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>37.79055071218036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>10.1847173358589</v>
+        <v>10.87503957719301</v>
       </c>
       <c r="D12">
-        <v>4.474688375272017</v>
+        <v>3.857576042029969</v>
       </c>
       <c r="E12">
-        <v>43.52102163603266</v>
+        <v>24.88102788296705</v>
       </c>
       <c r="F12">
-        <v>53.76424026308448</v>
+        <v>46.0184410691147</v>
       </c>
       <c r="G12">
-        <v>1.889105492216314</v>
+        <v>2.001280196690405</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6.17701751933075</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>7.009476105742086</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="O12">
-        <v>43.65494712297662</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>36.90120026367107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>10.15235728566892</v>
+        <v>10.7949262290139</v>
       </c>
       <c r="D13">
-        <v>4.459766678201969</v>
+        <v>3.631695501466822</v>
       </c>
       <c r="E13">
-        <v>43.36453006724026</v>
+        <v>19.24229153023874</v>
       </c>
       <c r="F13">
-        <v>53.58732306180877</v>
+        <v>44.44069365532981</v>
       </c>
       <c r="G13">
-        <v>1.890051523628956</v>
+        <v>2.00395750628627</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.021018117710518</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6.89604810793846</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="O13">
-        <v>43.51036305489854</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>35.52446488943027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>10.04664090760767</v>
+        <v>10.66864200744288</v>
       </c>
       <c r="D14">
-        <v>4.411214086743068</v>
+        <v>3.470685580023917</v>
       </c>
       <c r="E14">
-        <v>42.85483461058386</v>
+        <v>15.50558698937606</v>
       </c>
       <c r="F14">
-        <v>53.00979762996294</v>
+        <v>43.01851630686389</v>
       </c>
       <c r="G14">
-        <v>1.893127432517308</v>
+        <v>2.006726589462685</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.712311258236852</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>6.775688199375172</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="O14">
-        <v>43.03840979985009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>34.31241139739473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>9.981739493657434</v>
+        <v>10.5920178871874</v>
       </c>
       <c r="D15">
-        <v>4.38155248073646</v>
+        <v>3.426582299470423</v>
       </c>
       <c r="E15">
-        <v>42.54307111291945</v>
+        <v>14.62347944510887</v>
       </c>
       <c r="F15">
-        <v>52.65557508417979</v>
+        <v>42.51551001741466</v>
       </c>
       <c r="G15">
-        <v>1.895004744479585</v>
+        <v>2.007898120352806</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.869799584744705</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>6.724033919691894</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="O15">
-        <v>42.74895688946035</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>33.89466611742867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>9.607317257250788</v>
+        <v>10.2829555063126</v>
       </c>
       <c r="D16">
-        <v>4.212524288427283</v>
+        <v>3.392439376416532</v>
       </c>
       <c r="E16">
-        <v>40.76070945417882</v>
+        <v>14.37477431401568</v>
       </c>
       <c r="F16">
-        <v>50.61685106615555</v>
+        <v>41.2215012765549</v>
       </c>
       <c r="G16">
-        <v>1.905673702182806</v>
+        <v>2.012628830887834</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.56683931055055</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>6.510167923046185</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="O16">
-        <v>41.08322770608313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>32.90447232087976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>9.375146936129468</v>
+        <v>10.10802098715899</v>
       </c>
       <c r="D17">
-        <v>4.109433897317861</v>
+        <v>3.450618865115657</v>
       </c>
       <c r="E17">
-        <v>39.66859013412792</v>
+        <v>16.16228159127266</v>
       </c>
       <c r="F17">
-        <v>49.35671059608268</v>
+        <v>41.00332530621945</v>
       </c>
       <c r="G17">
-        <v>1.912153747652211</v>
+        <v>2.014835707360345</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.913567833241976</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>6.407951251451298</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="O17">
-        <v>40.05377207216916</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>32.80625383605572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>9.24060977806958</v>
+        <v>10.07305165105464</v>
       </c>
       <c r="D18">
-        <v>4.050272724799616</v>
+        <v>3.609012649217402</v>
       </c>
       <c r="E18">
-        <v>39.04002385820213</v>
+        <v>20.35875878294797</v>
       </c>
       <c r="F18">
-        <v>48.62786622554457</v>
+        <v>41.7405099096966</v>
       </c>
       <c r="G18">
-        <v>1.915862274713785</v>
+        <v>2.014908304142323</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.994844179086181</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>6.398562855670188</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="O18">
-        <v>39.45838109790938</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>33.50885729646295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>9.194878371208604</v>
+        <v>10.0839212530503</v>
       </c>
       <c r="D19">
-        <v>4.030257169072166</v>
+        <v>3.835130322577269</v>
       </c>
       <c r="E19">
-        <v>38.82705561681249</v>
+        <v>26.39936669572912</v>
       </c>
       <c r="F19">
-        <v>48.38034760006196</v>
+        <v>43.09892766243292</v>
       </c>
       <c r="G19">
-        <v>1.917115178097123</v>
+        <v>2.013136858902638</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5.209380155744994</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>6.470781480077717</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="O19">
-        <v>39.25618692918739</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>34.72034347366781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>9.399963341082</v>
+        <v>10.36520618000648</v>
       </c>
       <c r="D20">
-        <v>4.120392366086931</v>
+        <v>4.252189093148182</v>
       </c>
       <c r="E20">
-        <v>39.78487173226436</v>
+        <v>36.49563885008556</v>
       </c>
       <c r="F20">
-        <v>49.49126124394916</v>
+        <v>46.22636166496336</v>
       </c>
       <c r="G20">
-        <v>1.911465974627505</v>
+        <v>2.006016642451732</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5.157608927010958</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>6.777441575335483</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="O20">
-        <v>40.16368804537993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>37.38442577307631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>10.07772240750557</v>
+        <v>10.94420308652963</v>
       </c>
       <c r="D21">
-        <v>4.425458217347122</v>
+        <v>4.435664639024248</v>
       </c>
       <c r="E21">
-        <v>43.00444650173412</v>
+        <v>39.49134839564304</v>
       </c>
       <c r="F21">
-        <v>53.17952509502938</v>
+        <v>49.21600562823048</v>
       </c>
       <c r="G21">
-        <v>1.892225411586933</v>
+        <v>1.995797841059918</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.610482438131744</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>7.234388803081315</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="O21">
-        <v>43.17710716497027</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>39.75028067928151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>10.51384526539554</v>
+        <v>11.34944215106347</v>
       </c>
       <c r="D22">
-        <v>4.628093215750807</v>
+        <v>4.542838624321331</v>
       </c>
       <c r="E22">
-        <v>45.12582925276121</v>
+        <v>40.94815430251972</v>
       </c>
       <c r="F22">
-        <v>55.56731686474293</v>
+        <v>51.04969616751536</v>
       </c>
       <c r="G22">
-        <v>1.8793622175977</v>
+        <v>1.989309216370293</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5.882063809425533</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>7.524618175408181</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="O22">
-        <v>45.12872379132627</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>41.19789283359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>10.28158916261458</v>
+        <v>11.17981808908063</v>
       </c>
       <c r="D23">
-        <v>4.519527117774479</v>
+        <v>4.494974337108957</v>
       </c>
       <c r="E23">
-        <v>43.9908426937458</v>
+        <v>40.17882750557041</v>
       </c>
       <c r="F23">
-        <v>54.29423608391685</v>
+        <v>50.12478261583782</v>
       </c>
       <c r="G23">
-        <v>1.886260817272308</v>
+        <v>1.992690512950433</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.739230911733978</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>7.373114510876786</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="O23">
-        <v>44.08810414346221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>40.4720663612321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>9.388747165075605</v>
+        <v>10.43831969745228</v>
       </c>
       <c r="D24">
-        <v>4.115437730104973</v>
+        <v>4.292178138570913</v>
       </c>
       <c r="E24">
-        <v>39.73230318609077</v>
+        <v>37.15836285900285</v>
       </c>
       <c r="F24">
-        <v>49.43044465078054</v>
+        <v>46.42337124786754</v>
       </c>
       <c r="G24">
-        <v>1.911776968331437</v>
+        <v>2.005716427936235</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.18944433231596</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>6.78911635098875</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="O24">
-        <v>40.11400618476468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>37.56171177361467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>8.386775026256268</v>
+        <v>9.581340674824197</v>
       </c>
       <c r="D25">
-        <v>3.684087671026524</v>
+        <v>4.058788240930138</v>
       </c>
       <c r="E25">
-        <v>35.1171538281754</v>
+        <v>33.67753146162975</v>
       </c>
       <c r="F25">
-        <v>44.0252771598487</v>
+        <v>42.166662484189</v>
       </c>
       <c r="G25">
-        <v>1.93862685930325</v>
+        <v>2.020040806164892</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>4.581169806815248</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>6.145900380497185</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="O25">
-        <v>35.69849286049845</v>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>34.22010254219246</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_line/loading_percent.xlsx
@@ -426,984 +426,1272 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>9.029647283737622</v>
+        <v>8.501199226840065</v>
       </c>
       <c r="D2">
-        <v>3.898798292656095</v>
+        <v>6.430604035236323</v>
       </c>
       <c r="E2">
-        <v>30.92485815425406</v>
+        <v>8.530642458210655</v>
       </c>
       <c r="F2">
-        <v>38.9423558685209</v>
+        <v>20.49509946550911</v>
       </c>
       <c r="G2">
-        <v>2.030703605461498</v>
+        <v>21.90407058711693</v>
       </c>
       <c r="H2">
-        <v>4.121955501335489</v>
+        <v>2.622562893193343</v>
       </c>
       <c r="I2">
-        <v>5.666355342013106</v>
+        <v>2.928794990312244</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.247874616505587</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.01702211225056</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.10627394983986</v>
+      </c>
+      <c r="M2">
+        <v>20.60895370801686</v>
       </c>
       <c r="N2">
+        <v>5.728276751096904</v>
+      </c>
+      <c r="O2">
+        <v>16.23153693260308</v>
+      </c>
+      <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>31.70746127953079</v>
+        <v>14.86839939087382</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>8.553591023797409</v>
+        <v>8.180122176222412</v>
       </c>
       <c r="D3">
-        <v>3.769276748298901</v>
+        <v>6.208221592767055</v>
       </c>
       <c r="E3">
-        <v>28.92748209773278</v>
+        <v>8.393644252644302</v>
       </c>
       <c r="F3">
-        <v>36.5381356186442</v>
+        <v>20.46473409294257</v>
       </c>
       <c r="G3">
-        <v>2.038265113186497</v>
+        <v>21.95618572853061</v>
       </c>
       <c r="H3">
-        <v>3.796971853692866</v>
+        <v>2.81931826571479</v>
       </c>
       <c r="I3">
-        <v>5.325482493839116</v>
+        <v>3.095096823059417</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.337321657659608</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.03092914808011</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.080401768205352</v>
+      </c>
+      <c r="M3">
+        <v>19.31147604964342</v>
       </c>
       <c r="N3">
+        <v>5.724948470835762</v>
+      </c>
+      <c r="O3">
+        <v>15.33283978715231</v>
+      </c>
+      <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>29.82972981738495</v>
+        <v>14.99181535052249</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>8.243359066364116</v>
+        <v>7.972478426618289</v>
       </c>
       <c r="D4">
-        <v>3.685640502739095</v>
+        <v>6.068414859446085</v>
       </c>
       <c r="E4">
-        <v>27.63766409202675</v>
+        <v>8.307834828259828</v>
       </c>
       <c r="F4">
-        <v>34.9893285443197</v>
+        <v>20.45608821462127</v>
       </c>
       <c r="G4">
-        <v>2.043032112245916</v>
+        <v>22.00449085717793</v>
       </c>
       <c r="H4">
-        <v>3.591470319227692</v>
+        <v>2.944512764825346</v>
       </c>
       <c r="I4">
-        <v>5.110281783988809</v>
+        <v>3.201978565491949</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.395516143876076</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.04460625513139</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.063808166743324</v>
+      </c>
+      <c r="M4">
+        <v>18.46795438951001</v>
       </c>
       <c r="N4">
+        <v>5.723414928978398</v>
+      </c>
+      <c r="O4">
+        <v>14.75264461260407</v>
+      </c>
+      <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>28.62196334768605</v>
+        <v>15.07500058102008</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
-        <v>8.097563448855372</v>
+        <v>7.876573501254884</v>
       </c>
       <c r="D5">
-        <v>3.647856698129114</v>
+        <v>6.011174733760345</v>
       </c>
       <c r="E5">
-        <v>27.09505849528821</v>
+        <v>8.271281623020437</v>
       </c>
       <c r="F5">
-        <v>34.32367396703472</v>
+        <v>20.44904014362632</v>
       </c>
       <c r="G5">
-        <v>2.045028000724851</v>
+        <v>22.01833865188516</v>
       </c>
       <c r="H5">
-        <v>3.505691178334679</v>
+        <v>2.996991842940429</v>
       </c>
       <c r="I5">
-        <v>5.020023621185192</v>
+        <v>3.249569991705929</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.418511188597613</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.04580218084054</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.056379310901232</v>
+      </c>
+      <c r="M5">
+        <v>18.11253174661063</v>
       </c>
       <c r="N5">
+        <v>5.723458537166684</v>
+      </c>
+      <c r="O5">
+        <v>14.50842647018617</v>
+      </c>
+      <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>28.10185810059142</v>
+        <v>15.10681589783167</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>8.054894854030756</v>
+        <v>7.849836727272372</v>
       </c>
       <c r="D6">
-        <v>3.638241031887861</v>
+        <v>6.002216216398331</v>
       </c>
       <c r="E6">
-        <v>27.00280577371236</v>
+        <v>8.263744877795219</v>
       </c>
       <c r="F6">
-        <v>34.19194117315168</v>
+        <v>20.44071605280925</v>
       </c>
       <c r="G6">
-        <v>2.045386772685795</v>
+        <v>22.00894352041595</v>
       </c>
       <c r="H6">
-        <v>3.490759089665126</v>
+        <v>3.006193763026728</v>
       </c>
       <c r="I6">
-        <v>5.003807701770328</v>
+        <v>3.261176860711781</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.420514035689708</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.03918782060245</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.05453958299038</v>
+      </c>
+      <c r="M6">
+        <v>18.0528956812473</v>
       </c>
       <c r="N6">
+        <v>5.724141243246623</v>
+      </c>
+      <c r="O6">
+        <v>14.46650084964221</v>
+      </c>
+      <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>27.99712235024058</v>
+        <v>15.10746385914737</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <v>8.192512698642787</v>
+        <v>7.942428238305594</v>
       </c>
       <c r="D7">
-        <v>3.676258583023045</v>
+        <v>6.069235823566296</v>
       </c>
       <c r="E7">
-        <v>27.62720451218395</v>
+        <v>8.303434390055331</v>
       </c>
       <c r="F7">
-        <v>34.92659722817092</v>
+        <v>20.43608297041165</v>
       </c>
       <c r="G7">
-        <v>2.043127776334412</v>
+        <v>21.9720873301814</v>
       </c>
       <c r="H7">
-        <v>3.588705532358702</v>
+        <v>2.946343298905256</v>
       </c>
       <c r="I7">
-        <v>5.105811914159265</v>
+        <v>3.212241443194001</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.390737972558037</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.02581665671088</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.062100250556682</v>
+      </c>
+      <c r="M7">
+        <v>18.46345208367738</v>
       </c>
       <c r="N7">
+        <v>5.725232684479383</v>
+      </c>
+      <c r="O7">
+        <v>14.74681487387314</v>
+      </c>
+      <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>28.56797308220851</v>
+        <v>15.06246981511469</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
-        <v>8.808058976712541</v>
+        <v>8.356288259193867</v>
       </c>
       <c r="D8">
-        <v>3.843651295724678</v>
+        <v>6.356661511143678</v>
       </c>
       <c r="E8">
-        <v>30.24512517459959</v>
+        <v>8.478743669875104</v>
       </c>
       <c r="F8">
-        <v>38.06205732032774</v>
+        <v>20.45636917551751</v>
       </c>
       <c r="G8">
-        <v>2.033375488003624</v>
+        <v>21.87550657975025</v>
       </c>
       <c r="H8">
-        <v>4.008996549170247</v>
+        <v>2.69090972640535</v>
       </c>
       <c r="I8">
-        <v>5.545568787504627</v>
+        <v>2.997531957986274</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.271312697517846</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.99594127732931</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.095446648826665</v>
+      </c>
+      <c r="M8">
+        <v>20.17163005682474</v>
       </c>
       <c r="N8">
+        <v>5.729414320097788</v>
+      </c>
+      <c r="O8">
+        <v>15.92442724109204</v>
+      </c>
+      <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>31.01323846709278</v>
+        <v>14.8922256652851</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>9.953295597102613</v>
+        <v>9.130141193612564</v>
       </c>
       <c r="D9">
-        <v>4.153856042207163</v>
+        <v>6.888944339740616</v>
       </c>
       <c r="E9">
-        <v>34.8860077328054</v>
+        <v>8.814972974788619</v>
       </c>
       <c r="F9">
-        <v>43.71712881552599</v>
+        <v>20.6138447089767</v>
       </c>
       <c r="G9">
-        <v>2.015052941297847</v>
+        <v>21.88191335577258</v>
       </c>
       <c r="H9">
-        <v>4.791193917728951</v>
+        <v>2.222281004370301</v>
       </c>
       <c r="I9">
-        <v>6.370099573519605</v>
+        <v>2.598102171182077</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.073056420951325</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.01319380815884</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.158023738442141</v>
+      </c>
+      <c r="M9">
+        <v>23.14864465168251</v>
       </c>
       <c r="N9">
+        <v>5.73857379557584</v>
+      </c>
+      <c r="O9">
+        <v>18.00818036003061</v>
+      </c>
+      <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>35.44413074453819</v>
+        <v>14.64354763282008</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
-        <v>10.67549542967558</v>
+        <v>9.582950973525834</v>
       </c>
       <c r="D10">
-        <v>4.320748006532021</v>
+        <v>7.224614761573256</v>
       </c>
       <c r="E10">
-        <v>37.12005084240776</v>
+        <v>8.974699479828383</v>
       </c>
       <c r="F10">
-        <v>47.28454370959189</v>
+        <v>20.66143902839337</v>
       </c>
       <c r="G10">
-        <v>2.002532611605643</v>
+        <v>21.81235790864888</v>
       </c>
       <c r="H10">
-        <v>5.296458054193623</v>
+        <v>1.926535888904202</v>
       </c>
       <c r="I10">
-        <v>6.933339187879533</v>
+        <v>2.627884065923687</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.918448735280315</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.97312956909272</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.18219456782492</v>
+      </c>
+      <c r="M10">
+        <v>25.12100249899745</v>
       </c>
       <c r="N10">
+        <v>5.722987995478611</v>
+      </c>
+      <c r="O10">
+        <v>19.34106895172555</v>
+      </c>
+      <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>38.22382072462941</v>
+        <v>14.43483419090296</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>10.82407088340224</v>
+        <v>9.331688123453791</v>
       </c>
       <c r="D11">
-        <v>4.076541066148933</v>
+        <v>7.069299106420038</v>
       </c>
       <c r="E11">
-        <v>30.65767715844024</v>
+        <v>8.427788733529894</v>
       </c>
       <c r="F11">
-        <v>46.96448989699505</v>
+        <v>19.69065002054961</v>
       </c>
       <c r="G11">
-        <v>2.00065032817585</v>
+        <v>20.42834124699267</v>
       </c>
       <c r="H11">
-        <v>5.549214622276216</v>
+        <v>2.863623267347707</v>
       </c>
       <c r="I11">
-        <v>7.029317691865083</v>
+        <v>2.713979073052054</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.636486617014501</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.31658220900114</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.075679657901845</v>
+      </c>
+      <c r="M11">
+        <v>26.07046313982496</v>
       </c>
       <c r="N11">
+        <v>5.536293245685133</v>
+      </c>
+      <c r="O11">
+        <v>19.45976662907556</v>
+      </c>
+      <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>37.79055071218036</v>
+        <v>13.79522958374848</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>10.87503957719301</v>
+        <v>9.064508345139471</v>
       </c>
       <c r="D12">
-        <v>3.857576042029969</v>
+        <v>6.862359874316716</v>
       </c>
       <c r="E12">
-        <v>24.88102788296705</v>
+        <v>7.999500551825188</v>
       </c>
       <c r="F12">
-        <v>46.0184410691147</v>
+        <v>18.88508982646224</v>
       </c>
       <c r="G12">
-        <v>2.001280196690405</v>
+        <v>19.31539423436984</v>
       </c>
       <c r="H12">
-        <v>6.17701751933075</v>
+        <v>4.214251490404139</v>
       </c>
       <c r="I12">
-        <v>7.009476105742086</v>
+        <v>2.729794645057411</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.439854333163812</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.80026916745938</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.035766157476717</v>
+      </c>
+      <c r="M12">
+        <v>26.47282232332044</v>
       </c>
       <c r="N12">
+        <v>5.441419002442141</v>
+      </c>
+      <c r="O12">
+        <v>19.28309812594548</v>
+      </c>
+      <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>36.90120026367107</v>
+        <v>13.32034726480799</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
-        <v>10.7949262290139</v>
+        <v>8.726445418534414</v>
       </c>
       <c r="D13">
-        <v>3.631695501466822</v>
+        <v>6.601234117384938</v>
       </c>
       <c r="E13">
-        <v>19.24229153023874</v>
+        <v>7.639271565304044</v>
       </c>
       <c r="F13">
-        <v>44.44069365532981</v>
+        <v>18.12818810099381</v>
       </c>
       <c r="G13">
-        <v>2.00395750628627</v>
+        <v>18.29565346334781</v>
       </c>
       <c r="H13">
-        <v>7.021018117710518</v>
+        <v>5.624922054687739</v>
       </c>
       <c r="I13">
-        <v>6.89604810793846</v>
+        <v>2.697545610498308</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.29031656269574</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.33352114767031</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.0413645449615</v>
+      </c>
+      <c r="M13">
+        <v>26.49211817619613</v>
       </c>
       <c r="N13">
+        <v>5.415681281581162</v>
+      </c>
+      <c r="O13">
+        <v>18.86036131317035</v>
+      </c>
+      <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>35.52446488943027</v>
+        <v>12.92655126360087</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
-        <v>10.66864200744288</v>
+        <v>8.449043423892583</v>
       </c>
       <c r="D14">
-        <v>3.470685580023917</v>
+        <v>6.392256515505183</v>
       </c>
       <c r="E14">
-        <v>15.50558698937606</v>
+        <v>7.433728429206036</v>
       </c>
       <c r="F14">
-        <v>43.01851630686389</v>
+        <v>17.62193987148107</v>
       </c>
       <c r="G14">
-        <v>2.006726589462685</v>
+        <v>17.62795677369365</v>
       </c>
       <c r="H14">
-        <v>7.712311258236852</v>
+        <v>6.629036587470565</v>
       </c>
       <c r="I14">
-        <v>6.775688199375172</v>
+        <v>2.65454675566798</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.207749624732001</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.02945122919758</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.071984234408943</v>
+      </c>
+      <c r="M14">
+        <v>26.3328321056877</v>
       </c>
       <c r="N14">
+        <v>5.437080190582862</v>
+      </c>
+      <c r="O14">
+        <v>18.44632703229167</v>
+      </c>
+      <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>34.31241139739473</v>
+        <v>12.6901615343868</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
-        <v>10.5920178871874</v>
+        <v>8.356994027239608</v>
       </c>
       <c r="D15">
-        <v>3.426582299470423</v>
+        <v>6.330412123123056</v>
       </c>
       <c r="E15">
-        <v>14.62347944510887</v>
+        <v>7.389502603177639</v>
       </c>
       <c r="F15">
-        <v>42.51551001741466</v>
+        <v>17.50488801998056</v>
       </c>
       <c r="G15">
-        <v>2.007898120352806</v>
+        <v>17.47864947714776</v>
       </c>
       <c r="H15">
-        <v>7.869799584744705</v>
+        <v>6.863578865516732</v>
       </c>
       <c r="I15">
-        <v>6.724033919691894</v>
+        <v>2.635092186278524</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.196358080499234</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.96093679697455</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.081935020872595</v>
+      </c>
+      <c r="M15">
+        <v>26.21134473216977</v>
       </c>
       <c r="N15">
+        <v>5.447608176119619</v>
+      </c>
+      <c r="O15">
+        <v>18.29130079811295</v>
+      </c>
+      <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33.89466611742867</v>
+        <v>12.64679142784887</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
-        <v>10.2829555063126</v>
+        <v>8.206097303741675</v>
       </c>
       <c r="D16">
-        <v>3.392439376416532</v>
+        <v>6.232004488944853</v>
       </c>
       <c r="E16">
-        <v>14.37477431401568</v>
+        <v>7.388917415153083</v>
       </c>
       <c r="F16">
-        <v>41.2215012765549</v>
+        <v>17.62695276997772</v>
       </c>
       <c r="G16">
-        <v>2.012628830887834</v>
+        <v>17.70072918618606</v>
       </c>
       <c r="H16">
-        <v>7.56683931055055</v>
+        <v>6.670546313792237</v>
       </c>
       <c r="I16">
-        <v>6.510167923046185</v>
+        <v>2.532056240066679</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.291968151718184</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.06524397751909</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.065949496860709</v>
+      </c>
+      <c r="M16">
+        <v>25.40715826956387</v>
       </c>
       <c r="N16">
+        <v>5.455626922990456</v>
+      </c>
+      <c r="O16">
+        <v>17.79824176220314</v>
+      </c>
+      <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>32.90447232087976</v>
+        <v>12.8145291676394</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
-        <v>10.10802098715899</v>
+        <v>8.239245741378879</v>
       </c>
       <c r="D17">
-        <v>3.450618865115657</v>
+        <v>6.270434614249747</v>
       </c>
       <c r="E17">
-        <v>16.16228159127266</v>
+        <v>7.48887382670179</v>
       </c>
       <c r="F17">
-        <v>41.00332530621945</v>
+        <v>17.98661625016972</v>
       </c>
       <c r="G17">
-        <v>2.014835707360345</v>
+        <v>18.21861687804783</v>
       </c>
       <c r="H17">
-        <v>6.913567833241976</v>
+        <v>5.960083068361119</v>
       </c>
       <c r="I17">
-        <v>6.407951251451298</v>
+        <v>2.541614883001608</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.408017142928971</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.3037411684609</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.033404026872322</v>
+      </c>
+      <c r="M17">
+        <v>24.86474940682639</v>
       </c>
       <c r="N17">
+        <v>5.446084915939364</v>
+      </c>
+      <c r="O17">
+        <v>17.64382215209834</v>
+      </c>
+      <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>32.80625383605572</v>
+        <v>13.06515550679677</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
-        <v>10.07305165105464</v>
+        <v>8.458266491983787</v>
       </c>
       <c r="D18">
-        <v>3.609012649217402</v>
+        <v>6.429934067307114</v>
       </c>
       <c r="E18">
-        <v>20.35875878294797</v>
+        <v>7.733905996372838</v>
       </c>
       <c r="F18">
-        <v>41.7405099096966</v>
+        <v>18.60909920142635</v>
       </c>
       <c r="G18">
-        <v>2.014908304142323</v>
+        <v>19.07882026349394</v>
       </c>
       <c r="H18">
-        <v>5.994844179086181</v>
+        <v>4.757187157119036</v>
       </c>
       <c r="I18">
-        <v>6.398562855670188</v>
+        <v>2.553849601847818</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.560032384354651</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.70252477807983</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.009003718804025</v>
+      </c>
+      <c r="M18">
+        <v>24.49792472640265</v>
       </c>
       <c r="N18">
+        <v>5.452971099579717</v>
+      </c>
+      <c r="O18">
+        <v>17.76976240459717</v>
+      </c>
+      <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>33.50885729646295</v>
+        <v>13.42890575516685</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
-        <v>10.0839212530503</v>
+        <v>8.768715972497317</v>
       </c>
       <c r="D19">
-        <v>3.835130322577269</v>
+        <v>6.675483920032424</v>
       </c>
       <c r="E19">
-        <v>26.39936669572912</v>
+        <v>8.133868257762254</v>
       </c>
       <c r="F19">
-        <v>43.09892766243292</v>
+        <v>19.37711383098233</v>
       </c>
       <c r="G19">
-        <v>2.013136858902638</v>
+        <v>20.11874458564882</v>
       </c>
       <c r="H19">
-        <v>5.209380155744994</v>
+        <v>3.366245423672114</v>
       </c>
       <c r="I19">
-        <v>6.470781480077717</v>
+        <v>2.545418073908018</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.726200286373588</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.18165487309216</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.031174221463603</v>
+      </c>
+      <c r="M19">
+        <v>24.30636245970064</v>
       </c>
       <c r="N19">
+        <v>5.518754794672608</v>
+      </c>
+      <c r="O19">
+        <v>18.10249984640044</v>
+      </c>
+      <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>34.72034347366781</v>
+        <v>13.84755394616089</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
-        <v>10.36520618000648</v>
+        <v>9.389118127390821</v>
       </c>
       <c r="D20">
-        <v>4.252189093148182</v>
+        <v>7.140489437410833</v>
       </c>
       <c r="E20">
-        <v>36.49563885008556</v>
+        <v>8.918993358712799</v>
       </c>
       <c r="F20">
-        <v>46.22636166496336</v>
+        <v>20.58024717419355</v>
       </c>
       <c r="G20">
-        <v>2.006016642451732</v>
+        <v>21.71733552991653</v>
       </c>
       <c r="H20">
-        <v>5.157608927010958</v>
+        <v>2.005128517308779</v>
       </c>
       <c r="I20">
-        <v>6.777441575335483</v>
+        <v>2.572005117850592</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.941039518597597</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.92118280178676</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.17086676200342</v>
+      </c>
+      <c r="M20">
+        <v>24.61959782706275</v>
       </c>
       <c r="N20">
+        <v>5.731165906404186</v>
+      </c>
+      <c r="O20">
+        <v>18.99154096701375</v>
+      </c>
+      <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>37.38442577307631</v>
+        <v>14.44365585362492</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
-        <v>10.94420308652963</v>
+        <v>9.811876697424184</v>
       </c>
       <c r="D21">
-        <v>4.435664639024248</v>
+        <v>7.444604623697358</v>
       </c>
       <c r="E21">
-        <v>39.49134839564304</v>
+        <v>9.158289518294087</v>
       </c>
       <c r="F21">
-        <v>49.21600562823048</v>
+        <v>20.82304943587271</v>
       </c>
       <c r="G21">
-        <v>1.995797841059918</v>
+        <v>21.95633835288695</v>
       </c>
       <c r="H21">
-        <v>5.610482438131744</v>
+        <v>1.741624945178662</v>
       </c>
       <c r="I21">
-        <v>7.234388803081315</v>
+        <v>2.773383337813417</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.869126292208893</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>16.02320360106275</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.217000254011166</v>
+      </c>
+      <c r="M21">
+        <v>26.04337715976228</v>
       </c>
       <c r="N21">
+        <v>5.759363413884409</v>
+      </c>
+      <c r="O21">
+        <v>20.05146248620202</v>
+      </c>
+      <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>39.75028067928151</v>
+        <v>14.40282631589889</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
-        <v>11.34944215106347</v>
+        <v>10.08256874363786</v>
       </c>
       <c r="D22">
-        <v>4.542838624321331</v>
+        <v>7.619031689819493</v>
       </c>
       <c r="E22">
-        <v>40.94815430251972</v>
+        <v>9.278234076476641</v>
       </c>
       <c r="F22">
-        <v>51.04969616751536</v>
+        <v>20.95966588212994</v>
       </c>
       <c r="G22">
-        <v>1.989309216370293</v>
+        <v>22.0957052289709</v>
       </c>
       <c r="H22">
-        <v>5.882063809425533</v>
+        <v>1.584755533911224</v>
       </c>
       <c r="I22">
-        <v>7.524618175408181</v>
+        <v>2.896000213718523</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.820158898209089</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.08289305236029</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.239300974763943</v>
+      </c>
+      <c r="M22">
+        <v>26.93892063593882</v>
       </c>
       <c r="N22">
+        <v>5.762581457201292</v>
+      </c>
+      <c r="O22">
+        <v>20.69265891070629</v>
+      </c>
+      <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>41.19789283359</v>
+        <v>14.37072394700034</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
-        <v>11.17981808908063</v>
+        <v>9.966764099154576</v>
       </c>
       <c r="D23">
-        <v>4.494974337108957</v>
+        <v>7.524817191453706</v>
       </c>
       <c r="E23">
-        <v>40.17882750557041</v>
+        <v>9.218459804656955</v>
       </c>
       <c r="F23">
-        <v>50.12478261583782</v>
+        <v>20.90818116407523</v>
       </c>
       <c r="G23">
-        <v>1.992690512950433</v>
+        <v>22.05685765476092</v>
       </c>
       <c r="H23">
-        <v>5.739230911733978</v>
+        <v>1.667128970749412</v>
       </c>
       <c r="I23">
-        <v>7.373114510876786</v>
+        <v>2.826272046124167</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.851943029861669</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.07213677496859</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.229093470021637</v>
+      </c>
+      <c r="M23">
+        <v>26.46445879440865</v>
       </c>
       <c r="N23">
+        <v>5.758665654285307</v>
+      </c>
+      <c r="O23">
+        <v>20.35528280598854</v>
+      </c>
+      <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>40.4720663612321</v>
+        <v>14.40230052744073</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
-        <v>10.43831969745228</v>
+        <v>9.464553229013729</v>
       </c>
       <c r="D24">
-        <v>4.292178138570913</v>
+        <v>7.161290618632051</v>
       </c>
       <c r="E24">
-        <v>37.15836285900285</v>
+        <v>8.981757442026311</v>
       </c>
       <c r="F24">
-        <v>46.42337124786754</v>
+        <v>20.70075074697931</v>
       </c>
       <c r="G24">
-        <v>2.005716427936235</v>
+        <v>21.89317109553282</v>
       </c>
       <c r="H24">
-        <v>5.18944433231596</v>
+        <v>1.987326897086322</v>
       </c>
       <c r="I24">
-        <v>6.78911635098875</v>
+        <v>2.5641228226496</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.970506128574602</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.00961876418919</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.186784093946128</v>
+      </c>
+      <c r="M24">
+        <v>24.58590112602495</v>
       </c>
       <c r="N24">
+        <v>5.748274910049454</v>
+      </c>
+      <c r="O24">
+        <v>19.01987635392243</v>
+      </c>
+      <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>37.56171177361467</v>
+        <v>14.51690369307594</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
-        <v>9.581340674824197</v>
+        <v>8.883665960978581</v>
       </c>
       <c r="D25">
-        <v>4.058788240930138</v>
+        <v>6.750973795096617</v>
       </c>
       <c r="E25">
-        <v>33.67753146162975</v>
+        <v>8.719057965737354</v>
       </c>
       <c r="F25">
-        <v>42.166662484189</v>
+        <v>20.52671208459082</v>
       </c>
       <c r="G25">
-        <v>2.020040806164892</v>
+        <v>21.80584198029668</v>
       </c>
       <c r="H25">
-        <v>4.581169806815248</v>
+        <v>2.347283899298322</v>
       </c>
       <c r="I25">
-        <v>6.145900380497185</v>
+        <v>2.720457557607673</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.114521270350657</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.97014143718892</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.139002068753432</v>
+      </c>
+      <c r="M25">
+        <v>22.38353096717352</v>
       </c>
       <c r="N25">
+        <v>5.738906476359224</v>
+      </c>
+      <c r="O25">
+        <v>17.46553663458704</v>
+      </c>
+      <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>34.22010254219246</v>
+        <v>14.68027338136767</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.501199226840065</v>
+        <v>7.501140538456062</v>
       </c>
       <c r="D2">
-        <v>6.430604035236323</v>
+        <v>6.478511811377059</v>
       </c>
       <c r="E2">
-        <v>8.530642458210655</v>
+        <v>8.414478602684634</v>
       </c>
       <c r="F2">
-        <v>20.49509946550911</v>
+        <v>19.85828470824183</v>
       </c>
       <c r="G2">
-        <v>21.90407058711693</v>
+        <v>20.38235889307856</v>
       </c>
       <c r="H2">
-        <v>2.622562893193343</v>
+        <v>2.53699942043792</v>
       </c>
       <c r="I2">
-        <v>2.928794990312244</v>
+        <v>2.803025025437289</v>
       </c>
       <c r="J2">
-        <v>9.247874616505587</v>
+        <v>9.343396290575923</v>
       </c>
       <c r="K2">
-        <v>16.01702211225056</v>
+        <v>15.29817673973112</v>
       </c>
       <c r="L2">
-        <v>6.10627394983986</v>
+        <v>12.78105094861154</v>
       </c>
       <c r="M2">
-        <v>20.60895370801686</v>
+        <v>9.874273820048513</v>
       </c>
       <c r="N2">
-        <v>5.728276751096904</v>
+        <v>6.032201904759373</v>
       </c>
       <c r="O2">
-        <v>16.23153693260308</v>
+        <v>20.65048108518587</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>5.928695811473297</v>
       </c>
       <c r="Q2">
-        <v>14.86839939087382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.1514090045981</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.40389712249381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.180122176222412</v>
+        <v>7.237220625389715</v>
       </c>
       <c r="D3">
-        <v>6.208221592767055</v>
+        <v>6.254582042280836</v>
       </c>
       <c r="E3">
-        <v>8.393644252644302</v>
+        <v>8.291622354077569</v>
       </c>
       <c r="F3">
-        <v>20.46473409294257</v>
+        <v>19.87576267714463</v>
       </c>
       <c r="G3">
-        <v>21.95618572853061</v>
+        <v>20.56185123455652</v>
       </c>
       <c r="H3">
-        <v>2.81931826571479</v>
+        <v>2.718953270857466</v>
       </c>
       <c r="I3">
-        <v>3.095096823059417</v>
+        <v>2.949081628175367</v>
       </c>
       <c r="J3">
-        <v>9.337321657659608</v>
+        <v>9.405103848631144</v>
       </c>
       <c r="K3">
-        <v>16.03092914808011</v>
+        <v>15.35011064934925</v>
       </c>
       <c r="L3">
-        <v>6.080401768205352</v>
+        <v>12.90612979875958</v>
       </c>
       <c r="M3">
-        <v>19.31147604964342</v>
+        <v>9.845243257187848</v>
       </c>
       <c r="N3">
-        <v>5.724948470835762</v>
+        <v>6.009585632251204</v>
       </c>
       <c r="O3">
-        <v>15.33283978715231</v>
+        <v>19.35762329280276</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5.931154158411672</v>
       </c>
       <c r="Q3">
-        <v>14.99181535052249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.25524140795361</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.55370681508357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.972478426618289</v>
+        <v>7.064843908972161</v>
       </c>
       <c r="D4">
-        <v>6.068414859446085</v>
+        <v>6.113927295768909</v>
       </c>
       <c r="E4">
-        <v>8.307834828259828</v>
+        <v>8.214604396230124</v>
       </c>
       <c r="F4">
-        <v>20.45608821462127</v>
+        <v>19.89506304013976</v>
       </c>
       <c r="G4">
-        <v>22.00449085717793</v>
+        <v>20.68908867613371</v>
       </c>
       <c r="H4">
-        <v>2.944512764825346</v>
+        <v>2.834770025997248</v>
       </c>
       <c r="I4">
-        <v>3.201978565491949</v>
+        <v>3.043320869284133</v>
       </c>
       <c r="J4">
-        <v>9.395516143876076</v>
+        <v>9.444659964965558</v>
       </c>
       <c r="K4">
-        <v>16.04460625513139</v>
+        <v>15.38559303011576</v>
       </c>
       <c r="L4">
-        <v>6.063808166743324</v>
+        <v>12.98363761086999</v>
       </c>
       <c r="M4">
-        <v>18.46795438951001</v>
+        <v>9.847474894558703</v>
       </c>
       <c r="N4">
-        <v>5.723414928978398</v>
+        <v>5.995008017844533</v>
       </c>
       <c r="O4">
-        <v>14.75264461260407</v>
+        <v>18.51728598349509</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.933614523411259</v>
       </c>
       <c r="Q4">
-        <v>15.07500058102008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.6761815911368</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.65181890630605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.876573501254884</v>
+        <v>6.983433706776919</v>
       </c>
       <c r="D5">
-        <v>6.011174733760345</v>
+        <v>6.05636843892008</v>
       </c>
       <c r="E5">
-        <v>8.271281623020437</v>
+        <v>8.181695640824321</v>
       </c>
       <c r="F5">
-        <v>20.44904014362632</v>
+        <v>19.89922495783412</v>
       </c>
       <c r="G5">
-        <v>22.01833865188516</v>
+        <v>20.73558537498651</v>
       </c>
       <c r="H5">
-        <v>2.996991842940429</v>
+        <v>2.883336630059948</v>
       </c>
       <c r="I5">
-        <v>3.249569991705929</v>
+        <v>3.086189781949615</v>
       </c>
       <c r="J5">
-        <v>9.418511188597613</v>
+        <v>9.459678019589457</v>
       </c>
       <c r="K5">
-        <v>16.04580218084054</v>
+        <v>15.39554544391558</v>
       </c>
       <c r="L5">
-        <v>6.056379310901232</v>
+        <v>13.01041176664978</v>
       </c>
       <c r="M5">
-        <v>18.11253174661063</v>
+        <v>9.850295275522173</v>
       </c>
       <c r="N5">
-        <v>5.723458537166684</v>
+        <v>5.988440326282582</v>
       </c>
       <c r="O5">
-        <v>14.50842647018617</v>
+        <v>18.1632628023363</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>5.935428812650484</v>
       </c>
       <c r="Q5">
-        <v>15.10681589783167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.43231894919174</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.68957795642133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.849836727272372</v>
+        <v>6.95926764927816</v>
       </c>
       <c r="D6">
-        <v>6.002216216398331</v>
+        <v>6.04735542802893</v>
       </c>
       <c r="E6">
-        <v>8.263744877795219</v>
+        <v>8.174812487193851</v>
       </c>
       <c r="F6">
-        <v>20.44071605280925</v>
+        <v>19.89296466943809</v>
       </c>
       <c r="G6">
-        <v>22.00894352041595</v>
+        <v>20.73205498484097</v>
       </c>
       <c r="H6">
-        <v>3.006193763026728</v>
+        <v>2.891864289976906</v>
       </c>
       <c r="I6">
-        <v>3.261176860711781</v>
+        <v>3.097649496464611</v>
       </c>
       <c r="J6">
-        <v>9.420514035689708</v>
+        <v>9.460345262003225</v>
       </c>
       <c r="K6">
-        <v>16.03918782060245</v>
+        <v>15.39067391703276</v>
       </c>
       <c r="L6">
-        <v>6.05453958299038</v>
+        <v>13.00877773499617</v>
       </c>
       <c r="M6">
-        <v>18.0528956812473</v>
+        <v>9.847254872193103</v>
       </c>
       <c r="N6">
-        <v>5.724141243246623</v>
+        <v>5.986787604094418</v>
       </c>
       <c r="O6">
-        <v>14.46650084964221</v>
+        <v>18.10386795256438</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>5.936453141925034</v>
       </c>
       <c r="Q6">
-        <v>15.10746385914737</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.39045332660494</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.69140167246061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.942428238305594</v>
+        <v>7.039113061289767</v>
       </c>
       <c r="D7">
-        <v>6.069235823566296</v>
+        <v>6.117916109529307</v>
       </c>
       <c r="E7">
-        <v>8.303434390055331</v>
+        <v>8.211015191392795</v>
       </c>
       <c r="F7">
-        <v>20.43608297041165</v>
+        <v>19.86516462925742</v>
       </c>
       <c r="G7">
-        <v>21.9720873301814</v>
+        <v>20.71737664646421</v>
       </c>
       <c r="H7">
-        <v>2.946343298905256</v>
+        <v>2.836970465227448</v>
       </c>
       <c r="I7">
-        <v>3.212241443194001</v>
+        <v>3.055672661836332</v>
       </c>
       <c r="J7">
-        <v>9.390737972558037</v>
+        <v>9.413662958669931</v>
       </c>
       <c r="K7">
-        <v>16.02581665671088</v>
+        <v>15.3611047518869</v>
       </c>
       <c r="L7">
-        <v>6.062100250556682</v>
+        <v>12.96174464001803</v>
       </c>
       <c r="M7">
-        <v>18.46345208367738</v>
+        <v>9.832540095326257</v>
       </c>
       <c r="N7">
-        <v>5.725232684479383</v>
+        <v>5.993113578046601</v>
       </c>
       <c r="O7">
-        <v>14.74681487387314</v>
+        <v>18.51231907139344</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>5.935353866808625</v>
       </c>
       <c r="Q7">
-        <v>15.06246981511469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.67129958689706</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.63253414927234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.356288259193867</v>
+        <v>7.388296885221789</v>
       </c>
       <c r="D8">
-        <v>6.356661511143678</v>
+        <v>6.414178882719263</v>
       </c>
       <c r="E8">
-        <v>8.478743669875104</v>
+        <v>8.369756712090195</v>
       </c>
       <c r="F8">
-        <v>20.45636917551751</v>
+        <v>19.80211061739606</v>
       </c>
       <c r="G8">
-        <v>21.87550657975025</v>
+        <v>20.59867553555971</v>
       </c>
       <c r="H8">
-        <v>2.69090972640535</v>
+        <v>2.601686913499052</v>
       </c>
       <c r="I8">
-        <v>2.997531957986274</v>
+        <v>2.868424964910942</v>
       </c>
       <c r="J8">
-        <v>9.271312697517846</v>
+        <v>9.272706867955836</v>
       </c>
       <c r="K8">
-        <v>15.99594127732931</v>
+        <v>15.26986433925667</v>
       </c>
       <c r="L8">
-        <v>6.095446648826665</v>
+        <v>12.78589095743644</v>
       </c>
       <c r="M8">
-        <v>20.17163005682474</v>
+        <v>9.828827193136721</v>
       </c>
       <c r="N8">
-        <v>5.729414320097788</v>
+        <v>6.021678911889721</v>
       </c>
       <c r="O8">
-        <v>15.92442724109204</v>
+        <v>20.21322945414445</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>5.931231133492113</v>
       </c>
       <c r="Q8">
-        <v>14.8922256652851</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.84807672658296</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.41339631566471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.130141193612564</v>
+        <v>8.02370327993129</v>
       </c>
       <c r="D9">
-        <v>6.888944339740616</v>
+        <v>6.952654115205858</v>
       </c>
       <c r="E9">
-        <v>8.814972974788619</v>
+        <v>8.67192642802622</v>
       </c>
       <c r="F9">
-        <v>20.6138447089767</v>
+        <v>19.82261467551525</v>
       </c>
       <c r="G9">
-        <v>21.88191335577258</v>
+        <v>20.35088160378924</v>
       </c>
       <c r="H9">
-        <v>2.222281004370301</v>
+        <v>2.168733656340388</v>
       </c>
       <c r="I9">
-        <v>2.598102171182077</v>
+        <v>2.516827947540752</v>
       </c>
       <c r="J9">
-        <v>9.073056420951325</v>
+        <v>9.110161251057864</v>
       </c>
       <c r="K9">
-        <v>16.01319380815884</v>
+        <v>15.17677901107527</v>
       </c>
       <c r="L9">
-        <v>6.158023738442141</v>
+        <v>12.49441181171144</v>
       </c>
       <c r="M9">
-        <v>23.14864465168251</v>
+        <v>10.01797348018633</v>
       </c>
       <c r="N9">
-        <v>5.73857379557584</v>
+        <v>6.075942774299131</v>
       </c>
       <c r="O9">
-        <v>18.00818036003061</v>
+        <v>23.18004781511152</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>5.928176653697395</v>
       </c>
       <c r="Q9">
-        <v>14.64354763282008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>17.92376178661379</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.08361872990973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.582950973525834</v>
+        <v>8.408689627804158</v>
       </c>
       <c r="D10">
-        <v>7.224614761573256</v>
+        <v>7.308245364957516</v>
       </c>
       <c r="E10">
-        <v>8.974699479828383</v>
+        <v>8.814268845174654</v>
       </c>
       <c r="F10">
-        <v>20.66143902839337</v>
+        <v>19.71456782295509</v>
       </c>
       <c r="G10">
-        <v>21.81235790864888</v>
+        <v>20.48053996045923</v>
       </c>
       <c r="H10">
-        <v>1.926535888904202</v>
+        <v>1.89966647875669</v>
       </c>
       <c r="I10">
-        <v>2.627884065923687</v>
+        <v>2.681894881011643</v>
       </c>
       <c r="J10">
-        <v>8.918448735280315</v>
+        <v>8.837286273531443</v>
       </c>
       <c r="K10">
-        <v>15.97312956909272</v>
+        <v>15.0221747452241</v>
       </c>
       <c r="L10">
-        <v>6.18219456782492</v>
+        <v>12.20882101863343</v>
       </c>
       <c r="M10">
-        <v>25.12100249899745</v>
+        <v>10.16254633872309</v>
       </c>
       <c r="N10">
-        <v>5.722987995478611</v>
+        <v>6.095592103142251</v>
       </c>
       <c r="O10">
-        <v>19.34106895172555</v>
+        <v>25.14377947629059</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>5.901080687608054</v>
       </c>
       <c r="Q10">
-        <v>14.43483419090296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.2539437701621</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.77363380633242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.331688123453791</v>
+        <v>8.258826727582031</v>
       </c>
       <c r="D11">
-        <v>7.069299106420038</v>
+        <v>7.182515976864782</v>
       </c>
       <c r="E11">
-        <v>8.427788733529894</v>
+        <v>8.290412522649229</v>
       </c>
       <c r="F11">
-        <v>19.69065002054961</v>
+        <v>18.67387130387903</v>
       </c>
       <c r="G11">
-        <v>20.42834124699267</v>
+        <v>19.92186727369836</v>
       </c>
       <c r="H11">
-        <v>2.863623267347707</v>
+        <v>2.852776989254548</v>
       </c>
       <c r="I11">
-        <v>2.713979073052054</v>
+        <v>2.757647126919605</v>
       </c>
       <c r="J11">
-        <v>8.636486617014501</v>
+        <v>8.378063603656621</v>
       </c>
       <c r="K11">
-        <v>15.31658220900114</v>
+        <v>14.35420568897657</v>
       </c>
       <c r="L11">
-        <v>6.075679657901845</v>
+        <v>11.67487637117441</v>
       </c>
       <c r="M11">
-        <v>26.07046313982496</v>
+        <v>9.729503498039238</v>
       </c>
       <c r="N11">
-        <v>5.536293245685133</v>
+        <v>6.010252169890084</v>
       </c>
       <c r="O11">
-        <v>19.45976662907556</v>
+        <v>26.08608468276153</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>5.67439418597059</v>
       </c>
       <c r="Q11">
-        <v>13.79522958374848</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.38494643657142</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.09628624440395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.064508345139471</v>
+        <v>8.078809176413344</v>
       </c>
       <c r="D12">
-        <v>6.862359874316716</v>
+        <v>6.986098423463982</v>
       </c>
       <c r="E12">
-        <v>7.999500551825188</v>
+        <v>7.881736542462084</v>
       </c>
       <c r="F12">
-        <v>18.88508982646224</v>
+        <v>17.88513892050246</v>
       </c>
       <c r="G12">
-        <v>19.31539423436984</v>
+        <v>19.21529165882416</v>
       </c>
       <c r="H12">
-        <v>4.214251490404139</v>
+        <v>4.207985146365992</v>
       </c>
       <c r="I12">
-        <v>2.729794645057411</v>
+        <v>2.770347717424932</v>
       </c>
       <c r="J12">
-        <v>8.439854333163812</v>
+        <v>8.176228925642762</v>
       </c>
       <c r="K12">
-        <v>14.80026916745938</v>
+        <v>13.87930319106348</v>
       </c>
       <c r="L12">
-        <v>6.035766157476717</v>
+        <v>11.3359418066865</v>
       </c>
       <c r="M12">
-        <v>26.47282232332044</v>
+        <v>9.364718466198958</v>
       </c>
       <c r="N12">
-        <v>5.441419002442141</v>
+        <v>5.989283376275759</v>
       </c>
       <c r="O12">
-        <v>19.28309812594548</v>
+        <v>26.48522846157953</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.548121787099857</v>
       </c>
       <c r="Q12">
-        <v>13.32034726480799</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>19.21715542988184</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.64327161432097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.726445418534414</v>
+        <v>7.818139970723625</v>
       </c>
       <c r="D13">
-        <v>6.601234117384938</v>
+        <v>6.714973645595318</v>
       </c>
       <c r="E13">
-        <v>7.639271565304044</v>
+        <v>7.539870584718594</v>
       </c>
       <c r="F13">
-        <v>18.12818810099381</v>
+        <v>17.23470262909603</v>
       </c>
       <c r="G13">
-        <v>18.29565346334781</v>
+        <v>18.14255803964799</v>
       </c>
       <c r="H13">
-        <v>5.624922054687739</v>
+        <v>5.618682186586087</v>
       </c>
       <c r="I13">
-        <v>2.697545610498308</v>
+        <v>2.742644931572521</v>
       </c>
       <c r="J13">
-        <v>8.29031656269574</v>
+        <v>8.126544352153012</v>
       </c>
       <c r="K13">
-        <v>14.33352114767031</v>
+        <v>13.50972018395463</v>
       </c>
       <c r="L13">
-        <v>6.0413645449615</v>
+        <v>11.10182359607202</v>
       </c>
       <c r="M13">
-        <v>26.49211817619613</v>
+        <v>9.025446329406305</v>
       </c>
       <c r="N13">
-        <v>5.415681281581162</v>
+        <v>6.012091425705138</v>
       </c>
       <c r="O13">
-        <v>18.86036131317035</v>
+        <v>26.50477204550899</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.498323795398496</v>
       </c>
       <c r="Q13">
-        <v>12.92655126360087</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>18.79974413208</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.33104006321725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.449043423892583</v>
+        <v>7.591757287488216</v>
       </c>
       <c r="D14">
-        <v>6.392256515505183</v>
+        <v>6.490261730486875</v>
       </c>
       <c r="E14">
-        <v>7.433728429206036</v>
+        <v>7.347539170745672</v>
       </c>
       <c r="F14">
-        <v>17.62193987148107</v>
+        <v>16.83844518397258</v>
       </c>
       <c r="G14">
-        <v>17.62795677369365</v>
+        <v>17.2530231867198</v>
       </c>
       <c r="H14">
-        <v>6.629036587470565</v>
+        <v>6.621855542626109</v>
       </c>
       <c r="I14">
-        <v>2.65454675566798</v>
+        <v>2.70660439114266</v>
       </c>
       <c r="J14">
-        <v>8.207749624732001</v>
+        <v>8.141806651658458</v>
       </c>
       <c r="K14">
-        <v>14.02945122919758</v>
+        <v>13.29469115905192</v>
       </c>
       <c r="L14">
-        <v>6.071984234408943</v>
+        <v>10.97756257145154</v>
       </c>
       <c r="M14">
-        <v>26.3328321056877</v>
+        <v>8.800313288668342</v>
       </c>
       <c r="N14">
-        <v>5.437080190582862</v>
+        <v>6.052949036574763</v>
       </c>
       <c r="O14">
-        <v>18.44632703229167</v>
+        <v>26.34715878526591</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.50734349108842</v>
       </c>
       <c r="Q14">
-        <v>12.6901615343868</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>18.38788368125114</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.17329666612064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.356994027239608</v>
+        <v>7.511276702173215</v>
       </c>
       <c r="D15">
-        <v>6.330412123123056</v>
+        <v>6.420938172584021</v>
       </c>
       <c r="E15">
-        <v>7.389502603177639</v>
+        <v>7.306898779848813</v>
       </c>
       <c r="F15">
-        <v>17.50488801998056</v>
+        <v>16.76294318839484</v>
       </c>
       <c r="G15">
-        <v>17.47864947714776</v>
+        <v>16.97744551000216</v>
       </c>
       <c r="H15">
-        <v>6.863578865516732</v>
+        <v>6.85571924647664</v>
       </c>
       <c r="I15">
-        <v>2.635092186278524</v>
+        <v>2.691029890842744</v>
       </c>
       <c r="J15">
-        <v>8.196358080499234</v>
+        <v>8.16708138515815</v>
       </c>
       <c r="K15">
-        <v>13.96093679697455</v>
+        <v>13.25691283488989</v>
       </c>
       <c r="L15">
-        <v>6.081935020872595</v>
+        <v>10.96083117275919</v>
       </c>
       <c r="M15">
-        <v>26.21134473216977</v>
+        <v>8.747696854203991</v>
       </c>
       <c r="N15">
-        <v>5.447608176119619</v>
+        <v>6.064958798822664</v>
       </c>
       <c r="O15">
-        <v>18.29130079811295</v>
+        <v>26.22678715210684</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.51661570607183</v>
       </c>
       <c r="Q15">
-        <v>12.64679142784887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>18.23270941463738</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.15809903206169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.206097303741675</v>
+        <v>7.350550482892568</v>
       </c>
       <c r="D16">
-        <v>6.232004488944853</v>
+        <v>6.292559161431596</v>
       </c>
       <c r="E16">
-        <v>7.388917415153083</v>
+        <v>7.308836660980722</v>
       </c>
       <c r="F16">
-        <v>17.62695276997772</v>
+        <v>17.00626918828677</v>
       </c>
       <c r="G16">
-        <v>17.70072918618606</v>
+        <v>16.63146385235463</v>
       </c>
       <c r="H16">
-        <v>6.670546313792237</v>
+        <v>6.657642047399783</v>
       </c>
       <c r="I16">
-        <v>2.532056240066679</v>
+        <v>2.60430922008638</v>
       </c>
       <c r="J16">
-        <v>8.291968151718184</v>
+        <v>8.392426416042202</v>
       </c>
       <c r="K16">
-        <v>14.06524397751909</v>
+        <v>13.433830292912</v>
       </c>
       <c r="L16">
-        <v>6.065949496860709</v>
+        <v>11.11839981441147</v>
       </c>
       <c r="M16">
-        <v>25.40715826956387</v>
+        <v>8.804542926523132</v>
       </c>
       <c r="N16">
-        <v>5.455626922990456</v>
+        <v>6.046342366352367</v>
       </c>
       <c r="O16">
-        <v>17.79824176220314</v>
+        <v>25.42899112631639</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.538574866645895</v>
       </c>
       <c r="Q16">
-        <v>12.8145291676394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>17.73391244839942</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.39991575744252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.239245741378879</v>
+        <v>7.352510620968801</v>
       </c>
       <c r="D17">
-        <v>6.270434614249747</v>
+        <v>6.320164803943548</v>
       </c>
       <c r="E17">
-        <v>7.48887382670179</v>
+        <v>7.402753881678848</v>
       </c>
       <c r="F17">
-        <v>17.98661625016972</v>
+        <v>17.3913651164468</v>
       </c>
       <c r="G17">
-        <v>18.21861687804783</v>
+        <v>16.90406081025415</v>
       </c>
       <c r="H17">
-        <v>5.960083068361119</v>
+        <v>5.942631263351765</v>
       </c>
       <c r="I17">
-        <v>2.541614883001608</v>
+        <v>2.556823520178158</v>
       </c>
       <c r="J17">
-        <v>8.408017142928971</v>
+        <v>8.561745937990043</v>
       </c>
       <c r="K17">
-        <v>14.3037411684609</v>
+        <v>13.67667713926787</v>
       </c>
       <c r="L17">
-        <v>6.033404026872322</v>
+        <v>11.30965665888002</v>
       </c>
       <c r="M17">
-        <v>24.86474940682639</v>
+        <v>8.956755406807632</v>
       </c>
       <c r="N17">
-        <v>5.446084915939364</v>
+        <v>6.007121036316602</v>
       </c>
       <c r="O17">
-        <v>17.64382215209834</v>
+        <v>24.89017291750062</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.545541623752155</v>
       </c>
       <c r="Q17">
-        <v>13.06515550679677</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>17.57489931821058</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.6618316540666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.458266491983787</v>
+        <v>7.51093909945886</v>
       </c>
       <c r="D18">
-        <v>6.429934067307114</v>
+        <v>6.47807354226108</v>
       </c>
       <c r="E18">
-        <v>7.733905996372838</v>
+        <v>7.632708194515097</v>
       </c>
       <c r="F18">
-        <v>18.60909920142635</v>
+        <v>17.98144680365424</v>
       </c>
       <c r="G18">
-        <v>19.07882026349394</v>
+        <v>17.6083971326663</v>
       </c>
       <c r="H18">
-        <v>4.757187157119036</v>
+        <v>4.734111109980982</v>
       </c>
       <c r="I18">
-        <v>2.553849601847818</v>
+        <v>2.533879850555282</v>
       </c>
       <c r="J18">
-        <v>8.560032384354651</v>
+        <v>8.723247515327277</v>
       </c>
       <c r="K18">
-        <v>14.70252477807983</v>
+        <v>14.0338988705091</v>
       </c>
       <c r="L18">
-        <v>6.009003718804025</v>
+        <v>11.57669980674584</v>
       </c>
       <c r="M18">
-        <v>24.49792472640265</v>
+        <v>9.224386115555202</v>
       </c>
       <c r="N18">
-        <v>5.452971099579717</v>
+        <v>5.970913292962341</v>
       </c>
       <c r="O18">
-        <v>17.76976240459717</v>
+        <v>24.52548135033496</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.573837096540648</v>
       </c>
       <c r="Q18">
-        <v>13.42890575516685</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>17.69547073635515</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.99835266657605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.768715972497317</v>
+        <v>7.741292282034379</v>
       </c>
       <c r="D19">
-        <v>6.675483920032424</v>
+        <v>6.72711410412255</v>
       </c>
       <c r="E19">
-        <v>8.133868257762254</v>
+        <v>8.01155171100117</v>
       </c>
       <c r="F19">
-        <v>19.37711383098233</v>
+        <v>18.68181935101001</v>
       </c>
       <c r="G19">
-        <v>20.11874458564882</v>
+        <v>18.52482793035146</v>
       </c>
       <c r="H19">
-        <v>3.366245423672114</v>
+        <v>3.335263172123326</v>
       </c>
       <c r="I19">
-        <v>2.545418073908018</v>
+        <v>2.547730693440924</v>
       </c>
       <c r="J19">
-        <v>8.726200286373588</v>
+        <v>8.873666054331778</v>
       </c>
       <c r="K19">
-        <v>15.18165487309216</v>
+        <v>14.44338006663752</v>
       </c>
       <c r="L19">
-        <v>6.031174221463603</v>
+        <v>11.87550900265942</v>
       </c>
       <c r="M19">
-        <v>24.30636245970064</v>
+        <v>9.55137868389223</v>
       </c>
       <c r="N19">
-        <v>5.518754794672608</v>
+        <v>5.976709670483327</v>
       </c>
       <c r="O19">
-        <v>18.10249984640044</v>
+        <v>24.33490297067643</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>5.665225633906779</v>
       </c>
       <c r="Q19">
-        <v>13.84755394616089</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>18.02216453909589</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.36630574150236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.389118127390821</v>
+        <v>8.22622907189325</v>
       </c>
       <c r="D20">
-        <v>7.140489437410833</v>
+        <v>7.208997279920196</v>
       </c>
       <c r="E20">
-        <v>8.918993358712799</v>
+        <v>8.761252574936822</v>
       </c>
       <c r="F20">
-        <v>20.58024717419355</v>
+        <v>19.714861914588</v>
       </c>
       <c r="G20">
-        <v>21.71733552991653</v>
+        <v>20.11145095051021</v>
       </c>
       <c r="H20">
-        <v>2.005128517308779</v>
+        <v>1.969849087480543</v>
       </c>
       <c r="I20">
-        <v>2.572005117850592</v>
+        <v>2.639234169128148</v>
       </c>
       <c r="J20">
-        <v>8.941039518597597</v>
+        <v>8.979277080656985</v>
       </c>
       <c r="K20">
-        <v>15.92118280178676</v>
+        <v>15.02856520857048</v>
       </c>
       <c r="L20">
-        <v>6.17086676200342</v>
+        <v>12.25911617562527</v>
       </c>
       <c r="M20">
-        <v>24.61959782706275</v>
+        <v>10.09245003914518</v>
       </c>
       <c r="N20">
-        <v>5.731165906404186</v>
+        <v>6.086930790532969</v>
       </c>
       <c r="O20">
-        <v>18.99154096701375</v>
+        <v>24.64589256257498</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>5.913335073321136</v>
       </c>
       <c r="Q20">
-        <v>14.44365585362492</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>18.90294474144777</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.83933202304567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.811876697424184</v>
+        <v>8.636016921659829</v>
       </c>
       <c r="D21">
-        <v>7.444604623697358</v>
+        <v>7.580837797098083</v>
       </c>
       <c r="E21">
-        <v>9.158289518294087</v>
+        <v>8.996140685334185</v>
       </c>
       <c r="F21">
-        <v>20.82304943587271</v>
+        <v>19.62233432043727</v>
       </c>
       <c r="G21">
-        <v>21.95633835288695</v>
+        <v>21.70677357782968</v>
       </c>
       <c r="H21">
-        <v>1.741624945178662</v>
+        <v>1.733242768782715</v>
       </c>
       <c r="I21">
-        <v>2.773383337813417</v>
+        <v>2.809046026914237</v>
       </c>
       <c r="J21">
-        <v>8.869126292208893</v>
+        <v>8.415104894957807</v>
       </c>
       <c r="K21">
-        <v>16.02320360106275</v>
+        <v>14.89943698739514</v>
       </c>
       <c r="L21">
-        <v>6.217000254011166</v>
+        <v>12.03564520691742</v>
       </c>
       <c r="M21">
-        <v>26.04337715976228</v>
+        <v>10.21175215815636</v>
       </c>
       <c r="N21">
-        <v>5.759363413884409</v>
+        <v>6.120668421837759</v>
       </c>
       <c r="O21">
-        <v>20.05146248620202</v>
+        <v>26.05706603565607</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>5.935678405168079</v>
       </c>
       <c r="Q21">
-        <v>14.40282631589889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>19.97126221132218</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.56282231771725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.08256874363786</v>
+        <v>8.907760793490324</v>
       </c>
       <c r="D22">
-        <v>7.619031689819493</v>
+        <v>7.802347323319421</v>
       </c>
       <c r="E22">
-        <v>9.278234076476641</v>
+        <v>9.116581696600228</v>
       </c>
       <c r="F22">
-        <v>20.95966588212994</v>
+        <v>19.52593788486356</v>
       </c>
       <c r="G22">
-        <v>22.0957052289709</v>
+        <v>22.89264735629961</v>
       </c>
       <c r="H22">
-        <v>1.584755533911224</v>
+        <v>1.593364881593249</v>
       </c>
       <c r="I22">
-        <v>2.896000213718523</v>
+        <v>2.910419406609285</v>
       </c>
       <c r="J22">
-        <v>8.820158898209089</v>
+        <v>8.101960513405935</v>
       </c>
       <c r="K22">
-        <v>16.08289305236029</v>
+        <v>14.7991782327983</v>
       </c>
       <c r="L22">
-        <v>6.239300974763943</v>
+        <v>11.88002706848799</v>
       </c>
       <c r="M22">
-        <v>26.93892063593882</v>
+        <v>10.28603487060045</v>
       </c>
       <c r="N22">
-        <v>5.762581457201292</v>
+        <v>6.136091209374673</v>
       </c>
       <c r="O22">
-        <v>20.69265891070629</v>
+        <v>26.94448888833726</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>5.933219952619293</v>
       </c>
       <c r="Q22">
-        <v>14.37072394700034</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>20.61839230367935</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.36380489933305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.966764099154576</v>
+        <v>8.781860492196738</v>
       </c>
       <c r="D23">
-        <v>7.524817191453706</v>
+        <v>7.675841381949415</v>
       </c>
       <c r="E23">
-        <v>9.218459804656955</v>
+        <v>9.054365426617924</v>
       </c>
       <c r="F23">
-        <v>20.90818116407523</v>
+        <v>19.62540161237483</v>
       </c>
       <c r="G23">
-        <v>22.05685765476092</v>
+        <v>22.11494827006583</v>
       </c>
       <c r="H23">
-        <v>1.667128970749412</v>
+        <v>1.666043117177191</v>
       </c>
       <c r="I23">
-        <v>2.826272046124167</v>
+        <v>2.851220404985553</v>
       </c>
       <c r="J23">
-        <v>8.851943029861669</v>
+        <v>8.303642627030753</v>
       </c>
       <c r="K23">
-        <v>16.07213677496859</v>
+        <v>14.88937281139007</v>
       </c>
       <c r="L23">
-        <v>6.229093470021637</v>
+        <v>11.98737871578532</v>
       </c>
       <c r="M23">
-        <v>26.46445879440865</v>
+        <v>10.27706655786463</v>
       </c>
       <c r="N23">
-        <v>5.758665654285307</v>
+        <v>6.129909904378143</v>
       </c>
       <c r="O23">
-        <v>20.35528280598854</v>
+        <v>26.47510504098566</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>5.932488281693272</v>
       </c>
       <c r="Q23">
-        <v>14.40230052744073</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>20.27618845136844</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.50333595697354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.464553229013729</v>
+        <v>8.290783585369544</v>
       </c>
       <c r="D24">
-        <v>7.161290618632051</v>
+        <v>7.229754153355805</v>
       </c>
       <c r="E24">
-        <v>8.981757442026311</v>
+        <v>8.821648484462118</v>
       </c>
       <c r="F24">
-        <v>20.70075074697931</v>
+        <v>19.82854920331408</v>
       </c>
       <c r="G24">
-        <v>21.89317109553282</v>
+        <v>20.26511911216175</v>
       </c>
       <c r="H24">
-        <v>1.987326897086322</v>
+        <v>1.952057622318984</v>
       </c>
       <c r="I24">
-        <v>2.5641228226496</v>
+        <v>2.629032549472313</v>
       </c>
       <c r="J24">
-        <v>8.970506128574602</v>
+        <v>9.008850537256629</v>
       </c>
       <c r="K24">
-        <v>16.00961876418919</v>
+        <v>15.10825321355139</v>
       </c>
       <c r="L24">
-        <v>6.186784093946128</v>
+        <v>12.31829831008984</v>
       </c>
       <c r="M24">
-        <v>24.58590112602495</v>
+        <v>10.15445814546563</v>
       </c>
       <c r="N24">
-        <v>5.748274910049454</v>
+        <v>6.100487967967324</v>
       </c>
       <c r="O24">
-        <v>19.01987635392243</v>
+        <v>24.61232537094726</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>5.933073509039724</v>
       </c>
       <c r="Q24">
-        <v>14.51690369307594</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>18.93054589279624</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.90664460067104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.883665960978581</v>
+        <v>7.811642552936446</v>
       </c>
       <c r="D25">
-        <v>6.750973795096617</v>
+        <v>6.808820421996181</v>
       </c>
       <c r="E25">
-        <v>8.719057965737354</v>
+        <v>8.584406014204763</v>
       </c>
       <c r="F25">
-        <v>20.52671208459082</v>
+        <v>19.79009567629058</v>
       </c>
       <c r="G25">
-        <v>21.80584198029668</v>
+        <v>20.25683234379583</v>
       </c>
       <c r="H25">
-        <v>2.347283899298322</v>
+        <v>2.283636002689397</v>
       </c>
       <c r="I25">
-        <v>2.720457557607673</v>
+        <v>2.629116353833058</v>
       </c>
       <c r="J25">
-        <v>9.114521270350657</v>
+        <v>9.180202171444767</v>
       </c>
       <c r="K25">
-        <v>15.97014143718892</v>
+        <v>15.17648092106839</v>
       </c>
       <c r="L25">
-        <v>6.139002068753432</v>
+        <v>12.55566510605085</v>
       </c>
       <c r="M25">
-        <v>22.38353096717352</v>
+        <v>9.932970566689157</v>
       </c>
       <c r="N25">
-        <v>5.738906476359224</v>
+        <v>6.059821546305845</v>
       </c>
       <c r="O25">
-        <v>17.46553663458704</v>
+        <v>22.41808939007662</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>5.932040239146962</v>
       </c>
       <c r="Q25">
-        <v>14.68027338136767</v>
+        <v>17.3825656620121</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.15558853521485</v>
       </c>
     </row>
   </sheetData>
